--- a/Source/bug处理记录/MES系统bug解决记录.xlsx
+++ b/Source/bug处理记录/MES系统bug解决记录.xlsx
@@ -14,61 +14,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>序号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>bug标题</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>bug详细描述</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>项目模块</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>处理人</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>处理描述</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>处理状态</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 公司地址省份出错</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>单位管理→公司管理→添加公司</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>周雅波</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>已解决</t>
   </si>
   <si>
     <t>公司列表中的经营范围接口错误</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>记录经营范围→点击编辑记录好的公司</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>操作步骤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -100,30 +96,169 @@
       </rPr>
       <t>的选择</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>点击新增按钮→在公司地址选择省</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>未处理</t>
   </si>
   <si>
     <t>数据库表里录入省份了为12的数据，删除即可</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法提前选择上级公司新增</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位管理→公司管理→新增</t>
+  </si>
+  <si>
+    <t>选择公司→点击新增</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>周雅波</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有编辑才需要选中列表中的一行数据，新增不需要，测试人员没有不了解操作逻辑，无需处理</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">列表显示的经营范围和编辑时的经营范围内容不一样，和传真内容相同。
+列表的经营范围接口跟编辑是的传真接口相同。
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录经营范围→点击编辑记录好的公司</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择的公司高亮显示→弹出添加公司框，上级公司栏显示为空</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位管理→公司管理</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>周雅波</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>所选项高亮显示→弹出编辑框→上级**栏显示自己→返回到列表，并刚编辑的项会消失</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>选择要编辑的项→点击编辑→选择上级</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>**</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（选自己）→点击确认</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑中有上级功能都出错</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>单位组织→</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>**</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>管理→编辑→上级</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>**</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位管理→用户管理→添加（编辑）→上传附件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出添加账户框→弹出上传附件框→确认按钮用不了</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加账户→照片（上传）→添加图片（把附件拖进去）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传附件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+图片里“∨”意思为上传成功，并没有确认功能，测试人员不理解图标的含义，无需处理</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -176,6 +311,14 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -223,35 +366,38 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -294,6 +440,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>656774</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11153776" y="2381250"/>
+          <a:ext cx="628198" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -585,8 +774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -594,7 +783,7 @@
     <col min="2" max="2" width="19.5" customWidth="1"/>
     <col min="3" max="3" width="19.5" style="11" customWidth="1"/>
     <col min="4" max="4" width="34.625" customWidth="1"/>
-    <col min="5" max="5" width="29" customWidth="1"/>
+    <col min="5" max="5" width="37.25" customWidth="1"/>
     <col min="6" max="6" width="26.125" customWidth="1"/>
     <col min="7" max="7" width="22.75" customWidth="1"/>
     <col min="8" max="8" width="14.375" style="8" customWidth="1"/>
@@ -608,7 +797,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -634,10 +823,10 @@
         <v>7</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>8</v>
@@ -646,69 +835,107 @@
         <v>9</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+      <c r="C3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>26</v>
+      </c>
       <c r="G3" s="5"/>
       <c r="H3" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="54" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+      <c r="B4" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>21</v>
+      </c>
       <c r="H4" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="B5" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>30</v>
+      </c>
       <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
+      <c r="G5" s="14" t="s">
+        <v>35</v>
+      </c>
       <c r="H5" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="B6" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>31</v>
+      </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="7"/>
+      <c r="H6" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
@@ -867,7 +1094,7 @@
       <c r="H19" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="H2:H19">
     <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"已解决"</formula>
@@ -900,5 +1127,6 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Source/bug处理记录/MES系统bug解决记录.xlsx
+++ b/Source/bug处理记录/MES系统bug解决记录.xlsx
@@ -1,70 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
   <si>
     <t>序号</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>bug标题</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作步骤</t>
   </si>
   <si>
     <t>bug详细描述</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>项目模块</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>处理人</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>处理描述</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>处理状态</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 公司地址省份出错</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位管理→公司管理→添加公司</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>周雅波</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>已解决</t>
-  </si>
-  <si>
-    <t>公司列表中的经营范围接口错误</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作步骤</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击新增按钮→在公司地址选择省</t>
   </si>
   <si>
     <r>
@@ -72,7 +51,6 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>出现一个</t>
@@ -82,7 +60,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>12</t>
     </r>
@@ -91,71 +69,70 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>的选择</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击新增按钮→在公司地址选择省</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>未处理</t>
+  </si>
+  <si>
+    <t>单位管理→公司管理→添加公司</t>
+  </si>
+  <si>
+    <t>周雅波</t>
   </si>
   <si>
     <t>数据库表里录入省份了为12的数据，删除即可</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>无法提前选择上级公司新增</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位管理→公司管理→新增</t>
-  </si>
-  <si>
-    <t>选择公司→点击新增</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>周雅波</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>只有编辑才需要选中列表中的一行数据，新增不需要，测试人员没有不了解操作逻辑，无需处理</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
+  </si>
+  <si>
+    <t>公司列表中的经营范围接口错误</t>
+  </si>
+  <si>
+    <t>记录经营范围→点击编辑记录好的公司</t>
   </si>
   <si>
     <t xml:space="preserve">列表显示的经营范围和编辑时的经营范围内容不一样，和传真内容相同。
 列表的经营范围接口跟编辑是的传真接口相同。
 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>记录经营范围→点击编辑记录好的公司</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位管理→公司管理</t>
+  </si>
+  <si>
+    <t>何鹏</t>
+  </si>
+  <si>
+    <t>将接口修正</t>
+  </si>
+  <si>
+    <t>无法提前选择上级公司新增</t>
+  </si>
+  <si>
+    <t>选择公司→点击新增</t>
   </si>
   <si>
     <t>选择的公司高亮显示→弹出添加公司框，上级公司栏显示为空</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位管理→公司管理</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>周雅波</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>所选项高亮显示→弹出编辑框→上级**栏显示自己→返回到列表，并刚编辑的项会消失</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位管理→公司管理→新增</t>
+  </si>
+  <si>
+    <t>上级公司采用Selectset赋值</t>
+  </si>
+  <si>
+    <t>编辑中有上级功能都出错</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>选择要编辑的项→点击编辑→选择上级</t>
     </r>
     <r>
@@ -163,7 +140,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>**</t>
     </r>
@@ -172,20 +149,24 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>（选自己）→点击确认</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑中有上级功能都出错</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>所选项高亮显示→弹出编辑框→上级**栏显示自己→返回到列表，并刚编辑的项会消失</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>单位组织→</t>
     </r>
     <r>
@@ -193,7 +174,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>**</t>
     </r>
@@ -202,7 +183,6 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -213,114 +193,235 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>**</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+在用户点击确认的时候弹出提示‘不能和上级相同’并且不保存</t>
+  </si>
+  <si>
+    <t>上传附件</t>
+  </si>
+  <si>
+    <t>添加账户→照片（上传）→添加图片（把附件拖进去）</t>
+  </si>
+  <si>
+    <t>弹出添加账户框→弹出上传附件框→确认按钮用不了</t>
   </si>
   <si>
     <t>单位管理→用户管理→添加（编辑）→上传附件</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹出添加账户框→弹出上传附件框→确认按钮用不了</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加账户→照片（上传）→添加图片（把附件拖进去）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>上传附件</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">
 图片里“∨”意思为上传成功，并没有确认功能，测试人员不理解图标的含义，无需处理</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -329,18 +430,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -350,81 +631,364 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="33" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="33" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="33" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="20% - 着色 5" xfId="1" builtinId="46"/>
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
+        <patternFill patternType="solid">
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -435,15 +999,12 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
@@ -465,15 +1026,53 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11153776" y="2381250"/>
-          <a:ext cx="628198" cy="276225"/>
+          <a:off x="10041890" y="2122170"/>
+          <a:ext cx="628015" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>656591</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10041890" y="2853690"/>
+          <a:ext cx="628015" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -528,7 +1127,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -563,7 +1162,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -766,348 +1365,342 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="19.5" customWidth="1"/>
-    <col min="3" max="3" width="19.5" style="11" customWidth="1"/>
-    <col min="4" max="4" width="34.625" customWidth="1"/>
+    <col min="3" max="3" width="19.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="34.6296296296296" customWidth="1"/>
     <col min="5" max="5" width="37.25" customWidth="1"/>
-    <col min="6" max="6" width="26.125" customWidth="1"/>
+    <col min="6" max="6" width="26.1296296296296" customWidth="1"/>
     <col min="7" max="7" width="22.75" customWidth="1"/>
-    <col min="8" max="8" width="14.375" style="8" customWidth="1"/>
+    <col min="8" max="8" width="14.3796296296296" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="1" customFormat="1" ht="35.25" customHeight="1" spans="1:8">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" ht="28.8" spans="1:8">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="G2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" ht="72" spans="1:8">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="B3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" ht="28.8" spans="1:8">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="B4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" ht="57.6" spans="1:8">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="B5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" ht="86.4" spans="1:8">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="B6" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="12"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="12"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="12"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="7">
+        <v>12</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="12"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="7">
+        <v>13</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="12"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="13" t="s">
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="12"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="7">
+        <v>15</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="12"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="H2" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="54" x14ac:dyDescent="0.15">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="14" t="s">
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="12"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="12"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="F4" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="7"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="7"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="7"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="12"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="H2:H19">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
-      <formula>"已解决"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
-      <formula>"未处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"处理中"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A2:A19">
     <cfRule type="colorScale" priority="2">
       <colorScale>
@@ -1120,13 +1713,27 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H$1:H$1048576">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>"未处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"处理中"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H19">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>"已解决"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H2 H3 H4:H1048576">
       <formula1>"处理中,未处理,已解决"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Source/bug处理记录/MES系统bug解决记录.xlsx
+++ b/Source/bug处理记录/MES系统bug解决记录.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
   <si>
     <t>序号</t>
   </si>
@@ -218,18 +218,33 @@
     <t xml:space="preserve">
 图片里“∨”意思为上传成功，并没有确认功能，测试人员不理解图标的含义，无需处理</t>
   </si>
+  <si>
+    <t>账户列表部门为空</t>
+  </si>
+  <si>
+    <t>查看已有添加部门的账号</t>
+  </si>
+  <si>
+    <t>部门栏没有显示部门</t>
+  </si>
+  <si>
+    <t>单位管理→用户管理→账户列表</t>
+  </si>
+  <si>
+    <t>新增部门接口字段</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,21 +267,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,132 +334,80 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -442,181 +444,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -645,33 +647,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -689,11 +664,33 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -713,6 +710,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -728,165 +736,159 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1373,8 +1375,8 @@
   <sheetPr/>
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -1544,17 +1546,31 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" ht="28.8" spans="1:8">
       <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="12"/>
+      <c r="B7" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="7">
@@ -1727,7 +1743,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H2 H3 H4:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H2 H3 H7 H4:H6 H8:H1048576">
       <formula1>"处理中,未处理,已解决"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Source/bug处理记录/MES系统bug解决记录.xlsx
+++ b/Source/bug处理记录/MES系统bug解决记录.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
   <si>
     <t>序号</t>
   </si>
@@ -233,6 +233,21 @@
   <si>
     <t>新增部门接口字段</t>
   </si>
+  <si>
+    <t>账户无法选择角色</t>
+  </si>
+  <si>
+    <t>新增账户或者编辑账户→点击角色栏</t>
+  </si>
+  <si>
+    <t>弹出新增账户或编辑账户管理框→打开不了下拉框</t>
+  </si>
+  <si>
+    <t>单位管理→用户管理→角色</t>
+  </si>
+  <si>
+    <t>这边没有出现这个问题，预测版本没更新</t>
+  </si>
 </sst>
 </file>
 
@@ -267,14 +282,129 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,125 +418,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -444,181 +459,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -647,21 +662,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -682,15 +682,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -744,151 +735,175 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1075,6 +1090,44 @@
         <a:xfrm>
           <a:off x="10041890" y="2853690"/>
           <a:ext cx="628015" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>40005</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>860425</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>539750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3" descr="3%L4MC_%1R39RX)FHV64%IA"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10079990" y="4328160"/>
+          <a:ext cx="793750" cy="499745"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1375,8 +1428,8 @@
   <sheetPr/>
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -1572,17 +1625,31 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" ht="76" customHeight="1" spans="1:8">
       <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="12"/>
+      <c r="B8" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="7">
@@ -1743,7 +1810,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H2 H3 H7 H4:H6 H8:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H2 H3 H7 H8 H4:H6 H9:H1048576">
       <formula1>"处理中,未处理,已解决"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Source/bug处理记录/MES系统bug解决记录.xlsx
+++ b/Source/bug处理记录/MES系统bug解决记录.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BJ_MES\bug处理记录\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="50">
   <si>
     <t>序号</t>
   </si>
@@ -60,7 +65,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>12</t>
     </r>
@@ -140,7 +145,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>**</t>
     </r>
@@ -174,7 +179,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>**</t>
     </r>
@@ -193,7 +198,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>**</t>
     </r>
@@ -247,19 +252,28 @@
   </si>
   <si>
     <t>这边没有出现这个问题，预测版本没更新</t>
+  </si>
+  <si>
+    <t>添加或编辑中的下拉框的搜索按钮使用不了</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位组织中的模块基本上拥有这个功能的都用不了</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>那个不是搜索按钮，只是一个搜索框提示，用户在搜索框内键入内容后直接“Enter”则可以进行搜索，无需处理</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>无需处理</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,153 +296,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -437,8 +314,22 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -453,192 +344,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -661,253 +372,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -920,75 +392,52 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="33" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="33" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="33" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
+    <cellStyle name="20% - 着色 5" xfId="1" builtinId="46"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1016,12 +465,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
@@ -1043,7 +495,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1081,7 +533,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1119,7 +571,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1420,30 +872,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="19.5" customWidth="1"/>
     <col min="3" max="3" width="19.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="34.6296296296296" customWidth="1"/>
+    <col min="4" max="4" width="34.625" customWidth="1"/>
     <col min="5" max="5" width="37.25" customWidth="1"/>
-    <col min="6" max="6" width="26.1296296296296" customWidth="1"/>
+    <col min="6" max="6" width="26.125" customWidth="1"/>
     <col min="7" max="7" width="22.75" customWidth="1"/>
-    <col min="8" max="8" width="14.3796296296296" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="35.25" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1469,7 +921,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="28.8" spans="1:8">
+    <row r="2" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -1495,7 +947,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" ht="72" spans="1:8">
+    <row r="3" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -1521,7 +973,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" ht="28.8" spans="1:8">
+    <row r="4" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -1547,7 +999,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" ht="57.6" spans="1:8">
+    <row r="5" spans="1:8" ht="55.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -1573,7 +1025,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" ht="86.4" spans="1:8">
+    <row r="6" spans="1:8" ht="81" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -1596,10 +1048,10 @@
         <v>35</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" ht="28.8" spans="1:8">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -1625,7 +1077,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" ht="76" customHeight="1" spans="1:8">
+    <row r="8" spans="1:8" ht="75.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -1651,19 +1103,29 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="13"/>
+      <c r="B9" s="11" t="s">
+        <v>46</v>
+      </c>
       <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
+      <c r="D9" s="11" t="s">
+        <v>47</v>
+      </c>
       <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="F9" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -1675,7 +1137,7 @@
       <c r="G10" s="13"/>
       <c r="H10" s="12"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -1687,7 +1149,7 @@
       <c r="G11" s="13"/>
       <c r="H11" s="12"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -1699,7 +1161,7 @@
       <c r="G12" s="13"/>
       <c r="H12" s="12"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -1711,7 +1173,7 @@
       <c r="G13" s="13"/>
       <c r="H13" s="12"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -1723,7 +1185,7 @@
       <c r="G14" s="13"/>
       <c r="H14" s="12"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -1735,7 +1197,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="12"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -1747,7 +1209,7 @@
       <c r="G16" s="13"/>
       <c r="H16" s="12"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -1759,7 +1221,7 @@
       <c r="G17" s="13"/>
       <c r="H17" s="12"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -1771,7 +1233,7 @@
       <c r="G18" s="13"/>
       <c r="H18" s="12"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -1784,8 +1246,9 @@
       <c r="H19" s="12"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="A2:A19">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1796,27 +1259,32 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H$1:H$1048576">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"未处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"处理中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>$H$6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H19">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"已解决"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H2 H3 H7 H8 H4:H6 H9:H1048576">
-      <formula1>"处理中,未处理,已解决"</formula1>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H7 H9:H1048576">
+      <formula1>"处理中,未处理,已解决,无需处理"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8">
+      <formula1>"处理中,未处理,已解决,无需处理"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Source/bug处理记录/MES系统bug解决记录.xlsx
+++ b/Source/bug处理记录/MES系统bug解决记录.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="54">
   <si>
     <t>序号</t>
   </si>
@@ -267,6 +267,22 @@
   </si>
   <si>
     <t>无需处理</t>
+  </si>
+  <si>
+    <t>ERP生产计划无法获取</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击ERP生成计划</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>表单数据获取失败，请重新获取！</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产清单管理→生成清单</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -416,18 +432,11 @@
     <cellStyle name="20% - 着色 5" xfId="1" builtinId="46"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -441,13 +450,6 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
           <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
@@ -455,7 +457,7 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -634,7 +636,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -669,7 +671,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -880,8 +882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1125,19 +1127,29 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
+      <c r="B10" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>12</v>
+      </c>
       <c r="G10" s="13"/>
       <c r="H10" s="12"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -1149,7 +1161,7 @@
       <c r="G11" s="13"/>
       <c r="H11" s="12"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -1161,7 +1173,7 @@
       <c r="G12" s="13"/>
       <c r="H12" s="12"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -1173,7 +1185,7 @@
       <c r="G13" s="13"/>
       <c r="H13" s="12"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -1185,7 +1197,7 @@
       <c r="G14" s="13"/>
       <c r="H14" s="12"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -1197,7 +1209,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="12"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -1209,7 +1221,7 @@
       <c r="G16" s="13"/>
       <c r="H16" s="12"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -1221,7 +1233,7 @@
       <c r="G17" s="13"/>
       <c r="H17" s="12"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -1233,7 +1245,7 @@
       <c r="G18" s="13"/>
       <c r="H18" s="12"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -1263,24 +1275,27 @@
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"未处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"处理中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>$H$6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H19">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
       <formula>"已解决"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H7 H9:H1048576">
       <formula1>"处理中,未处理,已解决,无需处理"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8">
       <formula1>"处理中,未处理,已解决,无需处理"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576">
+      <formula1>$F$5:$F$6</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Source/bug处理记录/MES系统bug解决记录.xlsx
+++ b/Source/bug处理记录/MES系统bug解决记录.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BJ_MES\bug处理记录\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -65,7 +60,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>12</t>
     </r>
@@ -145,7 +140,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>**</t>
     </r>
@@ -179,7 +174,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>**</t>
     </r>
@@ -198,7 +193,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>**</t>
     </r>
@@ -224,6 +219,9 @@
 图片里“∨”意思为上传成功，并没有确认功能，测试人员不理解图标的含义，无需处理</t>
   </si>
   <si>
+    <t>无需处理</t>
+  </si>
+  <si>
     <t>账户列表部门为空</t>
   </si>
   <si>
@@ -255,41 +253,37 @@
   </si>
   <si>
     <t>添加或编辑中的下拉框的搜索按钮使用不了</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>单位组织中的模块基本上拥有这个功能的都用不了</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>那个不是搜索按钮，只是一个搜索框提示，用户在搜索框内键入内容后直接“Enter”则可以进行搜索，无需处理</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>无需处理</t>
   </si>
   <si>
     <t>ERP生产计划无法获取</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>点击ERP生成计划</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>表单数据获取失败，请重新获取！</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>生产清单管理→生成清单</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,13 +309,157 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -330,22 +468,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -360,12 +484,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79995117038483843"/>
+        <fgColor theme="8" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -388,10 +692,249 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -408,42 +951,82 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="33" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="33" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="33" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="20% - 着色 5" xfId="1" builtinId="46"/>
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -457,7 +1040,14 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -467,53 +1057,12 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>28576</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>656774</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10041890" y="2122170"/>
-          <a:ext cx="628015" cy="276225"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
@@ -535,7 +1084,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -573,7 +1122,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -636,7 +1185,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -671,7 +1220,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -874,30 +1423,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="19.5" customWidth="1"/>
     <col min="3" max="3" width="19.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="34.625" customWidth="1"/>
+    <col min="4" max="4" width="34.6296296296296" customWidth="1"/>
     <col min="5" max="5" width="37.25" customWidth="1"/>
-    <col min="6" max="6" width="26.125" customWidth="1"/>
+    <col min="6" max="6" width="26.1296296296296" customWidth="1"/>
     <col min="7" max="7" width="22.75" customWidth="1"/>
-    <col min="8" max="8" width="14.375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.3796296296296" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1" ht="35.25" customHeight="1" spans="1:8">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -923,7 +1472,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="2" ht="28.8" spans="1:8">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -949,7 +1498,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="3" ht="72" spans="1:8">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -975,7 +1524,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+    <row r="4" ht="28.8" spans="1:8">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -1001,7 +1550,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="55.5" x14ac:dyDescent="0.25">
+    <row r="5" ht="57.6" spans="1:8">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -1027,7 +1576,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="81" x14ac:dyDescent="0.15">
+    <row r="6" ht="86.4" spans="1:8">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -1050,84 +1599,84 @@
         <v>35</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+    <row r="7" ht="28.8" spans="1:8">
       <c r="A7" s="7">
         <v>6</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>19</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H7" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="75.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" ht="75.95" customHeight="1" spans="1:8">
       <c r="A8" s="7">
         <v>7</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" s="13" t="s">
         <v>19</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="9" ht="72" spans="1:8">
       <c r="A9" s="7">
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13" t="s">
         <v>19</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" ht="32.25" customHeight="1" spans="1:8">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -1149,7 +1698,7 @@
       <c r="G10" s="13"/>
       <c r="H10" s="12"/>
     </row>
-    <row r="11" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" ht="34.5" customHeight="1" spans="1:8">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -1161,7 +1710,7 @@
       <c r="G11" s="13"/>
       <c r="H11" s="12"/>
     </row>
-    <row r="12" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" ht="37.5" customHeight="1" spans="1:8">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -1173,7 +1722,7 @@
       <c r="G12" s="13"/>
       <c r="H12" s="12"/>
     </row>
-    <row r="13" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" ht="38.25" customHeight="1" spans="1:8">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -1185,7 +1734,7 @@
       <c r="G13" s="13"/>
       <c r="H13" s="12"/>
     </row>
-    <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" ht="30" customHeight="1" spans="1:8">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -1197,7 +1746,7 @@
       <c r="G14" s="13"/>
       <c r="H14" s="12"/>
     </row>
-    <row r="15" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" ht="34.5" customHeight="1" spans="1:8">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -1209,7 +1758,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="12"/>
     </row>
-    <row r="16" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" ht="27.75" customHeight="1" spans="1:8">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -1221,7 +1770,7 @@
       <c r="G16" s="13"/>
       <c r="H16" s="12"/>
     </row>
-    <row r="17" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" ht="36.75" customHeight="1" spans="1:8">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -1233,7 +1782,7 @@
       <c r="G17" s="13"/>
       <c r="H17" s="12"/>
     </row>
-    <row r="18" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" ht="40.5" customHeight="1" spans="1:8">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -1245,7 +1794,7 @@
       <c r="G18" s="13"/>
       <c r="H18" s="12"/>
     </row>
-    <row r="19" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" ht="32.25" customHeight="1" spans="1:8">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -1258,7 +1807,6 @@
       <c r="H19" s="12"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="A2:A19">
     <cfRule type="colorScale" priority="3">
       <colorScale>
@@ -1271,35 +1819,33 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+  <conditionalFormatting sqref="H$1:H$1048576">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"未处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"处理中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>$H$6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H19">
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>"已解决"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H7 H9:H1048576">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8 H1:H7 H9:H1048576">
       <formula1>"处理中,未处理,已解决,无需处理"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8">
-      <formula1>"处理中,未处理,已解决,无需处理"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F$1:F$1048576">
       <formula1>$F$5:$F$6</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Source/bug处理记录/MES系统bug解决记录.xlsx
+++ b/Source/bug处理记录/MES系统bug解决记录.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="57">
   <si>
     <t>序号</t>
   </si>
@@ -271,6 +271,15 @@
   </si>
   <si>
     <t>生产清单管理→生成清单</t>
+  </si>
+  <si>
+    <t>新增单据列表多了个项</t>
+  </si>
+  <si>
+    <t>单据管理→单据制作</t>
+  </si>
+  <si>
+    <t>处理中</t>
   </si>
 </sst>
 </file>
@@ -1431,8 +1440,8 @@
   <sheetPr/>
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -1702,13 +1711,23 @@
       <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="13"/>
+      <c r="B11" s="13" t="s">
+        <v>54</v>
+      </c>
       <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
+      <c r="D11" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="G11" s="13"/>
-      <c r="H11" s="12"/>
+      <c r="H11" s="12" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="12" ht="37.5" customHeight="1" spans="1:8">
       <c r="A12" s="7">
@@ -1839,7 +1858,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8 H1:H7 H9:H1048576">
       <formula1>"处理中,未处理,已解决,无需处理"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F$1:F$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11 F1:F10 F12:F1048576">
       <formula1>$F$5:$F$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/Source/bug处理记录/MES系统bug解决记录.xlsx
+++ b/Source/bug处理记录/MES系统bug解决记录.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BJ_MES\bug处理记录\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="62">
   <si>
     <t>序号</t>
   </si>
@@ -60,7 +65,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>12</t>
     </r>
@@ -140,7 +145,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>**</t>
     </r>
@@ -174,7 +179,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>**</t>
     </r>
@@ -193,7 +198,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>**</t>
     </r>
@@ -219,80 +224,104 @@
 图片里“∨”意思为上传成功，并没有确认功能，测试人员不理解图标的含义，无需处理</t>
   </si>
   <si>
+    <t>账户列表部门为空</t>
+  </si>
+  <si>
+    <t>查看已有添加部门的账号</t>
+  </si>
+  <si>
+    <t>部门栏没有显示部门</t>
+  </si>
+  <si>
+    <t>单位管理→用户管理→账户列表</t>
+  </si>
+  <si>
+    <t>新增部门接口字段</t>
+  </si>
+  <si>
+    <t>账户无法选择角色</t>
+  </si>
+  <si>
+    <t>新增账户或者编辑账户→点击角色栏</t>
+  </si>
+  <si>
+    <t>弹出新增账户或编辑账户管理框→打开不了下拉框</t>
+  </si>
+  <si>
+    <t>单位管理→用户管理→角色</t>
+  </si>
+  <si>
+    <t>这边没有出现这个问题，预测版本没更新</t>
+  </si>
+  <si>
+    <t>添加或编辑中的下拉框的搜索按钮使用不了</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位组织中的模块基本上拥有这个功能的都用不了</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>那个不是搜索按钮，只是一个搜索框提示，用户在搜索框内键入内容后直接“Enter”则可以进行搜索，无需处理</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>无需处理</t>
   </si>
   <si>
-    <t>账户列表部门为空</t>
-  </si>
-  <si>
-    <t>查看已有添加部门的账号</t>
-  </si>
-  <si>
-    <t>部门栏没有显示部门</t>
-  </si>
-  <si>
-    <t>单位管理→用户管理→账户列表</t>
-  </si>
-  <si>
-    <t>新增部门接口字段</t>
-  </si>
-  <si>
-    <t>账户无法选择角色</t>
-  </si>
-  <si>
-    <t>新增账户或者编辑账户→点击角色栏</t>
-  </si>
-  <si>
-    <t>弹出新增账户或编辑账户管理框→打开不了下拉框</t>
-  </si>
-  <si>
-    <t>单位管理→用户管理→角色</t>
-  </si>
-  <si>
-    <t>这边没有出现这个问题，预测版本没更新</t>
-  </si>
-  <si>
-    <t>添加或编辑中的下拉框的搜索按钮使用不了</t>
-  </si>
-  <si>
-    <t>单位组织中的模块基本上拥有这个功能的都用不了</t>
-  </si>
-  <si>
-    <t>那个不是搜索按钮，只是一个搜索框提示，用户在搜索框内键入内容后直接“Enter”则可以进行搜索，无需处理</t>
-  </si>
-  <si>
     <t>ERP生产计划无法获取</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>点击ERP生成计划</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>表单数据获取失败，请重新获取！</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>生产清单管理→生成清单</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>新增单据列表多了个项</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>单据管理→单据制作</t>
-  </si>
-  <si>
-    <t>处理中</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 单据制作→**单制作→新增（编辑）→添加物料</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击添加物料→勾选物料</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出添加物料→后面的编辑的框多了刚添加的物料</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增或编辑单据中添加物料</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>已开的项无法用选项栏进行切换</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>单据制作中的新增或编辑中的搜索按钮与清空按钮吃重合和搜索按钮使用不了</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -321,154 +350,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -477,8 +362,22 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -493,192 +392,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -701,249 +420,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -960,78 +440,38 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="33" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="33" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="33" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
+    <cellStyle name="20% - 着色 5" xfId="1" builtinId="46"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1048,15 +488,8 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="solid">
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1066,12 +499,53 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>656774</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10041890" y="2122170"/>
+          <a:ext cx="628015" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
@@ -1093,7 +567,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1131,7 +605,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1194,7 +668,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1229,7 +703,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1432,30 +906,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="19.5" customWidth="1"/>
     <col min="3" max="3" width="19.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="34.6296296296296" customWidth="1"/>
+    <col min="4" max="4" width="34.625" customWidth="1"/>
     <col min="5" max="5" width="37.25" customWidth="1"/>
-    <col min="6" max="6" width="26.1296296296296" customWidth="1"/>
+    <col min="6" max="6" width="26.125" customWidth="1"/>
     <col min="7" max="7" width="22.75" customWidth="1"/>
-    <col min="8" max="8" width="14.3796296296296" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="35.25" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1481,7 +955,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="28.8" spans="1:8">
+    <row r="2" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -1507,7 +981,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" ht="72" spans="1:8">
+    <row r="3" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -1533,7 +1007,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" ht="28.8" spans="1:8">
+    <row r="4" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -1559,7 +1033,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" ht="57.6" spans="1:8">
+    <row r="5" spans="1:8" ht="55.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -1585,7 +1059,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" ht="86.4" spans="1:8">
+    <row r="6" spans="1:8" ht="81" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -1608,84 +1082,84 @@
         <v>35</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" ht="28.8" spans="1:8">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
         <v>6</v>
       </c>
       <c r="B7" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="D7" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="E7" s="13" t="s">
         <v>39</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>40</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>19</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H7" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" ht="75.95" customHeight="1" spans="1:8">
+    <row r="8" spans="1:8" ht="75.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="7">
         <v>7</v>
       </c>
       <c r="B8" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="D8" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="E8" s="13" t="s">
         <v>44</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>45</v>
       </c>
       <c r="F8" s="13" t="s">
         <v>19</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H8" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" ht="72" spans="1:8">
+    <row r="9" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13" t="s">
         <v>19</v>
       </c>
       <c r="G9" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="H9" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" ht="32.25" customHeight="1" spans="1:8">
+    </row>
+    <row r="10" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -1701,51 +1175,53 @@
       <c r="E10" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="13" t="s">
-        <v>12</v>
-      </c>
+      <c r="F10" s="13"/>
       <c r="G10" s="13"/>
       <c r="H10" s="12"/>
     </row>
-    <row r="11" ht="34.5" customHeight="1" spans="1:8">
+    <row r="11" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="14" t="s">
         <v>54</v>
       </c>
       <c r="C11" s="13"/>
-      <c r="D11" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="13" t="s">
+      <c r="D11" s="14"/>
+      <c r="E11" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="13" t="s">
-        <v>19</v>
-      </c>
+      <c r="F11" s="13"/>
       <c r="G11" s="13"/>
-      <c r="H11" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" ht="37.5" customHeight="1" spans="1:8">
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
+      <c r="B12" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>56</v>
+      </c>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
       <c r="H12" s="12"/>
     </row>
-    <row r="13" ht="38.25" customHeight="1" spans="1:8">
+    <row r="13" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="13"/>
+      <c r="B13" s="14" t="s">
+        <v>60</v>
+      </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
@@ -1753,11 +1229,13 @@
       <c r="G13" s="13"/>
       <c r="H13" s="12"/>
     </row>
-    <row r="14" ht="30" customHeight="1" spans="1:8">
+    <row r="14" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="13"/>
+      <c r="B14" s="14" t="s">
+        <v>61</v>
+      </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
@@ -1765,7 +1243,7 @@
       <c r="G14" s="13"/>
       <c r="H14" s="12"/>
     </row>
-    <row r="15" ht="34.5" customHeight="1" spans="1:8">
+    <row r="15" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -1777,7 +1255,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="12"/>
     </row>
-    <row r="16" ht="27.75" customHeight="1" spans="1:8">
+    <row r="16" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -1789,7 +1267,7 @@
       <c r="G16" s="13"/>
       <c r="H16" s="12"/>
     </row>
-    <row r="17" ht="36.75" customHeight="1" spans="1:8">
+    <row r="17" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -1801,7 +1279,7 @@
       <c r="G17" s="13"/>
       <c r="H17" s="12"/>
     </row>
-    <row r="18" ht="40.5" customHeight="1" spans="1:8">
+    <row r="18" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -1813,7 +1291,7 @@
       <c r="G18" s="13"/>
       <c r="H18" s="12"/>
     </row>
-    <row r="19" ht="32.25" customHeight="1" spans="1:8">
+    <row r="19" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -1826,6 +1304,7 @@
       <c r="H19" s="12"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="A2:A19">
     <cfRule type="colorScale" priority="3">
       <colorScale>
@@ -1838,33 +1317,32 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H$1:H$1048576">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
-      <formula>"未处理"</formula>
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>$H$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"处理中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
-      <formula>$H$6</formula>
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+      <formula>"未处理"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H19">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
       <formula>"已解决"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8 H1:H7 H9:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576">
       <formula1>"处理中,未处理,已解决,无需处理"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11 F1:F10 F12:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576">
       <formula1>$F$5:$F$6</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Source/bug处理记录/MES系统bug解决记录.xlsx
+++ b/Source/bug处理记录/MES系统bug解决记录.xlsx
@@ -14,12 +14,15 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$H$1:$H$19</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="63">
   <si>
     <t>序号</t>
   </si>
@@ -314,6 +317,10 @@
   </si>
   <si>
     <t>单据制作中的新增或编辑中的搜索按钮与清空按钮吃重合和搜索按钮使用不了</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -427,7 +434,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -458,6 +465,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -914,8 +924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="C13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1029,8 +1039,8 @@
       <c r="G4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="12" t="s">
-        <v>14</v>
+      <c r="H4" s="15" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="55.5" x14ac:dyDescent="0.25">
@@ -1304,6 +1314,7 @@
       <c r="H19" s="12"/>
     </row>
   </sheetData>
+  <autoFilter ref="H1:H19"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="A2:A19">
     <cfRule type="colorScale" priority="3">

--- a/Source/bug处理记录/MES系统bug解决记录.xlsx
+++ b/Source/bug处理记录/MES系统bug解决记录.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="90">
   <si>
     <t>序号</t>
   </si>
@@ -300,10 +300,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>点击添加物料→勾选物料</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>弹出添加物料→后面的编辑的框多了刚添加的物料</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -321,6 +317,118 @@
   </si>
   <si>
     <t>已解决</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增单据列表多了个项</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增或编辑单据中添加物料</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>已开的项无法用选项栏进行切换</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>单据制作中的新增或编辑中的搜索按钮与清空按钮吃重合和搜索按钮使用不了</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>领料单高亮显示→打开查看领料单详情→打开了领料仓库并可以选择</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择领料单→点击查看详情→点击领料仓库</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看领料单详情不应该能打开领料仓库</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存查询会出现全选</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>单据管理→库存查询→库存查询</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>先筛选出库存→随便选择库存单→点击多条件查询→点击重置→点击查询</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>单据管理→库存查询→库存查询</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>单据管理→单据查询→领料单查询</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>单据管理</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看领料单详情不应该有添加物料按钮</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>单据管理→单据查询→领料单查询</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>单据制作中的添加和编辑中添加物料的功能栏位置不统一</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>单据制作→领料单制作→新增（编辑）→添加物料</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>单据查询中查看单据详情应该怎么能查看详情不应该可以选择</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>单据管理→单据查询</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择单据→点击查看详情</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询按钮不能使用</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>单据管理→库存查询</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出的是编辑框</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择单据→查看详情→把单据的详情拖到拉到最右方→点击原料的原仓库</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>单据管理→单据查询→领料单查询</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看领料单详情，弹出的应该是查看详情框，而不是编辑框</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择单据→查看详情</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>领料单详情中的原仓库不可以跳转</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -404,7 +512,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -427,6 +535,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -434,7 +553,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -468,6 +587,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -922,16 +1044,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="D16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="19.5" customWidth="1"/>
-    <col min="3" max="3" width="19.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.25" style="2" customWidth="1"/>
     <col min="4" max="4" width="34.625" customWidth="1"/>
     <col min="5" max="5" width="37.25" customWidth="1"/>
     <col min="6" max="6" width="26.125" customWidth="1"/>
@@ -1040,7 +1162,7 @@
         <v>25</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="55.5" x14ac:dyDescent="0.25">
@@ -1196,7 +1318,9 @@
       <c r="B11" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="13"/>
+      <c r="C11" s="14" t="s">
+        <v>62</v>
+      </c>
       <c r="D11" s="14"/>
       <c r="E11" s="14" t="s">
         <v>55</v>
@@ -1210,13 +1334,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C12" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="14" t="s">
         <v>57</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>58</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>56</v>
@@ -1230,9 +1354,11 @@
         <v>12</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="13"/>
+        <v>59</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>64</v>
+      </c>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
@@ -1244,11 +1370,15 @@
         <v>13</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="13"/>
+        <v>60</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>65</v>
+      </c>
       <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
+      <c r="E14" s="14" t="s">
+        <v>74</v>
+      </c>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
       <c r="H14" s="12"/>
@@ -1257,22 +1387,38 @@
       <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
+      <c r="B15" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>73</v>
+      </c>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
       <c r="H15" s="12"/>
     </row>
-    <row r="16" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
+      <c r="B16" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>72</v>
+      </c>
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
       <c r="H16" s="12"/>
@@ -1281,10 +1427,14 @@
       <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" s="13"/>
+      <c r="B17" s="14" t="s">
+        <v>75</v>
+      </c>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
+      <c r="E17" s="14" t="s">
+        <v>76</v>
+      </c>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
       <c r="H17" s="12"/>
@@ -1293,25 +1443,80 @@
       <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" s="13"/>
+      <c r="B18" s="14" t="s">
+        <v>77</v>
+      </c>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
+      <c r="E18" s="14" t="s">
+        <v>78</v>
+      </c>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
       <c r="H18" s="12"/>
     </row>
-    <row r="19" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
+      <c r="B19" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>81</v>
+      </c>
       <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
+      <c r="E19" s="14" t="s">
+        <v>80</v>
+      </c>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
       <c r="H19" s="12"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B20" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="14"/>
+    </row>
+    <row r="21" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B21" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+    </row>
+    <row r="22" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B22" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="14"/>
+      <c r="E22" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="14"/>
     </row>
   </sheetData>
   <autoFilter ref="H1:H19"/>
@@ -1328,7 +1533,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H1048576">
+  <conditionalFormatting sqref="H1:H19 H23:H1048576">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>$H$6</formula>
     </cfRule>

--- a/Source/bug处理记录/MES系统bug解决记录.xlsx
+++ b/Source/bug处理记录/MES系统bug解决记录.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="104">
   <si>
     <t>序号</t>
   </si>
@@ -429,6 +429,62 @@
   </si>
   <si>
     <t>领料单详情中的原仓库不可以跳转</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>单据管理→单据管理→入库单查询</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态库存查询功能</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>单据管理→库存查询→动态库存查询</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择要查询的单据→点击查看详情</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>单据高亮显示→报错，提示“表单数据获取失败，请重新获取！”</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库单的提交人为空</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>退供应商单编辑后单据会消失</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>单据管理→单据制作→退供应商单制作</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择退供应商单制作→点击编辑→填写要修改的信息→点击确认</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>退供应商单高亮显示→弹出编辑框→显示所修改的信息→退供应商单制作直接消失在列表</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>强制使用记录单据查询创建时间切换时间失败</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击创建时间框→选择时间→点击确认</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出时间选择表→显示所选择的→没有根据时间筛选出强制使用记录单据</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>单据管理→单据查询→强制使用记录单据查询</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -512,7 +568,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -546,6 +602,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -553,7 +622,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -589,6 +658,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1044,10 +1117,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1217,7 +1290,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -1473,7 +1546,10 @@
       <c r="G19" s="13"/>
       <c r="H19" s="12"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="7">
+        <v>19</v>
+      </c>
       <c r="B20" s="16" t="s">
         <v>82</v>
       </c>
@@ -1487,6 +1563,9 @@
       <c r="H20" s="14"/>
     </row>
     <row r="21" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A21" s="7">
+        <v>20</v>
+      </c>
       <c r="B21" s="14" t="s">
         <v>87</v>
       </c>
@@ -1504,24 +1583,169 @@
       <c r="H21" s="14"/>
     </row>
     <row r="22" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B22" s="14" t="s">
+      <c r="A22" s="17">
+        <v>21</v>
+      </c>
+      <c r="B22" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="D22" s="14"/>
+      <c r="D22" s="18"/>
       <c r="E22" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
       <c r="H22" s="14"/>
+    </row>
+    <row r="23" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="7">
+        <v>22</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+    </row>
+    <row r="24" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A24" s="7">
+        <v>23</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+    </row>
+    <row r="25" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A25" s="7"/>
+      <c r="B25" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+    </row>
+    <row r="26" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A26" s="7"/>
+      <c r="B26" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A27" s="7"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28" s="7"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29" s="7"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A30" s="7"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31" s="7"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" s="7"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" s="7"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
     </row>
   </sheetData>
   <autoFilter ref="H1:H19"/>
   <phoneticPr fontId="6" type="noConversion"/>
-  <conditionalFormatting sqref="A2:A19">
+  <conditionalFormatting sqref="A2:A24">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -1533,7 +1757,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H19 H23:H1048576">
+  <conditionalFormatting sqref="H1:H19 H34:H1048576">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>$H$6</formula>
     </cfRule>

--- a/Source/bug处理记录/MES系统bug解决记录.xlsx
+++ b/Source/bug处理记录/MES系统bug解决记录.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="116">
   <si>
     <t>序号</t>
   </si>
@@ -485,6 +485,54 @@
   </si>
   <si>
     <t>单据管理→单据查询→强制使用记录单据查询</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增不了原物料入库价格表</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础资料→基础管理→原物料入库价格表</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击新增→填写信息→点击确认</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出新增框→显示所填写信息→提示“编码重复”</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否最后工序的选择栏被遮住</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击新增（编辑）→点击“是否最后工程”栏</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出新增（编辑）框→弹出下拉框，部分信息被遮挡</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础资料→基础管理→工序</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>莫名弹出提示框</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>把数遍放置在工序管理列表的项上的“是否最后一道工序”</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>放置在“是”上出现1，放在“否”上出现空框</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础资料→基础管理→原物料入库价格表</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1119,8 +1167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1637,7 +1685,9 @@
       <c r="H24" s="14"/>
     </row>
     <row r="25" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="7"/>
+      <c r="A25" s="7">
+        <v>24</v>
+      </c>
       <c r="B25" s="14" t="s">
         <v>96</v>
       </c>
@@ -1655,7 +1705,9 @@
       <c r="H25" s="14"/>
     </row>
     <row r="26" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A26" s="7"/>
+      <c r="A26" s="7">
+        <v>25</v>
+      </c>
       <c r="B26" s="14" t="s">
         <v>100</v>
       </c>
@@ -1672,38 +1724,70 @@
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="7"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
+    <row r="27" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A27" s="7">
+        <v>26</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>105</v>
+      </c>
       <c r="F27" s="14"/>
       <c r="G27" s="14"/>
       <c r="H27" s="14"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="7"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
+    <row r="28" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A28" s="7">
+        <v>27</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>111</v>
+      </c>
       <c r="F28" s="14"/>
       <c r="G28" s="14"/>
       <c r="H28" s="14"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="7"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
+    <row r="29" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A29" s="7">
+        <v>28</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>115</v>
+      </c>
       <c r="F29" s="14"/>
       <c r="G29" s="14"/>
       <c r="H29" s="14"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="7"/>
+      <c r="A30" s="7">
+        <v>29</v>
+      </c>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
@@ -1713,7 +1797,9 @@
       <c r="H30" s="14"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="7"/>
+      <c r="A31" s="7">
+        <v>30</v>
+      </c>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
@@ -1723,7 +1809,9 @@
       <c r="H31" s="14"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="7"/>
+      <c r="A32" s="7">
+        <v>31</v>
+      </c>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
@@ -1733,7 +1821,9 @@
       <c r="H32" s="14"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="7"/>
+      <c r="A33" s="7">
+        <v>32</v>
+      </c>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
@@ -1745,7 +1835,7 @@
   </sheetData>
   <autoFilter ref="H1:H19"/>
   <phoneticPr fontId="6" type="noConversion"/>
-  <conditionalFormatting sqref="A2:A24">
+  <conditionalFormatting sqref="A2:A33">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>

--- a/Source/bug处理记录/MES系统bug解决记录.xlsx
+++ b/Source/bug处理记录/MES系统bug解决记录.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BJ_MES\bug处理记录\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="110">
   <si>
     <t>序号</t>
   </si>
@@ -68,7 +63,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>12</t>
     </r>
@@ -148,7 +143,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>**</t>
     </r>
@@ -182,7 +177,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>**</t>
     </r>
@@ -201,7 +196,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>**</t>
     </r>
@@ -227,6 +222,9 @@
 图片里“∨”意思为上传成功，并没有确认功能，测试人员不理解图标的含义，无需处理</t>
   </si>
   <si>
+    <t>无需处理</t>
+  </si>
+  <si>
     <t>账户列表部门为空</t>
   </si>
   <si>
@@ -258,289 +256,205 @@
   </si>
   <si>
     <t>添加或编辑中的下拉框的搜索按钮使用不了</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>单位组织中的模块基本上拥有这个功能的都用不了</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>那个不是搜索按钮，只是一个搜索框提示，用户在搜索框内键入内容后直接“Enter”则可以进行搜索，无需处理</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>无需处理</t>
   </si>
   <si>
     <t>ERP生产计划无法获取</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>点击ERP生成计划</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>表单数据获取失败，请重新获取！</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>生产清单管理→生成清单</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>新增单据列表多了个项</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>单据管理→单据制作</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增或编辑单据中添加物料</t>
+  </si>
+  <si>
+    <t>弹出添加物料→后面的编辑的框多了刚添加的物料</t>
   </si>
   <si>
     <t>1. 单据制作→**单制作→新增（编辑）→添加物料</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹出添加物料→后面的编辑的框多了刚添加的物料</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增或编辑单据中添加物料</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>已开的项无法用选项栏进行切换</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>单据制作中的新增或编辑中的搜索按钮与清空按钮吃重合和搜索按钮使用不了</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>已解决</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增单据列表多了个项</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增或编辑单据中添加物料</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>已开的项无法用选项栏进行切换</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>单据制作中的新增或编辑中的搜索按钮与清空按钮吃重合和搜索按钮使用不了</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>单据管理</t>
+  </si>
+  <si>
+    <t>这是个提示框，并没有清空的按钮</t>
+  </si>
+  <si>
+    <t>查看领料单详情不应该能打开领料仓库</t>
+  </si>
+  <si>
+    <t>选择领料单→点击查看详情→点击领料仓库</t>
   </si>
   <si>
     <t>领料单高亮显示→打开查看领料单详情→打开了领料仓库并可以选择</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择领料单→点击查看详情→点击领料仓库</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看领料单详情不应该能打开领料仓库</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>单据管理→单据查询→领料单查询</t>
+  </si>
+  <si>
+    <t>领料单查询查看详情禁用领料仓库框</t>
   </si>
   <si>
     <t>库存查询会出现全选</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>先筛选出库存→随便选择库存单→点击多条件查询→点击重置→点击查询</t>
   </si>
   <si>
     <t>单据管理→库存查询→库存查询</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>先筛选出库存→随便选择库存单→点击多条件查询→点击重置→点击查询</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>单据管理→库存查询→库存查询</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>单据管理→单据查询→领料单查询</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>单据管理</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>将列表的属性reloadSelected改为false（其他类似页面已修改）</t>
   </si>
   <si>
     <t>查看领料单详情不应该有添加物料按钮</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>单据管理→单据查询→领料单查询</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>单据制作中的添加和编辑中添加物料的功能栏位置不统一</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>单据制作→领料单制作→新增（编辑）→添加物料</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>单据查询中查看单据详情应该怎么能查看详情不应该可以选择</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择单据→点击查看详情</t>
   </si>
   <si>
     <t>单据管理→单据查询</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择单据→点击查看详情</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>查询按钮不能使用</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>单据管理→库存查询</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看领料单详情，弹出的应该是查看详情框，而不是编辑框</t>
+  </si>
+  <si>
+    <t>选择单据→查看详情</t>
   </si>
   <si>
     <t>弹出的是编辑框</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>领料单详情中的原仓库不可以跳转</t>
   </si>
   <si>
     <t>选择单据→查看详情→把单据的详情拖到拉到最右方→点击原料的原仓库</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>单据管理→单据查询→领料单查询</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看领料单详情，弹出的应该是查看详情框，而不是编辑框</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择单据→查看详情</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>领料单详情中的原仓库不可以跳转</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库单的提交人为空</t>
   </si>
   <si>
     <t>单据管理→单据管理→入库单查询</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>动态库存查询功能</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择要查询的单据→点击查看详情</t>
+  </si>
+  <si>
+    <t>单据高亮显示→报错，提示“表单数据获取失败，请重新获取！”</t>
   </si>
   <si>
     <t>单据管理→库存查询→动态库存查询</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择要查询的单据→点击查看详情</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>单据高亮显示→报错，提示“表单数据获取失败，请重新获取！”</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>入库单的提交人为空</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>退供应商单编辑后单据会消失</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择退供应商单制作→点击编辑→填写要修改的信息→点击确认</t>
+  </si>
+  <si>
+    <t>退供应商单高亮显示→弹出编辑框→显示所修改的信息→退供应商单制作直接消失在列表</t>
   </si>
   <si>
     <t>单据管理→单据制作→退供应商单制作</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择退供应商单制作→点击编辑→填写要修改的信息→点击确认</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>退供应商单高亮显示→弹出编辑框→显示所修改的信息→退供应商单制作直接消失在列表</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>强制使用记录单据查询创建时间切换时间失败</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>点击创建时间框→选择时间→点击确认</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>弹出时间选择表→显示所选择的→没有根据时间筛选出强制使用记录单据</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>单据管理→单据查询→强制使用记录单据查询</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>新增不了原物料入库价格表</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击新增→填写信息→点击确认</t>
+  </si>
+  <si>
+    <t>弹出新增框→显示所填写信息→提示“编码重复”</t>
   </si>
   <si>
     <t>基础资料→基础管理→原物料入库价格表</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击新增→填写信息→点击确认</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹出新增框→显示所填写信息→提示“编码重复”</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>是否最后工序的选择栏被遮住</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>点击新增（编辑）→点击“是否最后工程”栏</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>弹出新增（编辑）框→弹出下拉框，部分信息被遮挡</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>基础资料→基础管理→工序</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>莫名弹出提示框</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>把数遍放置在工序管理列表的项上的“是否最后一道工序”</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>放置在“是”上出现1，放在“否”上出现空框</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础资料→基础管理→原物料入库价格表</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -569,10 +483,154 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -581,22 +639,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -611,12 +655,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79995117038483843"/>
+        <fgColor theme="8" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -663,10 +887,249 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -683,39 +1146,86 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="33" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="33" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="33" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="20% - 着色 5" xfId="1" builtinId="46"/>
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -728,7 +1238,7 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -741,8 +1251,8 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -752,53 +1262,12 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>28576</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>656774</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10041890" y="2122170"/>
-          <a:ext cx="628015" cy="276225"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
@@ -820,14 +1289,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10041890" y="2853690"/>
+          <a:off x="10299065" y="2853690"/>
           <a:ext cx="628015" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -858,15 +1327,53 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10079990" y="4328160"/>
+          <a:off x="10337165" y="4145280"/>
           <a:ext cx="793750" cy="499745"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>40005</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>716915</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>681355</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4" descr="1587967166(1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10310495" y="7843520"/>
+          <a:ext cx="676910" cy="631825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -921,7 +1428,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -956,7 +1463,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1159,30 +1666,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="19.5" customWidth="1"/>
     <col min="3" max="3" width="23.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="34.625" customWidth="1"/>
+    <col min="4" max="4" width="34.6296296296296" customWidth="1"/>
     <col min="5" max="5" width="37.25" customWidth="1"/>
-    <col min="6" max="6" width="26.125" customWidth="1"/>
+    <col min="6" max="6" width="26.1296296296296" customWidth="1"/>
     <col min="7" max="7" width="22.75" customWidth="1"/>
-    <col min="8" max="8" width="14.375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.3796296296296" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1" ht="35.25" customHeight="1" spans="1:8">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1208,7 +1715,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="2" ht="28.8" spans="1:8">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -1234,7 +1741,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="3" ht="72" spans="1:8">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -1260,7 +1767,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+    <row r="4" ht="28.8" spans="1:8">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -1282,11 +1789,11 @@
       <c r="G4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="55.5" x14ac:dyDescent="0.25">
+      <c r="H4" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" ht="57.6" spans="1:8">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -1312,7 +1819,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="81" x14ac:dyDescent="0.15">
+    <row r="6" ht="86.4" spans="1:8">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -1335,150 +1842,150 @@
         <v>35</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="7">
         <v>6</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>19</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H7" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="75.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" ht="75.95" customHeight="1" spans="1:8">
       <c r="A8" s="7">
         <v>7</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" s="13" t="s">
         <v>19</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="9" ht="72" spans="1:8">
       <c r="A9" s="7">
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="14" t="s">
-        <v>48</v>
+      <c r="G9" s="15" t="s">
+        <v>49</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" ht="32.25" customHeight="1" spans="1:8">
       <c r="A10" s="7">
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="15" t="s">
         <v>53</v>
       </c>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
       <c r="H10" s="12"/>
     </row>
-    <row r="11" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" ht="34.5" customHeight="1" spans="1:8">
       <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14" t="s">
+      <c r="C11" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15" t="s">
         <v>55</v>
       </c>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="12"/>
     </row>
-    <row r="12" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" ht="37.5" customHeight="1" spans="1:8">
       <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="15" t="s">
         <v>58</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>56</v>
       </c>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
       <c r="H12" s="12"/>
     </row>
-    <row r="13" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" ht="38.25" customHeight="1" spans="1:8">
       <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="14" t="s">
-        <v>64</v>
+      <c r="C13" s="15" t="s">
+        <v>59</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
@@ -1486,355 +1993,374 @@
       <c r="G13" s="13"/>
       <c r="H13" s="12"/>
     </row>
-    <row r="14" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" ht="93" customHeight="1" spans="1:8">
       <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="14" t="s">
-        <v>65</v>
+      <c r="C14" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="D14" s="13"/>
-      <c r="E14" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="12"/>
-    </row>
-    <row r="15" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E14" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" ht="57" customHeight="1" spans="1:8">
       <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="14" t="s">
+      <c r="B15" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="12"/>
-    </row>
-    <row r="16" spans="1:8" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H15" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" ht="65.25" customHeight="1" spans="1:8">
       <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="D16" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="12"/>
-    </row>
-    <row r="17" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H16" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" ht="36.75" customHeight="1" spans="1:8">
       <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" s="14" t="s">
-        <v>75</v>
+      <c r="B17" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
-      <c r="E17" s="14" t="s">
-        <v>76</v>
+      <c r="E17" s="15" t="s">
+        <v>66</v>
       </c>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
       <c r="H17" s="12"/>
     </row>
-    <row r="18" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" ht="40.5" customHeight="1" spans="1:8">
       <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" s="14" t="s">
-        <v>77</v>
+      <c r="B18" s="15" t="s">
+        <v>73</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
-      <c r="E18" s="14" t="s">
-        <v>78</v>
+      <c r="E18" s="15" t="s">
+        <v>74</v>
       </c>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
       <c r="H18" s="12"/>
     </row>
-    <row r="19" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" ht="45.75" customHeight="1" spans="1:8">
       <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B19" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>81</v>
+      <c r="B19" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>76</v>
       </c>
       <c r="D19" s="13"/>
-      <c r="E19" s="14" t="s">
-        <v>80</v>
+      <c r="E19" s="15" t="s">
+        <v>77</v>
       </c>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
       <c r="H19" s="12"/>
     </row>
-    <row r="20" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" ht="27" customHeight="1" spans="1:8">
       <c r="A20" s="7">
         <v>19</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
+        <v>78</v>
+      </c>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
       <c r="E20" s="16" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
-      <c r="H20" s="14"/>
-    </row>
-    <row r="21" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="H20" s="15"/>
+    </row>
+    <row r="21" ht="43.2" spans="1:8">
       <c r="A21" s="7">
         <v>20</v>
       </c>
-      <c r="B21" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>88</v>
+      <c r="B21" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>81</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-    </row>
-    <row r="22" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+        <v>82</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+    </row>
+    <row r="22" ht="43.2" spans="1:8">
       <c r="A22" s="17">
         <v>21</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D22" s="18"/>
       <c r="E22" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-    </row>
-    <row r="23" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>66</v>
+      </c>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+    </row>
+    <row r="23" ht="24.75" customHeight="1" spans="1:8">
       <c r="A23" s="7">
         <v>22</v>
       </c>
-      <c r="B23" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-    </row>
-    <row r="24" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="B23" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+    </row>
+    <row r="24" ht="28.8" spans="1:8">
       <c r="A24" s="7">
         <v>23</v>
       </c>
-      <c r="B24" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-    </row>
-    <row r="25" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B24" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+    </row>
+    <row r="25" ht="43.2" spans="1:8">
       <c r="A25" s="7">
         <v>24</v>
       </c>
-      <c r="B25" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-    </row>
-    <row r="26" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="B25" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+    </row>
+    <row r="26" ht="43.2" spans="1:8">
       <c r="A26" s="7">
         <v>25</v>
       </c>
-      <c r="B26" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-    </row>
-    <row r="27" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="B26" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+    </row>
+    <row r="27" ht="28.8" spans="1:8">
       <c r="A27" s="7">
         <v>26</v>
       </c>
-      <c r="B27" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-    </row>
-    <row r="28" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="B27" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+    </row>
+    <row r="28" ht="28.8" spans="1:8">
       <c r="A28" s="7">
         <v>27</v>
       </c>
-      <c r="B28" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-    </row>
-    <row r="29" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B28" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+    </row>
+    <row r="29" ht="43.2" spans="1:8">
       <c r="A29" s="7">
         <v>28</v>
       </c>
-      <c r="B29" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B29" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="7">
         <v>29</v>
       </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="7">
         <v>30</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="7">
         <v>31</v>
       </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="7">
         <v>32</v>
       </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
     </row>
   </sheetData>
-  <autoFilter ref="H1:H19"/>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <autoFilter ref="H1:H19">
+    <extLst/>
+  </autoFilter>
   <conditionalFormatting sqref="A2:A33">
     <cfRule type="colorScale" priority="3">
       <colorScale>
@@ -1847,32 +2373,33 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H19">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+      <formula>"已解决"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H1:H19 H34:H1048576">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>$H$6</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"处理中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"未处理"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H19">
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
-      <formula>"已解决"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F14 F15 F16 F1:F13 F17:F1048576">
+      <formula1>$F$5:$F$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H16 H1:H15 H17:H1048576">
       <formula1>"处理中,未处理,已解决,无需处理"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576">
-      <formula1>$F$5:$F$6</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Source/bug处理记录/MES系统bug解决记录.xlsx
+++ b/Source/bug处理记录/MES系统bug解决记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="18468" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="113">
   <si>
     <t>序号</t>
   </si>
@@ -333,10 +333,19 @@
     <t>查看领料单详情不应该有添加物料按钮</t>
   </si>
   <si>
+    <t>查询页面将添加物料按钮禁用</t>
+  </si>
+  <si>
     <t>单据制作中的添加和编辑中添加物料的功能栏位置不统一</t>
   </si>
   <si>
     <t>单据制作→领料单制作→新增（编辑）→添加物料</t>
+  </si>
+  <si>
+    <t>有点看不懂再说什么</t>
+  </si>
+  <si>
+    <t>未处理</t>
   </si>
   <si>
     <t>单据查询中查看单据详情应该怎么能查看详情不应该可以选择</t>
@@ -449,12 +458,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -477,14 +486,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -499,6 +508,27 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -531,7 +561,23 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -546,21 +592,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -583,37 +615,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -661,6 +663,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -673,169 +837,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -903,6 +905,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -921,6 +932,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -929,8 +949,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -947,26 +969,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -991,10 +993,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1003,137 +1005,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -1165,14 +1167,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1674,8 +1673,8 @@
   <sheetPr/>
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -1912,7 +1911,7 @@
       <c r="F9" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="11" t="s">
         <v>49</v>
       </c>
       <c r="H9" s="12" t="s">
@@ -1926,13 +1925,13 @@
       <c r="B10" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="11" t="s">
         <v>53</v>
       </c>
       <c r="F10" s="13"/>
@@ -1943,14 +1942,14 @@
       <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15" t="s">
+      <c r="D11" s="11"/>
+      <c r="E11" s="11" t="s">
         <v>55</v>
       </c>
       <c r="F11" s="13"/>
@@ -1961,16 +1960,16 @@
       <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="11" t="s">
         <v>58</v>
       </c>
       <c r="F12" s="13"/>
@@ -1981,10 +1980,10 @@
       <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="11" t="s">
         <v>59</v>
       </c>
       <c r="D13" s="13"/>
@@ -1997,14 +1996,14 @@
       <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="11" t="s">
         <v>60</v>
       </c>
       <c r="D14" s="13"/>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="11" t="s">
         <v>61</v>
       </c>
       <c r="F14" s="13" t="s">
@@ -2021,16 +2020,16 @@
       <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="11" t="s">
         <v>66</v>
       </c>
       <c r="F15" s="13" t="s">
@@ -2047,16 +2046,16 @@
       <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="11" t="s">
         <v>70</v>
       </c>
       <c r="F16" s="13" t="s">
@@ -2073,47 +2072,59 @@
       <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="11" t="s">
         <v>72</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="12"/>
+      <c r="F17" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="18" ht="40.5" customHeight="1" spans="1:8">
       <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" s="15" t="s">
-        <v>73</v>
+      <c r="B18" s="11" t="s">
+        <v>74</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
-      <c r="E18" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="12"/>
+      <c r="E18" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="19" ht="45.75" customHeight="1" spans="1:8">
       <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B19" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>76</v>
+      <c r="B19" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>79</v>
       </c>
       <c r="D19" s="13"/>
-      <c r="E19" s="15" t="s">
-        <v>77</v>
+      <c r="E19" s="11" t="s">
+        <v>80</v>
       </c>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
@@ -2123,239 +2134,239 @@
       <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="15"/>
+      <c r="B20" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="11"/>
     </row>
     <row r="21" ht="43.2" spans="1:8">
       <c r="A21" s="7">
         <v>20</v>
       </c>
-      <c r="B21" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="E21" s="15" t="s">
+      <c r="B21" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
     </row>
     <row r="22" ht="43.2" spans="1:8">
-      <c r="A22" s="17">
+      <c r="A22" s="16">
         <v>21</v>
       </c>
-      <c r="B22" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="D22" s="18"/>
-      <c r="E22" s="16" t="s">
+      <c r="B22" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="17"/>
+      <c r="E22" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
     </row>
     <row r="23" ht="24.75" customHeight="1" spans="1:8">
       <c r="A23" s="7">
         <v>22</v>
       </c>
-      <c r="B23" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
+      <c r="B23" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
     </row>
     <row r="24" ht="28.8" spans="1:8">
       <c r="A24" s="7">
         <v>23</v>
       </c>
-      <c r="B24" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="E24" s="15" t="s">
+      <c r="B24" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
+      <c r="C24" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
     </row>
     <row r="25" ht="43.2" spans="1:8">
       <c r="A25" s="7">
         <v>24</v>
       </c>
-      <c r="B25" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="E25" s="15" t="s">
+      <c r="B25" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
+      <c r="C25" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
     </row>
     <row r="26" ht="43.2" spans="1:8">
       <c r="A26" s="7">
         <v>25</v>
       </c>
-      <c r="B26" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="E26" s="15" t="s">
+      <c r="B26" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
+      <c r="C26" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
     </row>
     <row r="27" ht="28.8" spans="1:8">
       <c r="A27" s="7">
         <v>26</v>
       </c>
-      <c r="B27" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="E27" s="15" t="s">
+      <c r="B27" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
+      <c r="C27" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
     </row>
     <row r="28" ht="28.8" spans="1:8">
       <c r="A28" s="7">
         <v>27</v>
       </c>
-      <c r="B28" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="E28" s="15" t="s">
+      <c r="B28" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
+      <c r="C28" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
     </row>
     <row r="29" ht="43.2" spans="1:8">
       <c r="A29" s="7">
         <v>28</v>
       </c>
-      <c r="B29" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
+      <c r="B29" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="7">
         <v>29</v>
       </c>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="7">
         <v>30</v>
       </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="7">
         <v>31</v>
       </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="7">
         <v>32</v>
       </c>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
     </row>
   </sheetData>
   <autoFilter ref="H1:H19">
@@ -2390,11 +2401,11 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F14 F15 F16 F1:F13 F17:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H16 H17 H1:H15 H18:H1048576">
+      <formula1>"处理中,未处理,已解决,无需处理"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F14 F15 F16 F17 F18 F1:F13 F19:F1048576">
       <formula1>$F$5:$F$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H16 H1:H15 H17:H1048576">
-      <formula1>"处理中,未处理,已解决,无需处理"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Source/bug处理记录/MES系统bug解决记录.xlsx
+++ b/Source/bug处理记录/MES系统bug解决记录.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="114">
   <si>
     <t>序号</t>
   </si>
@@ -357,6 +357,9 @@
     <t>单据管理→单据查询</t>
   </si>
   <si>
+    <t>给全部的单据查询界面的查看详情的文本框设置为只读</t>
+  </si>
+  <si>
     <t>查询按钮不能使用</t>
   </si>
   <si>
@@ -458,10 +461,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -486,7 +489,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -507,16 +510,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -530,17 +546,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -560,8 +584,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -577,7 +602,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -591,39 +624,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -663,181 +666,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -908,8 +911,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -932,28 +935,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -973,17 +971,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -993,10 +996,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1005,133 +1008,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1308,15 +1311,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>40005</xdr:rowOff>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>860425</xdr:colOff>
+      <xdr:colOff>850900</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>539750</xdr:rowOff>
+      <xdr:rowOff>530225</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1333,7 +1336,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10337165" y="4145280"/>
+          <a:off x="10327640" y="4135755"/>
           <a:ext cx="793750" cy="499745"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1673,8 +1676,8 @@
   <sheetPr/>
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -2126,38 +2129,48 @@
       <c r="E19" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="12"/>
-    </row>
-    <row r="20" ht="27" customHeight="1" spans="1:8">
+      <c r="F19" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" ht="72" customHeight="1" spans="1:8">
       <c r="A20" s="7">
         <v>19</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
       <c r="E20" s="15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="11"/>
+      <c r="G20" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="21" ht="43.2" spans="1:8">
       <c r="A21" s="7">
         <v>20</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>66</v>
@@ -2171,10 +2184,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D22" s="17"/>
       <c r="E22" s="15" t="s">
@@ -2189,12 +2202,12 @@
         <v>22</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
       <c r="E23" s="11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
@@ -2205,16 +2218,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
@@ -2225,16 +2238,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
@@ -2245,16 +2258,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
@@ -2265,16 +2278,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
@@ -2285,16 +2298,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
@@ -2305,16 +2318,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
@@ -2401,11 +2414,11 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F14 F15 F16 F17 F18 F19 F1:F13 F20:F1048576">
+      <formula1>$F$5:$F$6</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H16 H17 H1:H15 H18:H1048576">
       <formula1>"处理中,未处理,已解决,无需处理"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F14 F15 F16 F17 F18 F1:F13 F19:F1048576">
-      <formula1>$F$5:$F$6</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Source/bug处理记录/MES系统bug解决记录.xlsx
+++ b/Source/bug处理记录/MES系统bug解决记录.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BJ_MES\bug处理记录\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="18468" windowHeight="9420"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18465" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="114">
   <si>
     <t>序号</t>
   </si>
@@ -63,7 +68,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>12</t>
     </r>
@@ -143,7 +148,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>**</t>
     </r>
@@ -177,7 +182,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>**</t>
     </r>
@@ -196,7 +201,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>**</t>
     </r>
@@ -459,14 +464,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -489,153 +488,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -644,8 +506,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -660,192 +528,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -892,253 +580,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -1151,89 +600,52 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="33" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="33" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="33" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
+    <cellStyle name="20% - 着色 5" xfId="1" builtinId="46"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="12">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1247,7 +659,35 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1258,18 +698,42 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
@@ -1291,7 +755,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1329,7 +793,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1367,7 +831,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1668,30 +1132,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="19.5" customWidth="1"/>
     <col min="3" max="3" width="23.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="34.6296296296296" customWidth="1"/>
+    <col min="4" max="4" width="34.625" customWidth="1"/>
     <col min="5" max="5" width="37.25" customWidth="1"/>
-    <col min="6" max="6" width="26.1296296296296" customWidth="1"/>
+    <col min="6" max="6" width="26.125" customWidth="1"/>
     <col min="7" max="7" width="22.75" customWidth="1"/>
-    <col min="8" max="8" width="14.3796296296296" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="35.25" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1717,7 +1181,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="28.8" spans="1:8">
+    <row r="2" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -1743,7 +1207,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" ht="72" spans="1:8">
+    <row r="3" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -1769,7 +1233,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" ht="28.8" spans="1:8">
+    <row r="4" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -1795,7 +1259,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" ht="57.6" spans="1:8">
+    <row r="5" spans="1:8" ht="55.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -1821,7 +1285,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" ht="86.4" spans="1:8">
+    <row r="6" spans="1:8" ht="81" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -1847,7 +1311,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -1873,7 +1337,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" ht="75.95" customHeight="1" spans="1:8">
+    <row r="8" spans="1:8" ht="75.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -1899,7 +1363,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" ht="72" spans="1:8">
+    <row r="9" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -1921,7 +1385,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" ht="32.25" customHeight="1" spans="1:8">
+    <row r="10" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -1941,7 +1405,7 @@
       <c r="G10" s="13"/>
       <c r="H10" s="12"/>
     </row>
-    <row r="11" ht="34.5" customHeight="1" spans="1:8">
+    <row r="11" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -1959,7 +1423,7 @@
       <c r="G11" s="13"/>
       <c r="H11" s="12"/>
     </row>
-    <row r="12" ht="37.5" customHeight="1" spans="1:8">
+    <row r="12" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -1979,7 +1443,7 @@
       <c r="G12" s="13"/>
       <c r="H12" s="12"/>
     </row>
-    <row r="13" ht="38.25" customHeight="1" spans="1:8">
+    <row r="13" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -1995,7 +1459,7 @@
       <c r="G13" s="13"/>
       <c r="H13" s="12"/>
     </row>
-    <row r="14" ht="93" customHeight="1" spans="1:8">
+    <row r="14" spans="1:8" ht="93" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -2019,7 +1483,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" ht="57" customHeight="1" spans="1:8">
+    <row r="15" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -2045,7 +1509,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" ht="65.25" customHeight="1" spans="1:8">
+    <row r="16" spans="1:8" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -2071,7 +1535,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" ht="36.75" customHeight="1" spans="1:8">
+    <row r="17" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -2093,7 +1557,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" ht="40.5" customHeight="1" spans="1:8">
+    <row r="18" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -2115,7 +1579,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" ht="45.75" customHeight="1" spans="1:8">
+    <row r="19" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -2139,7 +1603,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" ht="72" customHeight="1" spans="1:8">
+    <row r="20" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -2155,11 +1619,11 @@
       <c r="G20" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="H20" s="11" t="s">
+      <c r="H20" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" ht="43.2" spans="1:8">
+    <row r="21" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A21" s="7">
         <v>20</v>
       </c>
@@ -2177,9 +1641,11 @@
       </c>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-    </row>
-    <row r="22" ht="43.2" spans="1:8">
+      <c r="H21" s="18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A22" s="16">
         <v>21</v>
       </c>
@@ -2195,9 +1661,11 @@
       </c>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-    </row>
-    <row r="23" ht="24.75" customHeight="1" spans="1:8">
+      <c r="H22" s="18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -2211,9 +1679,9 @@
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-    </row>
-    <row r="24" ht="28.8" spans="1:8">
+      <c r="H23" s="18"/>
+    </row>
+    <row r="24" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A24" s="7">
         <v>23</v>
       </c>
@@ -2231,9 +1699,9 @@
       </c>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-    </row>
-    <row r="25" ht="43.2" spans="1:8">
+      <c r="H24" s="18"/>
+    </row>
+    <row r="25" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A25" s="7">
         <v>24</v>
       </c>
@@ -2251,9 +1719,9 @@
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-    </row>
-    <row r="26" ht="43.2" spans="1:8">
+      <c r="H25" s="18"/>
+    </row>
+    <row r="26" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A26" s="7">
         <v>25</v>
       </c>
@@ -2271,9 +1739,9 @@
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-    </row>
-    <row r="27" ht="28.8" spans="1:8">
+      <c r="H26" s="18"/>
+    </row>
+    <row r="27" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A27" s="7">
         <v>26</v>
       </c>
@@ -2291,9 +1759,9 @@
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-    </row>
-    <row r="28" ht="28.8" spans="1:8">
+      <c r="H27" s="18"/>
+    </row>
+    <row r="28" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A28" s="7">
         <v>27</v>
       </c>
@@ -2311,9 +1779,9 @@
       </c>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-    </row>
-    <row r="29" ht="43.2" spans="1:8">
+      <c r="H28" s="18"/>
+    </row>
+    <row r="29" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A29" s="7">
         <v>28</v>
       </c>
@@ -2331,9 +1799,9 @@
       </c>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="H29" s="18"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="7">
         <v>29</v>
       </c>
@@ -2343,9 +1811,9 @@
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="H30" s="18"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="7">
         <v>30</v>
       </c>
@@ -2355,9 +1823,9 @@
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="H31" s="18"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="7">
         <v>31</v>
       </c>
@@ -2367,9 +1835,9 @@
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="H32" s="18"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" s="7">
         <v>32</v>
       </c>
@@ -2379,14 +1847,13 @@
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
+      <c r="H33" s="18"/>
     </row>
   </sheetData>
-  <autoFilter ref="H1:H19">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="H1:H19"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="A2:A33">
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2398,18 +1865,34 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H19">
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
       <formula>"已解决"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H19 H34:H1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
       <formula>$H$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
       <formula>"处理中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+      <formula>"未处理"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+      <formula>"已解决"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>$H$6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>"处理中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"未处理"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2423,7 +1906,6 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Source/bug处理记录/MES系统bug解决记录.xlsx
+++ b/Source/bug处理记录/MES系统bug解决记录.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="115">
   <si>
     <t>序号</t>
   </si>
@@ -460,12 +460,17 @@
   <si>
     <t>放置在“是”上出现1，放在“否”上出现空框</t>
   </si>
+  <si>
+    <t xml:space="preserve">服务器上原先的端口已停掉故报错，更新新端口后，功能正常，如上图
+</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -509,6 +514,14 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -587,7 +600,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -629,12 +642,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - 着色 5" xfId="1" builtinId="46"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="8">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -653,34 +669,6 @@
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -848,6 +836,71 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>735106</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1027" name="Object 3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1027"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -894,7 +947,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -929,7 +982,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1137,11 +1190,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1385,7 +1438,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" ht="153.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -1402,7 +1455,9 @@
         <v>53</v>
       </c>
       <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
+      <c r="G10" s="19" t="s">
+        <v>114</v>
+      </c>
       <c r="H10" s="12"/>
     </row>
     <row r="11" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1865,34 +1920,34 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H19">
-    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
       <formula>"已解决"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H19 H34:H1048576">
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
       <formula>$H$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"处理中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
       <formula>"未处理"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"已解决"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>$H$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"处理中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"未处理"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1905,7 +1960,35 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="包装程序外壳对象" shapeId="1027" r:id="rId4">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>733425</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="包装程序外壳对象" shapeId="1027" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
 </worksheet>
 </file>
--- a/Source/bug处理记录/MES系统bug解决记录.xlsx
+++ b/Source/bug处理记录/MES系统bug解决记录.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="115">
   <si>
     <t>序号</t>
   </si>
@@ -849,7 +849,7 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>735106</xdr:rowOff>
+          <xdr:rowOff>733425</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -877,23 +877,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1458,7 +1445,9 @@
       <c r="G10" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="H10" s="12"/>
+      <c r="H10" s="12" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7">

--- a/Source/bug处理记录/MES系统bug解决记录.xlsx
+++ b/Source/bug处理记录/MES系统bug解决记录.xlsx
@@ -1,28 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BJ_MES\bug处理记录\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18465" windowHeight="9420"/>
+    <workbookView windowWidth="18468" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$H$1:$H$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$H$1:$H$22</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="115">
   <si>
     <t>序号</t>
   </si>
@@ -68,7 +63,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>12</t>
     </r>
@@ -148,7 +143,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>**</t>
     </r>
@@ -182,7 +177,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>**</t>
     </r>
@@ -201,7 +196,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>**</t>
     </r>
@@ -281,196 +276,201 @@
     <t>生产清单管理→生成清单</t>
   </si>
   <si>
-    <t>新增单据列表多了个项</t>
-  </si>
-  <si>
-    <t>单据管理→单据制作</t>
-  </si>
-  <si>
-    <t>新增或编辑单据中添加物料</t>
-  </si>
-  <si>
-    <t>弹出添加物料→后面的编辑的框多了刚添加的物料</t>
-  </si>
-  <si>
-    <t>1. 单据制作→**单制作→新增（编辑）→添加物料</t>
-  </si>
-  <si>
-    <t>已开的项无法用选项栏进行切换</t>
-  </si>
-  <si>
-    <t>单据制作中的新增或编辑中的搜索按钮与清空按钮吃重合和搜索按钮使用不了</t>
-  </si>
-  <si>
-    <t>单据管理</t>
-  </si>
-  <si>
-    <t>这是个提示框，并没有清空的按钮</t>
-  </si>
-  <si>
-    <t>查看领料单详情不应该能打开领料仓库</t>
-  </si>
-  <si>
-    <t>选择领料单→点击查看详情→点击领料仓库</t>
-  </si>
-  <si>
-    <t>领料单高亮显示→打开查看领料单详情→打开了领料仓库并可以选择</t>
-  </si>
-  <si>
-    <t>单据管理→单据查询→领料单查询</t>
-  </si>
-  <si>
-    <t>领料单查询查看详情禁用领料仓库框</t>
-  </si>
-  <si>
-    <t>库存查询会出现全选</t>
-  </si>
-  <si>
-    <t>先筛选出库存→随便选择库存单→点击多条件查询→点击重置→点击查询</t>
-  </si>
-  <si>
-    <t>单据管理→库存查询→库存查询</t>
-  </si>
-  <si>
-    <t>将列表的属性reloadSelected改为false（其他类似页面已修改）</t>
-  </si>
-  <si>
-    <t>查看领料单详情不应该有添加物料按钮</t>
-  </si>
-  <si>
-    <t>查询页面将添加物料按钮禁用</t>
-  </si>
-  <si>
-    <t>单据制作中的添加和编辑中添加物料的功能栏位置不统一</t>
-  </si>
-  <si>
-    <t>单据制作→领料单制作→新增（编辑）→添加物料</t>
-  </si>
-  <si>
-    <t>有点看不懂再说什么</t>
-  </si>
-  <si>
-    <t>未处理</t>
-  </si>
-  <si>
-    <t>单据查询中查看单据详情应该怎么能查看详情不应该可以选择</t>
-  </si>
-  <si>
-    <t>选择单据→点击查看详情</t>
-  </si>
-  <si>
-    <t>单据管理→单据查询</t>
-  </si>
-  <si>
-    <t>给全部的单据查询界面的查看详情的文本框设置为只读</t>
-  </si>
-  <si>
-    <t>查询按钮不能使用</t>
-  </si>
-  <si>
-    <t>单据管理→库存查询</t>
-  </si>
-  <si>
-    <t>查看领料单详情，弹出的应该是查看详情框，而不是编辑框</t>
-  </si>
-  <si>
-    <t>选择单据→查看详情</t>
-  </si>
-  <si>
-    <t>弹出的是编辑框</t>
-  </si>
-  <si>
-    <t>领料单详情中的原仓库不可以跳转</t>
-  </si>
-  <si>
-    <t>选择单据→查看详情→把单据的详情拖到拉到最右方→点击原料的原仓库</t>
-  </si>
-  <si>
-    <t>入库单的提交人为空</t>
-  </si>
-  <si>
-    <t>单据管理→单据管理→入库单查询</t>
-  </si>
-  <si>
-    <t>动态库存查询功能</t>
-  </si>
-  <si>
-    <t>选择要查询的单据→点击查看详情</t>
-  </si>
-  <si>
-    <t>单据高亮显示→报错，提示“表单数据获取失败，请重新获取！”</t>
-  </si>
-  <si>
-    <t>单据管理→库存查询→动态库存查询</t>
-  </si>
-  <si>
-    <t>退供应商单编辑后单据会消失</t>
-  </si>
-  <si>
-    <t>选择退供应商单制作→点击编辑→填写要修改的信息→点击确认</t>
-  </si>
-  <si>
-    <t>退供应商单高亮显示→弹出编辑框→显示所修改的信息→退供应商单制作直接消失在列表</t>
-  </si>
-  <si>
-    <t>单据管理→单据制作→退供应商单制作</t>
-  </si>
-  <si>
-    <t>强制使用记录单据查询创建时间切换时间失败</t>
-  </si>
-  <si>
-    <t>点击创建时间框→选择时间→点击确认</t>
-  </si>
-  <si>
-    <t>弹出时间选择表→显示所选择的→没有根据时间筛选出强制使用记录单据</t>
-  </si>
-  <si>
-    <t>单据管理→单据查询→强制使用记录单据查询</t>
-  </si>
-  <si>
-    <t>新增不了原物料入库价格表</t>
-  </si>
-  <si>
-    <t>点击新增→填写信息→点击确认</t>
-  </si>
-  <si>
-    <t>弹出新增框→显示所填写信息→提示“编码重复”</t>
-  </si>
-  <si>
-    <t>基础资料→基础管理→原物料入库价格表</t>
-  </si>
-  <si>
-    <t>是否最后工序的选择栏被遮住</t>
-  </si>
-  <si>
-    <t>点击新增（编辑）→点击“是否最后工程”栏</t>
-  </si>
-  <si>
-    <t>弹出新增（编辑）框→弹出下拉框，部分信息被遮挡</t>
-  </si>
-  <si>
-    <t>基础资料→基础管理→工序</t>
-  </si>
-  <si>
-    <t>莫名弹出提示框</t>
-  </si>
-  <si>
-    <t>把数遍放置在工序管理列表的项上的“是否最后一道工序”</t>
-  </si>
-  <si>
-    <t>放置在“是”上出现1，放在“否”上出现空框</t>
-  </si>
-  <si>
     <t xml:space="preserve">服务器上原先的端口已停掉故报错，更新新端口后，功能正常，如上图
 </t>
-    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增单据列表多了个项</t>
+  </si>
+  <si>
+    <t>单据管理→单据制作</t>
+  </si>
+  <si>
+    <t>新增或编辑单据中添加物料</t>
+  </si>
+  <si>
+    <t>弹出添加物料→后面的编辑的框多了刚添加的物料</t>
+  </si>
+  <si>
+    <t>1. 单据制作→**单制作→新增（编辑）→添加物料</t>
+  </si>
+  <si>
+    <t>已开的项无法用选项栏进行切换</t>
+  </si>
+  <si>
+    <t>单据制作中的新增或编辑中的搜索按钮与清空按钮吃重合和搜索按钮使用不了</t>
+  </si>
+  <si>
+    <t>单据管理</t>
+  </si>
+  <si>
+    <t>这是个提示框，并没有清空的按钮</t>
+  </si>
+  <si>
+    <t>查看领料单详情不应该能打开领料仓库</t>
+  </si>
+  <si>
+    <t>选择领料单→点击查看详情→点击领料仓库</t>
+  </si>
+  <si>
+    <t>领料单高亮显示→打开查看领料单详情→打开了领料仓库并可以选择</t>
+  </si>
+  <si>
+    <t>单据管理→单据查询→领料单查询</t>
+  </si>
+  <si>
+    <t>领料单查询查看详情禁用领料仓库框</t>
+  </si>
+  <si>
+    <t>库存查询会出现全选</t>
+  </si>
+  <si>
+    <t>先筛选出库存→随便选择库存单→点击多条件查询→点击重置→点击查询</t>
+  </si>
+  <si>
+    <t>单据管理→库存查询→库存查询</t>
+  </si>
+  <si>
+    <t>将列表的属性reloadSelected改为false（其他类似页面已修改）</t>
+  </si>
+  <si>
+    <t>查看领料单详情不应该有添加物料按钮</t>
+  </si>
+  <si>
+    <t>查询页面将添加物料按钮禁用</t>
+  </si>
+  <si>
+    <t>单据制作中的添加和编辑中添加物料的功能栏位置不统一</t>
+  </si>
+  <si>
+    <t>单据制作→领料单制作→新增（编辑）→添加物料</t>
+  </si>
+  <si>
+    <t>有点看不懂再说什么</t>
+  </si>
+  <si>
+    <t>未处理</t>
+  </si>
+  <si>
+    <t>单据查询中查看单据详情应该怎么能查看详情不应该可以选择</t>
+  </si>
+  <si>
+    <t>选择单据→点击查看详情</t>
+  </si>
+  <si>
+    <t>单据管理→单据查询</t>
+  </si>
+  <si>
+    <t>给全部的单据查询界面的查看详情的文本框设置为只读</t>
+  </si>
+  <si>
+    <t>查询按钮不能使用</t>
+  </si>
+  <si>
+    <t>单据管理→库存查询</t>
+  </si>
+  <si>
+    <t>查看领料单详情，弹出的应该是查看详情框，而不是编辑框</t>
+  </si>
+  <si>
+    <t>选择单据→查看详情</t>
+  </si>
+  <si>
+    <t>弹出的是编辑框</t>
+  </si>
+  <si>
+    <t>领料单详情中的原仓库不可以跳转</t>
+  </si>
+  <si>
+    <t>选择单据→查看详情→把单据的详情拖到拉到最右方→点击原料的原仓库</t>
+  </si>
+  <si>
+    <t>入库单的提交人为空</t>
+  </si>
+  <si>
+    <t>单据管理→单据管理→入库单查询</t>
+  </si>
+  <si>
+    <t>动态库存查询功能</t>
+  </si>
+  <si>
+    <t>选择要查询的单据→点击查看详情</t>
+  </si>
+  <si>
+    <t>单据高亮显示→报错，提示“表单数据获取失败，请重新获取！”</t>
+  </si>
+  <si>
+    <t>单据管理→库存查询→动态库存查询</t>
+  </si>
+  <si>
+    <t>退供应商单编辑后单据会消失</t>
+  </si>
+  <si>
+    <t>选择退供应商单制作→点击编辑→填写要修改的信息→点击确认</t>
+  </si>
+  <si>
+    <t>退供应商单高亮显示→弹出编辑框→显示所修改的信息→退供应商单制作直接消失在列表</t>
+  </si>
+  <si>
+    <t>单据管理→单据制作→退供应商单制作</t>
+  </si>
+  <si>
+    <t>强制使用记录单据查询创建时间切换时间失败</t>
+  </si>
+  <si>
+    <t>点击创建时间框→选择时间→点击确认</t>
+  </si>
+  <si>
+    <t>弹出时间选择表→显示所选择的→没有根据时间筛选出强制使用记录单据</t>
+  </si>
+  <si>
+    <t>单据管理→单据查询→强制使用记录单据查询</t>
+  </si>
+  <si>
+    <t>新增不了原物料入库价格表</t>
+  </si>
+  <si>
+    <t>点击新增→填写信息→点击确认</t>
+  </si>
+  <si>
+    <t>弹出新增框→显示所填写信息→提示“编码重复”</t>
+  </si>
+  <si>
+    <t>基础资料→基础管理→原物料入库价格表</t>
+  </si>
+  <si>
+    <t>是否最后工序的选择栏被遮住</t>
+  </si>
+  <si>
+    <t>点击新增（编辑）→点击“是否最后工程”栏</t>
+  </si>
+  <si>
+    <t>弹出新增（编辑）框→弹出下拉框，部分信息被遮挡</t>
+  </si>
+  <si>
+    <t>基础资料→基础管理→工序</t>
+  </si>
+  <si>
+    <t>莫名弹出提示框</t>
+  </si>
+  <si>
+    <t>把数遍放置在工序管理列表的项上的“是否最后一道工序”</t>
+  </si>
+  <si>
+    <t>放置在“是”上出现1，放在“否”上出现空框</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -499,10 +499,154 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -511,22 +655,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -541,12 +671,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79992065187536243"/>
+        <fgColor theme="8" tint="0.799920651875362"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -593,10 +903,249 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -613,48 +1162,102 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="33" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="33" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="33" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="20% - 着色 5" xfId="1" builtinId="46"/>
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -668,42 +1271,7 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -713,15 +1281,12 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
@@ -743,7 +1308,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -781,7 +1346,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -819,14 +1384,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10310495" y="7843520"/>
+          <a:off x="10310495" y="9386570"/>
           <a:ext cx="676910" cy="631825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -851,7 +1416,7 @@
           <xdr:row>9</xdr:row>
           <xdr:rowOff>733425</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="">
+        <xdr:sp>
           <xdr:nvSpPr>
             <xdr:cNvPr id="1027" name="Object 3" hidden="1">
               <a:extLst>
@@ -862,25 +1427,14 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
+              <a:off x="10270490" y="5984240"/>
+              <a:ext cx="1560195" cy="733425"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -934,7 +1488,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -969,7 +1523,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1172,30 +1726,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="19.5" customWidth="1"/>
     <col min="3" max="3" width="23.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="34.625" customWidth="1"/>
+    <col min="4" max="4" width="34.6296296296296" customWidth="1"/>
     <col min="5" max="5" width="37.25" customWidth="1"/>
-    <col min="6" max="6" width="26.125" customWidth="1"/>
+    <col min="6" max="6" width="26.1296296296296" customWidth="1"/>
     <col min="7" max="7" width="22.75" customWidth="1"/>
-    <col min="8" max="8" width="14.375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.3796296296296" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1" ht="35.25" customHeight="1" spans="1:8">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1221,7 +1775,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="2" ht="28.8" spans="1:8">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -1247,7 +1801,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="3" ht="72" spans="1:8">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -1273,7 +1827,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+    <row r="4" ht="28.8" spans="1:8">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -1299,7 +1853,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="55.5" x14ac:dyDescent="0.25">
+    <row r="5" ht="57.6" spans="1:8">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -1325,7 +1879,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="81" x14ac:dyDescent="0.15">
+    <row r="6" ht="86.4" spans="1:8">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -1351,7 +1905,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -1377,7 +1931,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="75.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" ht="75.95" customHeight="1" spans="1:8">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -1403,7 +1957,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="9" ht="72" spans="1:8">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -1425,7 +1979,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="153.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" ht="153.75" customHeight="1" spans="1:8">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -1442,60 +1996,60 @@
         <v>53</v>
       </c>
       <c r="F10" s="13"/>
-      <c r="G10" s="19" t="s">
-        <v>114</v>
+      <c r="G10" s="15" t="s">
+        <v>54</v>
       </c>
       <c r="H10" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" ht="34.5" customHeight="1" spans="1:8">
       <c r="A11" s="7">
         <v>10</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="12"/>
     </row>
-    <row r="12" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" ht="37.5" customHeight="1" spans="1:8">
       <c r="A12" s="7">
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
       <c r="H12" s="12"/>
     </row>
-    <row r="13" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" ht="38.25" customHeight="1" spans="1:8">
       <c r="A13" s="7">
         <v>12</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
@@ -1503,349 +2057,351 @@
       <c r="G13" s="13"/>
       <c r="H13" s="12"/>
     </row>
-    <row r="14" spans="1:8" ht="93" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" ht="93" customHeight="1" spans="1:8">
       <c r="A14" s="7">
         <v>13</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F14" s="13" t="s">
         <v>19</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H14" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" ht="57" customHeight="1" spans="1:8">
       <c r="A15" s="7">
         <v>14</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F15" s="13" t="s">
         <v>19</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H15" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" ht="65.25" customHeight="1" spans="1:8">
       <c r="A16" s="7">
         <v>15</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F16" s="13" t="s">
         <v>19</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H16" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" ht="36.75" customHeight="1" spans="1:8">
       <c r="A17" s="7">
         <v>16</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
       <c r="E17" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F17" s="13" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H17" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" ht="40.5" customHeight="1" spans="1:8">
       <c r="A18" s="7">
         <v>17</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
       <c r="E18" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F18" s="13" t="s">
         <v>19</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" ht="45.75" customHeight="1" spans="1:8">
       <c r="A19" s="7">
         <v>18</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F19" s="13" t="s">
         <v>19</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H19" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" ht="72" customHeight="1" spans="1:8">
       <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20" s="15" t="s">
-        <v>82</v>
+      <c r="B20" s="16" t="s">
+        <v>83</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
-      <c r="E20" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15" t="s">
+      <c r="E20" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="16" t="s">
         <v>49</v>
       </c>
       <c r="H20" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="21" ht="43.2" spans="1:8">
       <c r="A21" s="7">
         <v>20</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D21" s="15" t="s">
         <v>86</v>
       </c>
+      <c r="D21" s="16" t="s">
+        <v>87</v>
+      </c>
       <c r="E21" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
-      <c r="H21" s="18" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="16">
+      <c r="H21" s="17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" ht="43.2" spans="1:8">
+      <c r="A22" s="18">
         <v>21</v>
       </c>
-      <c r="B22" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="C22" s="17" t="s">
+      <c r="B22" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="D22" s="17"/>
-      <c r="E22" s="15" t="s">
-        <v>66</v>
+      <c r="C22" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" s="19"/>
+      <c r="E22" s="16" t="s">
+        <v>67</v>
       </c>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
-      <c r="H22" s="18" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H22" s="17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1" spans="1:8">
       <c r="A23" s="7">
         <v>22</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
       <c r="E23" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
-      <c r="H23" s="18"/>
-    </row>
-    <row r="24" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="H23" s="17"/>
+    </row>
+    <row r="24" ht="28.8" spans="1:8">
       <c r="A24" s="7">
         <v>23</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
-      <c r="H24" s="18"/>
-    </row>
-    <row r="25" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="H24" s="17"/>
+    </row>
+    <row r="25" ht="43.2" spans="1:8">
       <c r="A25" s="7">
         <v>24</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
-      <c r="H25" s="18"/>
-    </row>
-    <row r="26" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="H25" s="17"/>
+    </row>
+    <row r="26" ht="43.2" spans="1:8">
       <c r="A26" s="7">
         <v>25</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
-      <c r="H26" s="18"/>
-    </row>
-    <row r="27" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="H26" s="17"/>
+    </row>
+    <row r="27" ht="28.8" spans="1:8">
       <c r="A27" s="7">
         <v>26</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
-      <c r="H27" s="18"/>
-    </row>
-    <row r="28" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="H27" s="17"/>
+    </row>
+    <row r="28" ht="28.8" spans="1:8">
       <c r="A28" s="7">
         <v>27</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
-      <c r="H28" s="18"/>
-    </row>
-    <row r="29" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="H28" s="17"/>
+    </row>
+    <row r="29" ht="43.2" spans="1:8">
       <c r="A29" s="7">
         <v>28</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
-      <c r="H29" s="18"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H29" s="17"/>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="7">
         <v>29</v>
       </c>
@@ -1855,9 +2411,9 @@
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
-      <c r="H30" s="18"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H30" s="17"/>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="7">
         <v>30</v>
       </c>
@@ -1867,9 +2423,9 @@
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
-      <c r="H31" s="18"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H31" s="17"/>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="7">
         <v>31</v>
       </c>
@@ -1879,9 +2435,9 @@
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
-      <c r="H32" s="18"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H32" s="17"/>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="7">
         <v>32</v>
       </c>
@@ -1891,11 +2447,26 @@
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
-      <c r="H33" s="18"/>
+      <c r="H33" s="17"/>
     </row>
   </sheetData>
-  <autoFilter ref="H1:H19"/>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <autoFilter ref="H1:H22">
+    <extLst/>
+  </autoFilter>
+  <conditionalFormatting sqref="H20">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+      <formula>"已解决"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>$H$6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"处理中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"未处理"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A2:A33">
     <cfRule type="colorScale" priority="7">
       <colorScale>
@@ -1909,39 +2480,23 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H19">
-    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="9" operator="equal">
       <formula>"已解决"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H19 H34:H1048576">
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
       <formula>$H$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
       <formula>"处理中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
-      <formula>"未处理"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H20">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"已解决"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H20">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
-      <formula>$H$6</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"处理中"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
       <formula>"未处理"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F14 F15 F16 F17 F18 F19 F1:F13 F20:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F14 F15 F16 F17 F18 F19 F20 F1:F13 F21:F1048576">
       <formula1>$F$5:$F$6</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H16 H17 H1:H15 H18:H1048576">
@@ -1949,14 +2504,15 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="包装程序外壳对象" shapeId="1027" r:id="rId4">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
+        <oleObject shapeId="1027" progId="包装程序外壳对象" r:id="rId3">
+          <objectPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
@@ -1975,7 +2531,7 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="包装程序外壳对象" shapeId="1027" r:id="rId4"/>
+        <oleObject shapeId="1027" progId="包装程序外壳对象" r:id="rId3"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>

--- a/Source/bug处理记录/MES系统bug解决记录.xlsx
+++ b/Source/bug处理记录/MES系统bug解决记录.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="117">
   <si>
     <t>序号</t>
   </si>
@@ -379,10 +379,16 @@
     <t>弹出的是编辑框</t>
   </si>
   <si>
+    <t>修改文本</t>
+  </si>
+  <si>
     <t>领料单详情中的原仓库不可以跳转</t>
   </si>
   <si>
     <t>选择单据→查看详情→把单据的详情拖到拉到最右方→点击原料的原仓库</t>
+  </si>
+  <si>
+    <t>跳转的ID发生改变，已经重新获取</t>
   </si>
   <si>
     <t>入库单的提交人为空</t>
@@ -470,7 +476,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -493,22 +499,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -521,30 +526,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -559,14 +550,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -589,7 +612,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -603,43 +634,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -677,181 +676,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -905,21 +904,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -930,6 +914,35 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -953,16 +966,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -982,22 +986,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1007,10 +1006,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1019,137 +1018,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -1181,18 +1180,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1257,7 +1253,7 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1271,7 +1267,7 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1734,8 +1730,8 @@
   <sheetPr/>
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="G26" sqref="H22 G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -1996,7 +1992,7 @@
         <v>53</v>
       </c>
       <c r="F10" s="13"/>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="11" t="s">
         <v>54</v>
       </c>
       <c r="H10" s="12" t="s">
@@ -2205,18 +2201,18 @@
       <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="15" t="s">
         <v>83</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="15" t="s">
         <v>84</v>
       </c>
       <c r="F20" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="16" t="s">
+      <c r="G20" s="15" t="s">
         <v>49</v>
       </c>
       <c r="H20" s="12" t="s">
@@ -2233,36 +2229,44 @@
       <c r="C21" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="15" t="s">
         <v>87</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="17" t="s">
-        <v>78</v>
+      <c r="F21" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="22" ht="43.2" spans="1:8">
-      <c r="A22" s="18">
+      <c r="A22" s="16">
         <v>21</v>
       </c>
-      <c r="B22" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="C22" s="19" t="s">
+      <c r="B22" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="D22" s="19"/>
-      <c r="E22" s="16" t="s">
+      <c r="C22" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" s="17"/>
+      <c r="E22" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="17" t="s">
-        <v>78</v>
+      <c r="F22" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1" spans="1:8">
@@ -2270,136 +2274,136 @@
         <v>22</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
       <c r="E23" s="11" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
-      <c r="H23" s="17"/>
+      <c r="H23" s="18"/>
     </row>
     <row r="24" ht="28.8" spans="1:8">
       <c r="A24" s="7">
         <v>23</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
-      <c r="H24" s="17"/>
+      <c r="H24" s="18"/>
     </row>
     <row r="25" ht="43.2" spans="1:8">
       <c r="A25" s="7">
         <v>24</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
-      <c r="H25" s="17"/>
+      <c r="H25" s="18"/>
     </row>
     <row r="26" ht="43.2" spans="1:8">
       <c r="A26" s="7">
         <v>25</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
-      <c r="H26" s="17"/>
+      <c r="H26" s="18"/>
     </row>
     <row r="27" ht="28.8" spans="1:8">
       <c r="A27" s="7">
         <v>26</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
-      <c r="H27" s="17"/>
+      <c r="H27" s="18"/>
     </row>
     <row r="28" ht="28.8" spans="1:8">
       <c r="A28" s="7">
         <v>27</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
-      <c r="H28" s="17"/>
+      <c r="H28" s="18"/>
     </row>
     <row r="29" ht="43.2" spans="1:8">
       <c r="A29" s="7">
         <v>28</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
-      <c r="H29" s="17"/>
+      <c r="H29" s="18"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="7">
@@ -2411,7 +2415,7 @@
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
-      <c r="H30" s="17"/>
+      <c r="H30" s="18"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="7">
@@ -2423,7 +2427,7 @@
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
-      <c r="H31" s="17"/>
+      <c r="H31" s="18"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="7">
@@ -2435,7 +2439,7 @@
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
-      <c r="H32" s="17"/>
+      <c r="H32" s="18"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="7">
@@ -2447,28 +2451,56 @@
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
-      <c r="H33" s="17"/>
+      <c r="H33" s="18"/>
     </row>
   </sheetData>
   <autoFilter ref="H1:H22">
     <extLst/>
   </autoFilter>
   <conditionalFormatting sqref="H20">
+    <cfRule type="cellIs" dxfId="0" priority="12" operator="equal">
+      <formula>"已解决"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="11" operator="equal">
+      <formula>"未处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="10" operator="equal">
+      <formula>"处理中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
+      <formula>$H$6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H21">
+    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
+      <formula>"已解决"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
+      <formula>"未处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
+      <formula>"处理中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+      <formula>$H$6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22">
     <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"已解决"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>$H$6</formula>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>"未处理"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"处理中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
-      <formula>"未处理"</formula>
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>$H$6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A33">
-    <cfRule type="colorScale" priority="7">
+    <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2480,26 +2512,26 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H19">
-    <cfRule type="cellIs" dxfId="0" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="21" operator="equal">
       <formula>"已解决"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H19 H34:H1048576">
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="17" operator="equal">
       <formula>$H$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="18" operator="equal">
       <formula>"处理中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="20" operator="equal">
       <formula>"未处理"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F14 F15 F16 F17 F18 F19 F20 F1:F13 F21:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F14 F15 F16 F17 F18 F19 F20 F21 F22 F1:F13 F23:F1048576">
       <formula1>$F$5:$F$6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H16 H17 H1:H15 H18:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H16 H17 H20 H21 H22 H1:H15 H18:H19 H23:H1048576">
       <formula1>"处理中,未处理,已解决,无需处理"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Source/bug处理记录/MES系统bug解决记录.xlsx
+++ b/Source/bug处理记录/MES系统bug解决记录.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="118">
   <si>
     <t>序号</t>
   </si>
@@ -445,6 +445,9 @@
     <t>基础资料→基础管理→原物料入库价格表</t>
   </si>
   <si>
+    <t>后台判断出错，已经修改好</t>
+  </si>
+  <si>
     <t>是否最后工序的选择栏被遮住</t>
   </si>
   <si>
@@ -499,23 +502,40 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -534,15 +554,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -550,38 +563,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -611,13 +607,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -626,19 +615,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -676,181 +679,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -903,17 +906,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -929,20 +950,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -965,38 +998,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1006,10 +1009,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1018,133 +1021,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1730,8 +1733,8 @@
   <sheetPr/>
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="G26" sqref="H22 G26"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -2361,25 +2364,31 @@
       <c r="E27" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="18"/>
+      <c r="F27" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="28" ht="28.8" spans="1:8">
       <c r="A28" s="7">
         <v>27</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
@@ -2390,13 +2399,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E29" s="11" t="s">
         <v>109</v>
@@ -2458,6 +2467,20 @@
     <extLst/>
   </autoFilter>
   <conditionalFormatting sqref="H20">
+    <cfRule type="cellIs" dxfId="0" priority="16" operator="equal">
+      <formula>"已解决"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="15" operator="equal">
+      <formula>"未处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="14" operator="equal">
+      <formula>"处理中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="13" operator="equal">
+      <formula>$H$6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H21">
     <cfRule type="cellIs" dxfId="0" priority="12" operator="equal">
       <formula>"已解决"</formula>
     </cfRule>
@@ -2471,7 +2494,7 @@
       <formula>$H$6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H21">
+  <conditionalFormatting sqref="H22">
     <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
       <formula>"已解决"</formula>
     </cfRule>
@@ -2485,7 +2508,7 @@
       <formula>$H$6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H22">
+  <conditionalFormatting sqref="H27">
     <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"已解决"</formula>
     </cfRule>
@@ -2500,7 +2523,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A33">
-    <cfRule type="colorScale" priority="19">
+    <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2512,18 +2535,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H19">
-    <cfRule type="cellIs" dxfId="0" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="25" operator="equal">
       <formula>"已解决"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H19 H34:H1048576">
-    <cfRule type="cellIs" dxfId="3" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="21" operator="equal">
       <formula>$H$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="22" operator="equal">
       <formula>"处理中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="24" operator="equal">
       <formula>"未处理"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2531,7 +2554,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F14 F15 F16 F17 F18 F19 F20 F21 F22 F1:F13 F23:F1048576">
       <formula1>$F$5:$F$6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H16 H17 H20 H21 H22 H1:H15 H18:H19 H23:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H16 H17 H20 H21 H22 H27 H1:H15 H18:H19 H23:H26 H28:H1048576">
       <formula1>"处理中,未处理,已解决,无需处理"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Source/bug处理记录/MES系统bug解决记录.xlsx
+++ b/Source/bug处理记录/MES系统bug解决记录.xlsx
@@ -474,10 +474,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -502,14 +502,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -520,6 +521,42 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -536,58 +573,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -609,14 +594,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -645,6 +637,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -679,43 +679,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -727,127 +847,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -906,11 +906,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -951,21 +981,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -976,21 +991,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1009,10 +1009,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1021,133 +1021,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1733,7 +1733,7 @@
   <sheetPr/>
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A21" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>

--- a/Source/bug处理记录/MES系统bug解决记录.xlsx
+++ b/Source/bug处理记录/MES系统bug解决记录.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BJ_MES\bug处理记录\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="18468" windowHeight="9420"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18465" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="120">
   <si>
     <t>序号</t>
   </si>
@@ -63,7 +68,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>12</t>
     </r>
@@ -143,7 +148,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>**</t>
     </r>
@@ -177,7 +182,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>**</t>
     </r>
@@ -196,7 +201,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>**</t>
     </r>
@@ -467,19 +472,21 @@
   </si>
   <si>
     <t>放置在“是”上出现1，放在“否”上出现空框</t>
+  </si>
+  <si>
+    <t>见图：</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增或编辑单点击添加物料→勾选物料据中添加物料</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -502,153 +509,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -657,8 +527,22 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -673,192 +557,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799920651875362"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.79989013336588644"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -905,253 +609,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -1164,95 +629,44 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="33" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="33" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="33" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
+    <cellStyle name="20% - 着色 5" xfId="1" builtinId="46"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="20">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1274,18 +688,140 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
@@ -1307,7 +843,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1345,7 +881,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1383,7 +919,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1415,7 +951,7 @@
           <xdr:row>9</xdr:row>
           <xdr:rowOff>733425</xdr:rowOff>
         </xdr:to>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1027" name="Object 3" hidden="1">
               <a:extLst>
@@ -1426,14 +962,155 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="10270490" y="5984240"/>
-              <a:ext cx="1560195" cy="733425"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>409575</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>171450</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>1247775</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>704850</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1028" name="Object 4" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1028"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>523875</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>1362075</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1033" name="Object 9" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1033"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1725,30 +1402,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="19.5" customWidth="1"/>
     <col min="3" max="3" width="23.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="34.6296296296296" customWidth="1"/>
+    <col min="4" max="4" width="34.625" customWidth="1"/>
     <col min="5" max="5" width="37.25" customWidth="1"/>
-    <col min="6" max="6" width="26.1296296296296" customWidth="1"/>
+    <col min="6" max="6" width="26.125" customWidth="1"/>
     <col min="7" max="7" width="22.75" customWidth="1"/>
-    <col min="8" max="8" width="14.3796296296296" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="35.25" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1774,7 +1451,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="28.8" spans="1:8">
+    <row r="2" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -1800,7 +1477,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" ht="72" spans="1:8">
+    <row r="3" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -1826,7 +1503,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" ht="28.8" spans="1:8">
+    <row r="4" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -1852,7 +1529,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" ht="57.6" spans="1:8">
+    <row r="5" spans="1:8" ht="55.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -1878,7 +1555,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" ht="86.4" spans="1:8">
+    <row r="6" spans="1:8" ht="81" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -1904,7 +1581,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -1930,7 +1607,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" ht="75.95" customHeight="1" spans="1:8">
+    <row r="8" spans="1:8" ht="75.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -1956,7 +1633,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" ht="72" spans="1:8">
+    <row r="9" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -1978,7 +1655,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" ht="153.75" customHeight="1" spans="1:8">
+    <row r="10" spans="1:8" ht="153.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -1994,7 +1671,9 @@
       <c r="E10" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="13"/>
+      <c r="F10" s="13" t="s">
+        <v>12</v>
+      </c>
       <c r="G10" s="11" t="s">
         <v>54</v>
       </c>
@@ -2002,7 +1681,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" ht="34.5" customHeight="1" spans="1:8">
+    <row r="11" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -2016,19 +1695,25 @@
       <c r="E11" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="12"/>
-    </row>
-    <row r="12" ht="37.5" customHeight="1" spans="1:8">
+      <c r="F11" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7">
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>57</v>
+      <c r="C12" s="19" t="s">
+        <v>119</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>58</v>
@@ -2036,11 +1721,15 @@
       <c r="E12" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
+      <c r="F12" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>118</v>
+      </c>
       <c r="H12" s="12"/>
     </row>
-    <row r="13" ht="38.25" customHeight="1" spans="1:8">
+    <row r="13" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -2056,7 +1745,7 @@
       <c r="G13" s="13"/>
       <c r="H13" s="12"/>
     </row>
-    <row r="14" ht="93" customHeight="1" spans="1:8">
+    <row r="14" spans="1:8" ht="93" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -2080,7 +1769,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" ht="57" customHeight="1" spans="1:8">
+    <row r="15" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -2106,7 +1795,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" ht="65.25" customHeight="1" spans="1:8">
+    <row r="16" spans="1:8" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -2132,7 +1821,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" ht="36.75" customHeight="1" spans="1:8">
+    <row r="17" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -2154,7 +1843,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" ht="40.5" customHeight="1" spans="1:8">
+    <row r="18" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -2176,7 +1865,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" ht="45.75" customHeight="1" spans="1:8">
+    <row r="19" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -2200,7 +1889,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" ht="72" customHeight="1" spans="1:8">
+    <row r="20" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -2222,7 +1911,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" ht="43.2" spans="1:8">
+    <row r="21" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A21" s="7">
         <v>20</v>
       </c>
@@ -2248,7 +1937,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" ht="43.2" spans="1:8">
+    <row r="22" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A22" s="16">
         <v>21</v>
       </c>
@@ -2272,7 +1961,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" ht="24.75" customHeight="1" spans="1:8">
+    <row r="23" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -2288,7 +1977,7 @@
       <c r="G23" s="11"/>
       <c r="H23" s="18"/>
     </row>
-    <row r="24" ht="28.8" spans="1:8">
+    <row r="24" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A24" s="7">
         <v>23</v>
       </c>
@@ -2308,7 +1997,7 @@
       <c r="G24" s="11"/>
       <c r="H24" s="18"/>
     </row>
-    <row r="25" ht="43.2" spans="1:8">
+    <row r="25" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A25" s="7">
         <v>24</v>
       </c>
@@ -2328,7 +2017,7 @@
       <c r="G25" s="11"/>
       <c r="H25" s="18"/>
     </row>
-    <row r="26" ht="43.2" spans="1:8">
+    <row r="26" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A26" s="7">
         <v>25</v>
       </c>
@@ -2348,7 +2037,7 @@
       <c r="G26" s="11"/>
       <c r="H26" s="18"/>
     </row>
-    <row r="27" ht="28.8" spans="1:8">
+    <row r="27" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A27" s="7">
         <v>26</v>
       </c>
@@ -2374,7 +2063,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" ht="28.8" spans="1:8">
+    <row r="28" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A28" s="7">
         <v>27</v>
       </c>
@@ -2394,7 +2083,7 @@
       <c r="G28" s="11"/>
       <c r="H28" s="18"/>
     </row>
-    <row r="29" ht="43.2" spans="1:8">
+    <row r="29" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A29" s="7">
         <v>28</v>
       </c>
@@ -2414,7 +2103,7 @@
       <c r="G29" s="11"/>
       <c r="H29" s="18"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="7">
         <v>29</v>
       </c>
@@ -2426,7 +2115,7 @@
       <c r="G30" s="11"/>
       <c r="H30" s="18"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="7">
         <v>30</v>
       </c>
@@ -2438,7 +2127,7 @@
       <c r="G31" s="11"/>
       <c r="H31" s="18"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="7">
         <v>31</v>
       </c>
@@ -2450,7 +2139,7 @@
       <c r="G32" s="11"/>
       <c r="H32" s="18"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" s="7">
         <v>32</v>
       </c>
@@ -2463,62 +2152,61 @@
       <c r="H33" s="18"/>
     </row>
   </sheetData>
-  <autoFilter ref="H1:H22">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="H1:H22"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="H20">
-    <cfRule type="cellIs" dxfId="0" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="16" operator="equal">
       <formula>"已解决"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="15" operator="equal">
       <formula>"未处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="14" operator="equal">
       <formula>"处理中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="13" operator="equal">
       <formula>$H$6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="0" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="12" operator="equal">
       <formula>"已解决"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="11" operator="equal">
       <formula>"未处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="10" operator="equal">
       <formula>"处理中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
       <formula>$H$6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="8" operator="equal">
       <formula>"已解决"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
       <formula>"未处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
       <formula>"处理中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
       <formula>$H$6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
       <formula>"已解决"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>"未处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>"处理中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>$H$6</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2535,18 +2223,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H19">
-    <cfRule type="cellIs" dxfId="0" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="25" operator="equal">
       <formula>"已解决"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H19 H34:H1048576">
-    <cfRule type="cellIs" dxfId="3" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="21" operator="equal">
       <formula>$H$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="22" operator="equal">
       <formula>"处理中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="24" operator="equal">
       <formula>"未处理"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2559,15 +2247,14 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="1027" progId="包装程序外壳对象" r:id="rId3">
-          <objectPr defaultSize="0" r:id="rId4">
+        <oleObject progId="包装程序外壳对象" shapeId="1027" r:id="rId4">
+          <objectPr defaultSize="0" altText="" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
@@ -2586,7 +2273,57 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="1027" progId="包装程序外壳对象" r:id="rId3"/>
+        <oleObject progId="包装程序外壳对象" shapeId="1027" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="包装程序外壳对象" shapeId="1028" r:id="rId6">
+          <objectPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>409575</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>1247775</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>704850</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="包装程序外壳对象" shapeId="1028" r:id="rId6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="包装程序外壳对象" shapeId="1033" r:id="rId8">
+          <objectPr defaultSize="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>523875</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>1362075</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="包装程序外壳对象" shapeId="1033" r:id="rId8"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>

--- a/Source/bug处理记录/MES系统bug解决记录.xlsx
+++ b/Source/bug处理记录/MES系统bug解决记录.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="122">
   <si>
     <t>序号</t>
   </si>
@@ -479,6 +479,14 @@
   </si>
   <si>
     <t>新增或编辑单点击添加物料→勾选物料据中添加物料</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>筛选成功→所选的库存单高亮显示→弹出查询框→清空查询条件→筛选成功，所有库存显示选中状态，高亮显示</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>见图：</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1029,23 +1037,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1074,6 +1069,58 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1033"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>447675</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>1571625</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>666750</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1035" name="Object 11" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1035"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1164,7 +1211,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1199,7 +1246,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1410,8 +1457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1727,9 +1774,11 @@
       <c r="G12" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="H12" s="12"/>
-    </row>
-    <row r="13" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H12" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -1741,9 +1790,15 @@
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="12"/>
+      <c r="F13" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="93" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="7">
@@ -1806,7 +1861,7 @@
         <v>70</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>71</v>
+        <v>120</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>71</v>
@@ -2326,6 +2381,31 @@
         <oleObject progId="包装程序外壳对象" shapeId="1033" r:id="rId8"/>
       </mc:Fallback>
     </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="包装程序外壳对象" shapeId="1035" r:id="rId10">
+          <objectPr defaultSize="0" r:id="rId11">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>447675</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>1571625</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>666750</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="包装程序外壳对象" shapeId="1035" r:id="rId10"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </oleObjects>
 </worksheet>
 </file>
--- a/Source/bug处理记录/MES系统bug解决记录.xlsx
+++ b/Source/bug处理记录/MES系统bug解决记录.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="123">
   <si>
     <t>序号</t>
   </si>
@@ -487,6 +487,11 @@
   </si>
   <si>
     <t>见图：</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">提交的时候取错字段，现已更正，见图：
+</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -674,7 +679,63 @@
     <cellStyle name="20% - 着色 5" xfId="1" builtinId="46"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="28">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1121,6 +1182,58 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1035"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>628650</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>533712</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>1685925</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>857250</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1037" name="Object 13" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1037"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1457,8 +1570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2016,7 +2129,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -2028,9 +2141,15 @@
       <c r="E23" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="18"/>
+      <c r="F23" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="24" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A24" s="7">
@@ -2210,63 +2329,63 @@
   <autoFilter ref="H1:H22"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="H20">
-    <cfRule type="cellIs" dxfId="19" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="20" operator="equal">
       <formula>"已解决"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="19" operator="equal">
       <formula>"未处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="18" operator="equal">
       <formula>"处理中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="17" operator="equal">
       <formula>$H$6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="15" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="16" operator="equal">
       <formula>"已解决"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="15" operator="equal">
       <formula>"未处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="14" operator="equal">
       <formula>"处理中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="13" operator="equal">
       <formula>$H$6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="11" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="12" operator="equal">
       <formula>"已解决"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="11" operator="equal">
       <formula>"未处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="10" operator="equal">
       <formula>"处理中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="9" operator="equal">
       <formula>$H$6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="8" operator="equal">
       <formula>"已解决"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
       <formula>"未处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
       <formula>"处理中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
       <formula>$H$6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A33">
-    <cfRule type="colorScale" priority="23">
+    <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2278,19 +2397,33 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H19">
-    <cfRule type="cellIs" dxfId="3" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="29" operator="equal">
       <formula>"已解决"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H19 H34:H1048576">
-    <cfRule type="cellIs" dxfId="2" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="25" operator="equal">
       <formula>$H$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="26" operator="equal">
       <formula>"处理中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="28" operator="equal">
       <formula>"未处理"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H23">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+      <formula>$H$6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+      <formula>"处理中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+      <formula>"未处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+      <formula>"已解决"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
@@ -2406,6 +2539,31 @@
         <oleObject progId="包装程序外壳对象" shapeId="1035" r:id="rId10"/>
       </mc:Fallback>
     </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="包装程序外壳对象" shapeId="1037" r:id="rId12">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>628650</xdr:colOff>
+                <xdr:row>22</xdr:row>
+                <xdr:rowOff>533400</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>1685925</xdr:colOff>
+                <xdr:row>22</xdr:row>
+                <xdr:rowOff>857250</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="包装程序外壳对象" shapeId="1037" r:id="rId12"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </oleObjects>
 </worksheet>
 </file>
--- a/Source/bug处理记录/MES系统bug解决记录.xlsx
+++ b/Source/bug处理记录/MES系统bug解决记录.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="124">
   <si>
     <t>序号</t>
   </si>
@@ -492,6 +492,10 @@
   <si>
     <t xml:space="preserve">提交的时候取错字段，现已更正，见图：
 </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库里表字段与代码中字段类型不一致，修改表字段类型为decimal后，功能正常</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -679,14 +683,7 @@
     <cellStyle name="20% - 着色 5" xfId="1" builtinId="46"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="142">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -711,6 +708,20 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -718,21 +729,812 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1220,7 +2022,7 @@
           <xdr:col>6</xdr:col>
           <xdr:colOff>628650</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>533712</xdr:rowOff>
+          <xdr:rowOff>533400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
@@ -1254,23 +2056,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1570,8 +2359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2151,7 +2940,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" ht="54" x14ac:dyDescent="0.15">
       <c r="A24" s="7">
         <v>23</v>
       </c>
@@ -2167,9 +2956,15 @@
       <c r="E24" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="18"/>
+      <c r="F24" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="H24" s="18" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="25" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A25" s="7">
@@ -2329,59 +3124,56 @@
   <autoFilter ref="H1:H22"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="H20">
-    <cfRule type="cellIs" dxfId="27" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="20" operator="equal">
       <formula>"已解决"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="19" operator="equal">
       <formula>"未处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="18" operator="equal">
       <formula>"处理中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="17" operator="equal">
       <formula>$H$6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="23" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="16" operator="equal">
       <formula>"已解决"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="15" operator="equal">
       <formula>"未处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="14" operator="equal">
       <formula>"处理中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="13" operator="equal">
       <formula>$H$6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="19" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="12" operator="equal">
       <formula>"已解决"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="11" operator="equal">
       <formula>"未处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="10" operator="equal">
       <formula>"处理中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="9" operator="equal">
       <formula>$H$6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="15" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="8" operator="equal">
       <formula>"已解决"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="7" operator="equal">
       <formula>"未处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="6" operator="equal">
       <formula>"处理中"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
-      <formula>$H$6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A33">
@@ -2396,33 +3188,35 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H19">
-    <cfRule type="cellIs" dxfId="11" priority="29" operator="equal">
+  <conditionalFormatting sqref="H20:H29">
+    <cfRule type="cellIs" dxfId="30" priority="29" operator="equal">
       <formula>"已解决"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H19 H34:H1048576">
-    <cfRule type="cellIs" dxfId="10" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="25" operator="equal">
       <formula>$H$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="26" operator="equal">
       <formula>"处理中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
       <formula>"未处理"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="1" operator="equal">
       <formula>$H$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="2" operator="equal">
       <formula>"处理中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="3" operator="equal">
       <formula>"未处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="cellIs" dxfId="23" priority="4" operator="equal">
       <formula>"已解决"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Source/bug处理记录/MES系统bug解决记录.xlsx
+++ b/Source/bug处理记录/MES系统bug解决记录.xlsx
@@ -1,28 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BJ_MES\bug处理记录\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18465" windowHeight="9420"/>
+    <workbookView windowWidth="18468" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$H$1:$H$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$H$1:$H$24</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="124">
   <si>
     <t>序号</t>
   </si>
@@ -68,7 +63,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>12</t>
     </r>
@@ -148,7 +143,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>**</t>
     </r>
@@ -182,7 +177,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>**</t>
     </r>
@@ -201,7 +196,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>**</t>
     </r>
@@ -291,9 +286,15 @@
     <t>单据管理→单据制作</t>
   </si>
   <si>
+    <t>见图：</t>
+  </si>
+  <si>
     <t>新增或编辑单据中添加物料</t>
   </si>
   <si>
+    <t>新增或编辑单点击添加物料→勾选物料据中添加物料</t>
+  </si>
+  <si>
     <t>弹出添加物料→后面的编辑的框多了刚添加的物料</t>
   </si>
   <si>
@@ -333,6 +334,9 @@
     <t>先筛选出库存→随便选择库存单→点击多条件查询→点击重置→点击查询</t>
   </si>
   <si>
+    <t>筛选成功→所选的库存单高亮显示→弹出查询框→清空查询条件→筛选成功，所有库存显示选中状态，高亮显示</t>
+  </si>
+  <si>
     <t>单据管理→库存查询→库存查询</t>
   </si>
   <si>
@@ -400,110 +404,101 @@
   </si>
   <si>
     <t>单据管理→单据管理→入库单查询</t>
-  </si>
-  <si>
-    <t>动态库存查询功能</t>
-  </si>
-  <si>
-    <t>选择要查询的单据→点击查看详情</t>
-  </si>
-  <si>
-    <t>单据高亮显示→报错，提示“表单数据获取失败，请重新获取！”</t>
-  </si>
-  <si>
-    <t>单据管理→库存查询→动态库存查询</t>
-  </si>
-  <si>
-    <t>退供应商单编辑后单据会消失</t>
-  </si>
-  <si>
-    <t>选择退供应商单制作→点击编辑→填写要修改的信息→点击确认</t>
-  </si>
-  <si>
-    <t>退供应商单高亮显示→弹出编辑框→显示所修改的信息→退供应商单制作直接消失在列表</t>
-  </si>
-  <si>
-    <t>单据管理→单据制作→退供应商单制作</t>
-  </si>
-  <si>
-    <t>强制使用记录单据查询创建时间切换时间失败</t>
-  </si>
-  <si>
-    <t>点击创建时间框→选择时间→点击确认</t>
-  </si>
-  <si>
-    <t>弹出时间选择表→显示所选择的→没有根据时间筛选出强制使用记录单据</t>
-  </si>
-  <si>
-    <t>单据管理→单据查询→强制使用记录单据查询</t>
-  </si>
-  <si>
-    <t>新增不了原物料入库价格表</t>
-  </si>
-  <si>
-    <t>点击新增→填写信息→点击确认</t>
-  </si>
-  <si>
-    <t>弹出新增框→显示所填写信息→提示“编码重复”</t>
-  </si>
-  <si>
-    <t>基础资料→基础管理→原物料入库价格表</t>
-  </si>
-  <si>
-    <t>后台判断出错，已经修改好</t>
-  </si>
-  <si>
-    <t>是否最后工序的选择栏被遮住</t>
-  </si>
-  <si>
-    <t>点击新增（编辑）→点击“是否最后工程”栏</t>
-  </si>
-  <si>
-    <t>弹出新增（编辑）框→弹出下拉框，部分信息被遮挡</t>
-  </si>
-  <si>
-    <t>基础资料→基础管理→工序</t>
-  </si>
-  <si>
-    <t>莫名弹出提示框</t>
-  </si>
-  <si>
-    <t>把数遍放置在工序管理列表的项上的“是否最后一道工序”</t>
-  </si>
-  <si>
-    <t>放置在“是”上出现1，放在“否”上出现空框</t>
-  </si>
-  <si>
-    <t>见图：</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增或编辑单点击添加物料→勾选物料据中添加物料</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>筛选成功→所选的库存单高亮显示→弹出查询框→清空查询条件→筛选成功，所有库存显示选中状态，高亮显示</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>见图：</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">提交的时候取错字段，现已更正，见图：
 </t>
-    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态库存查询功能</t>
+  </si>
+  <si>
+    <t>选择要查询的单据→点击查看详情</t>
+  </si>
+  <si>
+    <t>单据高亮显示→报错，提示“表单数据获取失败，请重新获取！”</t>
+  </si>
+  <si>
+    <t>单据管理→库存查询→动态库存查询</t>
   </si>
   <si>
     <t>数据库里表字段与代码中字段类型不一致，修改表字段类型为decimal后，功能正常</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>退供应商单编辑后单据会消失</t>
+  </si>
+  <si>
+    <t>选择退供应商单制作→点击编辑→填写要修改的信息→点击确认</t>
+  </si>
+  <si>
+    <t>退供应商单高亮显示→弹出编辑框→显示所修改的信息→退供应商单制作直接消失在列表</t>
+  </si>
+  <si>
+    <t>单据管理→单据制作→退供应商单制作</t>
+  </si>
+  <si>
+    <t>强制使用记录单据查询创建时间切换时间失败</t>
+  </si>
+  <si>
+    <t>点击创建时间框→选择时间→点击确认</t>
+  </si>
+  <si>
+    <t>弹出时间选择表→显示所选择的→没有根据时间筛选出强制使用记录单据</t>
+  </si>
+  <si>
+    <t>单据管理→单据查询→强制使用记录单据查询</t>
+  </si>
+  <si>
+    <t>新增不了原物料入库价格表</t>
+  </si>
+  <si>
+    <t>点击新增→填写信息→点击确认</t>
+  </si>
+  <si>
+    <t>弹出新增框→显示所填写信息→提示“编码重复”</t>
+  </si>
+  <si>
+    <t>基础资料→基础管理→原物料入库价格表</t>
+  </si>
+  <si>
+    <t>后台判断出错，已经修改好</t>
+  </si>
+  <si>
+    <t>是否最后工序的选择栏被遮住</t>
+  </si>
+  <si>
+    <t>点击新增（编辑）→点击“是否最后工程”栏</t>
+  </si>
+  <si>
+    <t>弹出新增（编辑）框→弹出下拉框，部分信息被遮挡</t>
+  </si>
+  <si>
+    <t>基础资料→基础管理→工序</t>
+  </si>
+  <si>
+    <t>将弹出框高度设置更高</t>
+  </si>
+  <si>
+    <t>莫名弹出提示框</t>
+  </si>
+  <si>
+    <t>把数遍放置在工序管理列表的项上的“是否最后一道工序”</t>
+  </si>
+  <si>
+    <t>放置在“是”上出现1，放在“否”上出现空框</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -532,10 +527,154 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -544,22 +683,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -574,12 +699,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79989013336588644"/>
+        <fgColor theme="8" tint="0.799890133365886"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -626,10 +931,249 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -646,205 +1190,91 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="33" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="33" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="33" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="20% - 着色 5" xfId="1" builtinId="46"/>
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="142">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -873,826 +1303,18 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
@@ -1714,7 +1336,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1752,7 +1374,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1790,14 +1412,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10310495" y="9386570"/>
+          <a:off x="10310495" y="10034270"/>
           <a:ext cx="676910" cy="631825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1822,7 +1444,7 @@
           <xdr:row>9</xdr:row>
           <xdr:rowOff>733425</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="">
+        <xdr:sp>
           <xdr:nvSpPr>
             <xdr:cNvPr id="1027" name="Object 3" hidden="1">
               <a:extLst>
@@ -1833,25 +1455,14 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
+              <a:off x="10270490" y="5984240"/>
+              <a:ext cx="1560195" cy="733425"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1874,7 +1485,7 @@
           <xdr:row>10</xdr:row>
           <xdr:rowOff>704850</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="">
+        <xdr:sp>
           <xdr:nvSpPr>
             <xdr:cNvPr id="1028" name="Object 4" hidden="1">
               <a:extLst>
@@ -1885,25 +1496,14 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
+              <a:off x="10680065" y="8108315"/>
+              <a:ext cx="838200" cy="533400"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1926,7 +1526,7 @@
           <xdr:row>12</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="">
+        <xdr:sp>
           <xdr:nvSpPr>
             <xdr:cNvPr id="1033" name="Object 9" hidden="1">
               <a:extLst>
@@ -1937,25 +1537,14 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
+              <a:off x="10794365" y="8756015"/>
+              <a:ext cx="838200" cy="533400"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1978,7 +1567,7 @@
           <xdr:row>12</xdr:row>
           <xdr:rowOff>666750</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="">
+        <xdr:sp>
           <xdr:nvSpPr>
             <xdr:cNvPr id="1035" name="Object 11" hidden="1">
               <a:extLst>
@@ -1989,25 +1578,14 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
+              <a:off x="10718165" y="9422765"/>
+              <a:ext cx="1112520" cy="533400"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2025,12 +1603,12 @@
           <xdr:rowOff>533400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>1685925</xdr:colOff>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>22</xdr:row>
           <xdr:rowOff>857250</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="">
+        <xdr:sp>
           <xdr:nvSpPr>
             <xdr:cNvPr id="1037" name="Object 13" hidden="1">
               <a:extLst>
@@ -2041,25 +1619,14 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
+              <a:off x="10899140" y="16825595"/>
+              <a:ext cx="931545" cy="323850"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2113,7 +1680,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2148,7 +1715,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2351,30 +1918,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="19.5" customWidth="1"/>
     <col min="3" max="3" width="23.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="34.625" customWidth="1"/>
+    <col min="4" max="4" width="34.6296296296296" customWidth="1"/>
     <col min="5" max="5" width="37.25" customWidth="1"/>
-    <col min="6" max="6" width="26.125" customWidth="1"/>
+    <col min="6" max="6" width="26.1296296296296" customWidth="1"/>
     <col min="7" max="7" width="22.75" customWidth="1"/>
-    <col min="8" max="8" width="14.375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.3796296296296" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1" ht="35.25" customHeight="1" spans="1:8">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2400,7 +1967,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="2" ht="28.8" spans="1:8">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -2426,7 +1993,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="3" ht="72" spans="1:8">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -2452,7 +2019,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+    <row r="4" ht="28.8" spans="1:8">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -2478,7 +2045,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="55.5" x14ac:dyDescent="0.25">
+    <row r="5" ht="57.6" spans="1:8">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -2504,7 +2071,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="81" x14ac:dyDescent="0.15">
+    <row r="6" ht="86.4" spans="1:8">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -2530,7 +2097,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -2556,7 +2123,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="75.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" ht="75.95" customHeight="1" spans="1:8">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -2582,7 +2149,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="9" ht="72" spans="1:8">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -2604,7 +2171,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="153.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" ht="153.75" customHeight="1" spans="1:8">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -2630,7 +2197,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" ht="63" customHeight="1" spans="1:8">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -2648,431 +2215,437 @@
         <v>12</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="H11" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" ht="43.5" customHeight="1" spans="1:8">
       <c r="A12" s="7">
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>119</v>
+        <v>58</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>59</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F12" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="19" t="s">
-        <v>118</v>
+      <c r="G12" s="15" t="s">
+        <v>57</v>
       </c>
       <c r="H12" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" ht="54.75" customHeight="1" spans="1:8">
       <c r="A13" s="7">
         <v>12</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
       <c r="F13" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="19" t="s">
-        <v>121</v>
+      <c r="G13" s="15" t="s">
+        <v>57</v>
       </c>
       <c r="H13" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="93" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" ht="93" customHeight="1" spans="1:8">
       <c r="A14" s="7">
         <v>13</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F14" s="13" t="s">
         <v>19</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H14" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" ht="57" customHeight="1" spans="1:8">
       <c r="A15" s="7">
         <v>14</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F15" s="13" t="s">
         <v>19</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H15" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" ht="65.25" customHeight="1" spans="1:8">
       <c r="A16" s="7">
         <v>15</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>120</v>
+        <v>73</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F16" s="13" t="s">
         <v>19</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H16" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" ht="36.75" customHeight="1" spans="1:8">
       <c r="A17" s="7">
         <v>16</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
       <c r="E17" s="11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F17" s="13" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H17" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" ht="40.5" customHeight="1" spans="1:8">
       <c r="A18" s="7">
         <v>17</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
       <c r="E18" s="11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F18" s="13" t="s">
         <v>19</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" ht="45.75" customHeight="1" spans="1:8">
       <c r="A19" s="7">
         <v>18</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="11" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F19" s="13" t="s">
         <v>19</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H19" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" ht="72" customHeight="1" spans="1:8">
       <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20" s="15" t="s">
-        <v>83</v>
+      <c r="B20" s="16" t="s">
+        <v>86</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
-      <c r="E20" s="15" t="s">
-        <v>84</v>
+      <c r="E20" s="16" t="s">
+        <v>87</v>
       </c>
       <c r="F20" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="15" t="s">
+      <c r="G20" s="16" t="s">
         <v>49</v>
       </c>
       <c r="H20" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="21" ht="43.2" spans="1:8">
       <c r="A21" s="7">
         <v>20</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>90</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>12</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H21" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="16">
+    <row r="22" ht="43.2" spans="1:8">
+      <c r="A22" s="17">
         <v>21</v>
       </c>
-      <c r="B22" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="D22" s="17"/>
-      <c r="E22" s="15" t="s">
-        <v>67</v>
+      <c r="B22" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="18"/>
+      <c r="E22" s="16" t="s">
+        <v>69</v>
       </c>
       <c r="F22" s="13" t="s">
         <v>19</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H22" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" ht="69" customHeight="1" spans="1:8">
       <c r="A23" s="7">
         <v>22</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
       <c r="E23" s="11" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F23" s="11" t="s">
         <v>12</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="H23" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="54" x14ac:dyDescent="0.15">
+    <row r="24" ht="57.6" spans="1:8">
       <c r="A24" s="7">
         <v>23</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F24" s="11" t="s">
         <v>12</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="H24" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="H24" s="19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="25" ht="43.2" spans="1:8">
       <c r="A25" s="7">
         <v>24</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
-      <c r="H25" s="18"/>
-    </row>
-    <row r="26" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="H25" s="19"/>
+    </row>
+    <row r="26" ht="43.2" spans="1:8">
       <c r="A26" s="7">
         <v>25</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
-      <c r="H26" s="18"/>
-    </row>
-    <row r="27" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="H26" s="19"/>
+    </row>
+    <row r="27" ht="28.8" spans="1:8">
       <c r="A27" s="7">
         <v>26</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="F27" s="11" t="s">
         <v>19</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="H27" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+    <row r="28" ht="28.8" spans="1:8">
       <c r="A28" s="7">
         <v>27</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="18"/>
-    </row>
-    <row r="29" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+        <v>119</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" ht="43.2" spans="1:8">
       <c r="A29" s="7">
         <v>28</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
-      <c r="H29" s="18"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H29" s="19"/>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="7">
         <v>29</v>
       </c>
@@ -3082,9 +2655,9 @@
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
-      <c r="H30" s="18"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H30" s="19"/>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="7">
         <v>30</v>
       </c>
@@ -3094,9 +2667,9 @@
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
-      <c r="H31" s="18"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H31" s="19"/>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="7">
         <v>31</v>
       </c>
@@ -3106,9 +2679,9 @@
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
-      <c r="H32" s="18"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H32" s="19"/>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="7">
         <v>32</v>
       </c>
@@ -3118,66 +2691,89 @@
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
-      <c r="H33" s="18"/>
+      <c r="H33" s="19"/>
     </row>
   </sheetData>
-  <autoFilter ref="H1:H22"/>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <autoFilter ref="H1:H24">
+    <extLst/>
+  </autoFilter>
   <conditionalFormatting sqref="H20">
-    <cfRule type="cellIs" dxfId="45" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="23" operator="equal">
       <formula>"已解决"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="22" operator="equal">
       <formula>"未处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="21" operator="equal">
       <formula>"处理中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="20" operator="equal">
       <formula>$H$6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="41" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="19" operator="equal">
       <formula>"已解决"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="18" operator="equal">
       <formula>"未处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="17" operator="equal">
       <formula>"处理中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="16" operator="equal">
       <formula>$H$6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="37" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="15" operator="equal">
       <formula>"已解决"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="14" operator="equal">
       <formula>"未处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="13" operator="equal">
       <formula>"处理中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="12" operator="equal">
       <formula>$H$6</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H23">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>$H$6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+      <formula>"处理中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
+      <formula>"未处理"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="33" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="11" operator="equal">
       <formula>"已解决"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="10" operator="equal">
       <formula>"未处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="9" operator="equal">
+      <formula>"处理中"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H28">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>"已解决"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"未处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"处理中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A33">
-    <cfRule type="colorScale" priority="27">
+    <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3188,55 +2784,45 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H$1:H$1048576">
+    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
+      <formula>"已解决"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H20:H29">
-    <cfRule type="cellIs" dxfId="30" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="32" operator="equal">
       <formula>"已解决"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H19 H34:H1048576">
-    <cfRule type="cellIs" dxfId="29" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="28" operator="equal">
       <formula>$H$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="29" operator="equal">
       <formula>"处理中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="31" operator="equal">
       <formula>"未处理"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="26" priority="1" operator="equal">
-      <formula>$H$6</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="2" operator="equal">
-      <formula>"处理中"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="3" operator="equal">
-      <formula>"未处理"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" dxfId="23" priority="4" operator="equal">
-      <formula>"已解决"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F14 F15 F16 F17 F18 F19 F20 F21 F22 F1:F13 F23:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F14 F15 F16 F17 F18 F19 F20 F21 F22 F28 F1:F13 F23:F27 F29:F1048576">
       <formula1>$F$5:$F$6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H16 H17 H20 H21 H22 H27 H1:H15 H18:H19 H23:H26 H28:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H16 H17 H20 H21 H22 H27 H28 H1:H15 H18:H19 H23:H26 H29:H1048576">
       <formula1>"处理中,未处理,已解决,无需处理"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="包装程序外壳对象" shapeId="1027" r:id="rId4">
-          <objectPr defaultSize="0" altText="" r:id="rId5">
+        <oleObject shapeId="1027" progId="包装程序外壳对象" r:id="rId3">
+          <objectPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
@@ -3255,13 +2841,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="包装程序外壳对象" shapeId="1027" r:id="rId4"/>
+        <oleObject shapeId="1027" progId="包装程序外壳对象" r:id="rId3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="包装程序外壳对象" shapeId="1028" r:id="rId6">
-          <objectPr defaultSize="0" r:id="rId7">
+        <oleObject shapeId="1028" progId="包装程序外壳对象" r:id="rId5">
+          <objectPr defaultSize="0" r:id="rId6">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
@@ -3280,13 +2866,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="包装程序外壳对象" shapeId="1028" r:id="rId6"/>
+        <oleObject shapeId="1028" progId="包装程序外壳对象" r:id="rId5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="包装程序外壳对象" shapeId="1033" r:id="rId8">
-          <objectPr defaultSize="0" r:id="rId9">
+        <oleObject shapeId="1033" progId="包装程序外壳对象" r:id="rId7">
+          <objectPr defaultSize="0" r:id="rId8">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
@@ -3305,13 +2891,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="包装程序外壳对象" shapeId="1033" r:id="rId8"/>
+        <oleObject shapeId="1033" progId="包装程序外壳对象" r:id="rId7"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="包装程序外壳对象" shapeId="1035" r:id="rId10">
-          <objectPr defaultSize="0" r:id="rId11">
+        <oleObject shapeId="1035" progId="包装程序外壳对象" r:id="rId9">
+          <objectPr defaultSize="0" r:id="rId10">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
@@ -3330,13 +2916,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="包装程序外壳对象" shapeId="1035" r:id="rId10"/>
+        <oleObject shapeId="1035" progId="包装程序外壳对象" r:id="rId9"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="包装程序外壳对象" shapeId="1037" r:id="rId12">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId13">
+        <oleObject shapeId="1037" progId="包装程序外壳对象" r:id="rId11">
+          <objectPr defaultSize="0" r:id="rId12">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
@@ -3345,8 +2931,8 @@
                 <xdr:rowOff>533400</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>1685925</xdr:colOff>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>22</xdr:row>
                 <xdr:rowOff>857250</xdr:rowOff>
               </to>
@@ -3355,7 +2941,7 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="包装程序外壳对象" shapeId="1037" r:id="rId12"/>
+        <oleObject shapeId="1037" progId="包装程序外壳对象" r:id="rId11"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>

--- a/Source/bug处理记录/MES系统bug解决记录.xlsx
+++ b/Source/bug处理记录/MES系统bug解决记录.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="125">
   <si>
     <t>序号</t>
   </si>
@@ -487,18 +487,21 @@
   <si>
     <t>放置在“是”上出现1，放在“否”上出现空框</t>
   </si>
+  <si>
+    <t>将鼠标放在表格中只是为了方便用户去查看数据，放置在是上出现1是因为数据库中的本身数据就为1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -521,9 +524,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -536,89 +539,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -639,11 +559,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -671,6 +629,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -705,175 +701,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -941,41 +937,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -995,13 +963,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1029,6 +1001,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1038,7 +1034,7 @@
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1050,134 +1046,134 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -1208,9 +1204,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1481,9 +1474,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>1247775</xdr:colOff>
+          <xdr:colOff>1242060</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>704850</xdr:rowOff>
+          <xdr:rowOff>681990</xdr:rowOff>
         </xdr:to>
         <xdr:sp>
           <xdr:nvSpPr>
@@ -1499,7 +1492,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="10680065" y="8108315"/>
-              <a:ext cx="838200" cy="533400"/>
+              <a:ext cx="832485" cy="510540"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1603,10 +1596,10 @@
           <xdr:rowOff>533400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>1551305</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>857250</xdr:rowOff>
+          <xdr:rowOff>843280</xdr:rowOff>
         </xdr:to>
         <xdr:sp>
           <xdr:nvSpPr>
@@ -1622,7 +1615,48 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="10899140" y="16825595"/>
-              <a:ext cx="931545" cy="323850"/>
+              <a:ext cx="922655" cy="309880"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>109855</xdr:colOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>83820</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>727710</xdr:colOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>405130</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1038" name="Object 14" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1038"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10380345" y="19812635"/>
+              <a:ext cx="617855" cy="321310"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1926,8 +1960,8 @@
   <sheetPr/>
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -2228,7 +2262,7 @@
       <c r="B12" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="11" t="s">
         <v>59</v>
       </c>
       <c r="D12" s="11" t="s">
@@ -2240,7 +2274,7 @@
       <c r="F12" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="11" t="s">
         <v>57</v>
       </c>
       <c r="H12" s="12" t="s">
@@ -2262,7 +2296,7 @@
       <c r="F13" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="11" t="s">
         <v>57</v>
       </c>
       <c r="H13" s="12" t="s">
@@ -2417,18 +2451,18 @@
       <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="15" t="s">
         <v>86</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="15" t="s">
         <v>87</v>
       </c>
       <c r="F20" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="16" t="s">
+      <c r="G20" s="15" t="s">
         <v>49</v>
       </c>
       <c r="H20" s="12" t="s">
@@ -2445,7 +2479,7 @@
       <c r="C21" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="15" t="s">
         <v>90</v>
       </c>
       <c r="E21" s="11" t="s">
@@ -2462,17 +2496,17 @@
       </c>
     </row>
     <row r="22" ht="43.2" spans="1:8">
-      <c r="A22" s="17">
+      <c r="A22" s="16">
         <v>21</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="D22" s="18"/>
-      <c r="E22" s="16" t="s">
+      <c r="D22" s="17"/>
+      <c r="E22" s="15" t="s">
         <v>69</v>
       </c>
       <c r="F22" s="13" t="s">
@@ -2529,7 +2563,7 @@
       <c r="G24" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="H24" s="19" t="s">
+      <c r="H24" s="18" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2551,7 +2585,7 @@
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
-      <c r="H25" s="19"/>
+      <c r="H25" s="18"/>
     </row>
     <row r="26" ht="43.2" spans="1:8">
       <c r="A26" s="7">
@@ -2571,7 +2605,7 @@
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
-      <c r="H26" s="19"/>
+      <c r="H26" s="18"/>
     </row>
     <row r="27" ht="28.8" spans="1:8">
       <c r="A27" s="7">
@@ -2625,7 +2659,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" ht="43.2" spans="1:8">
+    <row r="29" ht="105" customHeight="1" spans="1:8">
       <c r="A29" s="7">
         <v>28</v>
       </c>
@@ -2641,9 +2675,15 @@
       <c r="E29" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="19"/>
+      <c r="F29" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="7">
@@ -2655,7 +2695,7 @@
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
-      <c r="H30" s="19"/>
+      <c r="H30" s="18"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="7">
@@ -2667,7 +2707,7 @@
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
-      <c r="H31" s="19"/>
+      <c r="H31" s="18"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="7">
@@ -2679,7 +2719,7 @@
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
-      <c r="H32" s="19"/>
+      <c r="H32" s="18"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="7">
@@ -2691,89 +2731,100 @@
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
-      <c r="H33" s="19"/>
+      <c r="H33" s="18"/>
     </row>
   </sheetData>
   <autoFilter ref="H1:H24">
     <extLst/>
   </autoFilter>
   <conditionalFormatting sqref="H20">
-    <cfRule type="cellIs" dxfId="0" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="26" operator="equal">
       <formula>"已解决"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="25" operator="equal">
       <formula>"未处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="24" operator="equal">
       <formula>"处理中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="23" operator="equal">
       <formula>$H$6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="0" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="22" operator="equal">
       <formula>"已解决"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="21" operator="equal">
       <formula>"未处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="20" operator="equal">
       <formula>"处理中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="19" operator="equal">
       <formula>$H$6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="0" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="18" operator="equal">
       <formula>"已解决"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="17" operator="equal">
       <formula>"未处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="16" operator="equal">
       <formula>"处理中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="15" operator="equal">
       <formula>$H$6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
       <formula>$H$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="8" operator="equal">
       <formula>"处理中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="9" operator="equal">
       <formula>"未处理"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="0" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="14" operator="equal">
       <formula>"已解决"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="13" operator="equal">
       <formula>"未处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="12" operator="equal">
       <formula>"处理中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
       <formula>"已解决"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
       <formula>"未处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"处理中"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H29">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>"未处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"处理中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>$H$6</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A2:A33">
-    <cfRule type="colorScale" priority="30">
+    <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2785,32 +2836,32 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H$1:H$1048576">
-    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="10" operator="equal">
       <formula>"已解决"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H20:H29">
-    <cfRule type="cellIs" dxfId="0" priority="32" operator="equal">
+  <conditionalFormatting sqref="H20:H28">
+    <cfRule type="cellIs" dxfId="0" priority="35" operator="equal">
       <formula>"已解决"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H19 H34:H1048576">
-    <cfRule type="cellIs" dxfId="3" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="31" operator="equal">
       <formula>$H$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="32" operator="equal">
       <formula>"处理中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="34" operator="equal">
       <formula>"未处理"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F14 F15 F16 F17 F18 F19 F20 F21 F22 F28 F1:F13 F23:F27 F29:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H16 H17 H20 H21 H22 H27 H28 H29 H1:H15 H18:H19 H23:H26 H30:H1048576">
+      <formula1>"处理中,未处理,已解决,无需处理"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F14 F15 F16 F17 F18 F19 F20 F21 F22 F28 F29 F1:F13 F23:F27 F30:F1048576">
       <formula1>$F$5:$F$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H16 H17 H20 H21 H22 H27 H28 H1:H15 H18:H19 H23:H26 H29:H1048576">
-      <formula1>"处理中,未处理,已解决,无需处理"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2846,7 +2897,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="1028" progId="包装程序外壳对象" r:id="rId5">
+        <oleObject shapeId="1028" progId="Package" r:id="rId5">
           <objectPr defaultSize="0" r:id="rId6">
             <anchor moveWithCells="1">
               <from>
@@ -2857,16 +2908,16 @@
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>1247775</xdr:colOff>
+                <xdr:colOff>1242060</xdr:colOff>
                 <xdr:row>10</xdr:row>
-                <xdr:rowOff>704850</xdr:rowOff>
+                <xdr:rowOff>681990</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="1028" progId="包装程序外壳对象" r:id="rId5"/>
+        <oleObject shapeId="1028" progId="Package" r:id="rId5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -2921,7 +2972,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="1037" progId="包装程序外壳对象" r:id="rId11">
+        <oleObject shapeId="1037" progId="Package" r:id="rId11">
           <objectPr defaultSize="0" r:id="rId12">
             <anchor moveWithCells="1">
               <from>
@@ -2931,17 +2982,42 @@
                 <xdr:rowOff>533400</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>1551305</xdr:colOff>
                 <xdr:row>22</xdr:row>
-                <xdr:rowOff>857250</xdr:rowOff>
+                <xdr:rowOff>843280</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="1037" progId="包装程序外壳对象" r:id="rId11"/>
+        <oleObject shapeId="1037" progId="Package" r:id="rId11"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject shapeId="1038" progId="Paint.Picture" r:id="rId13">
+          <objectPr defaultSize="0" r:id="rId14">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>109855</xdr:colOff>
+                <xdr:row>28</xdr:row>
+                <xdr:rowOff>83820</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>727710</xdr:colOff>
+                <xdr:row>28</xdr:row>
+                <xdr:rowOff>405130</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject shapeId="1038" progId="Paint.Picture" r:id="rId13"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>

--- a/Source/bug处理记录/MES系统bug解决记录.xlsx
+++ b/Source/bug处理记录/MES系统bug解决记录.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="125">
   <si>
     <t>序号</t>
   </si>
@@ -497,9 +497,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -537,8 +537,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -559,49 +621,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -623,45 +654,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -701,181 +701,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -930,15 +930,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -948,17 +939,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -978,11 +963,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1025,16 +1016,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1046,130 +1046,130 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1629,7 +1629,7 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
+      <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>109855</xdr:colOff>
@@ -1960,8 +1960,8 @@
   <sheetPr/>
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -2603,9 +2603,15 @@
       <c r="E26" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="18"/>
+      <c r="F26" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="27" ht="28.8" spans="1:8">
       <c r="A27" s="7">
@@ -2659,7 +2665,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" ht="105" customHeight="1" spans="1:8">
+    <row r="29" ht="104" customHeight="1" spans="1:8">
       <c r="A29" s="7">
         <v>28</v>
       </c>
@@ -2738,93 +2744,104 @@
     <extLst/>
   </autoFilter>
   <conditionalFormatting sqref="H20">
-    <cfRule type="cellIs" dxfId="0" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="29" operator="equal">
       <formula>"已解决"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="28" operator="equal">
       <formula>"未处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="27" operator="equal">
       <formula>"处理中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="26" operator="equal">
       <formula>$H$6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="0" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="25" operator="equal">
       <formula>"已解决"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="24" operator="equal">
       <formula>"未处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="23" operator="equal">
       <formula>"处理中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="22" operator="equal">
       <formula>$H$6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="0" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="21" operator="equal">
       <formula>"已解决"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="20" operator="equal">
       <formula>"未处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="19" operator="equal">
       <formula>"处理中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="18" operator="equal">
       <formula>$H$6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="10" operator="equal">
       <formula>$H$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="11" operator="equal">
       <formula>"处理中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="12" operator="equal">
       <formula>"未处理"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H26">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>"未处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"处理中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>$H$6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="0" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="17" operator="equal">
       <formula>"已解决"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="16" operator="equal">
       <formula>"未处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="15" operator="equal">
       <formula>"处理中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="9" operator="equal">
       <formula>"已解决"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="8" operator="equal">
       <formula>"未处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
       <formula>"处理中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
       <formula>"未处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>"处理中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>$H$6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A33">
-    <cfRule type="colorScale" priority="33">
+    <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2836,32 +2853,32 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H$1:H$1048576">
-    <cfRule type="cellIs" dxfId="0" priority="10" operator="equal">
-      <formula>"已解决"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H20:H28">
-    <cfRule type="cellIs" dxfId="0" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="13" operator="equal">
       <formula>"已解决"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H19 H34:H1048576">
-    <cfRule type="cellIs" dxfId="3" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="34" operator="equal">
       <formula>$H$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="35" operator="equal">
       <formula>"处理中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="37" operator="equal">
       <formula>"未处理"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20:H25 H27:H28">
+    <cfRule type="cellIs" dxfId="0" priority="38" operator="equal">
+      <formula>"已解决"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H16 H17 H20 H21 H22 H27 H28 H29 H1:H15 H18:H19 H23:H26 H30:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F14 F15 F16 F17 F18 F19 F20 F21 F22 F26 F27 F28 F29 F1:F13 F23:F25 F30:F1048576">
+      <formula1>$F$5:$F$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H16 H17 H20 H21 H22 H26 H27 H28 H29 H1:H15 H18:H19 H23:H25 H30:H1048576">
       <formula1>"处理中,未处理,已解决,无需处理"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F14 F15 F16 F17 F18 F19 F20 F21 F22 F28 F29 F1:F13 F23:F27 F30:F1048576">
-      <formula1>$F$5:$F$6</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2999,7 +3016,7 @@
       <mc:Choice Requires="x14">
         <oleObject shapeId="1038" progId="Paint.Picture" r:id="rId13">
           <objectPr defaultSize="0" r:id="rId14">
-            <anchor moveWithCells="1">
+            <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
                 <xdr:colOff>109855</xdr:colOff>

--- a/Source/bug处理记录/MES系统bug解决记录.xlsx
+++ b/Source/bug处理记录/MES系统bug解决记录.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BJ_MES\bug处理记录\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="18468" windowHeight="9420"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18465" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="126">
   <si>
     <t>序号</t>
   </si>
@@ -63,7 +68,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>12</t>
     </r>
@@ -143,7 +148,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>**</t>
     </r>
@@ -177,7 +182,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>**</t>
     </r>
@@ -196,7 +201,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>**</t>
     </r>
@@ -489,19 +494,17 @@
   </si>
   <si>
     <t>将鼠标放在表格中只是为了方便用户去查看数据，放置在是上出现1是因为数据库中的本身数据就为1</t>
+  </si>
+  <si>
+    <t>修改代码里对应实体字段b_status的类型为枚举类型后，功能正常</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -524,153 +527,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -679,8 +545,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -695,192 +567,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799890133365886"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.79985961485641044"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -927,249 +619,10 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1186,88 +639,41 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="33" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="33" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="33" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
+    <cellStyle name="20% - 着色 5" xfId="1" builtinId="46"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="32">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1293,6 +699,202 @@
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1302,12 +904,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
@@ -1329,7 +934,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1367,7 +972,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1405,7 +1010,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1437,7 +1042,7 @@
           <xdr:row>9</xdr:row>
           <xdr:rowOff>733425</xdr:rowOff>
         </xdr:to>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1027" name="Object 3" hidden="1">
               <a:extLst>
@@ -1448,14 +1053,25 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="10270490" y="5984240"/>
-              <a:ext cx="1560195" cy="733425"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1474,11 +1090,11 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>1242060</xdr:colOff>
+          <xdr:colOff>1238250</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>681990</xdr:rowOff>
+          <xdr:rowOff>685800</xdr:rowOff>
         </xdr:to>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1028" name="Object 4" hidden="1">
               <a:extLst>
@@ -1489,14 +1105,25 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="10680065" y="8108315"/>
-              <a:ext cx="832485" cy="510540"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1519,7 +1146,7 @@
           <xdr:row>12</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1033" name="Object 9" hidden="1">
               <a:extLst>
@@ -1530,14 +1157,25 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="10794365" y="8756015"/>
-              <a:ext cx="838200" cy="533400"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1560,7 +1198,7 @@
           <xdr:row>12</xdr:row>
           <xdr:rowOff>666750</xdr:rowOff>
         </xdr:to>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1035" name="Object 11" hidden="1">
               <a:extLst>
@@ -1571,14 +1209,25 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="10718165" y="9422765"/>
-              <a:ext cx="1112520" cy="533400"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1597,11 +1246,11 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>1551305</xdr:colOff>
+          <xdr:colOff>1552575</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>843280</xdr:rowOff>
+          <xdr:rowOff>847725</xdr:rowOff>
         </xdr:to>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1037" name="Object 13" hidden="1">
               <a:extLst>
@@ -1612,14 +1261,25 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="10899140" y="16825595"/>
-              <a:ext cx="922655" cy="309880"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1632,17 +1292,17 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>109855</xdr:colOff>
+          <xdr:colOff>114300</xdr:colOff>
           <xdr:row>28</xdr:row>
-          <xdr:rowOff>83820</xdr:rowOff>
+          <xdr:rowOff>85725</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>727710</xdr:colOff>
+          <xdr:colOff>723900</xdr:colOff>
           <xdr:row>28</xdr:row>
-          <xdr:rowOff>405130</xdr:rowOff>
+          <xdr:rowOff>409575</xdr:rowOff>
         </xdr:to>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1038" name="Object 14" hidden="1">
               <a:extLst>
@@ -1653,14 +1313,25 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="10380345" y="19812635"/>
-              <a:ext cx="617855" cy="321310"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1952,30 +1623,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="19.5" customWidth="1"/>
     <col min="3" max="3" width="23.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="34.6296296296296" customWidth="1"/>
+    <col min="4" max="4" width="34.625" customWidth="1"/>
     <col min="5" max="5" width="37.25" customWidth="1"/>
-    <col min="6" max="6" width="26.1296296296296" customWidth="1"/>
+    <col min="6" max="6" width="26.125" customWidth="1"/>
     <col min="7" max="7" width="22.75" customWidth="1"/>
-    <col min="8" max="8" width="14.3796296296296" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="35.25" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2001,7 +1672,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="28.8" spans="1:8">
+    <row r="2" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -2027,7 +1698,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" ht="72" spans="1:8">
+    <row r="3" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -2053,7 +1724,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" ht="28.8" spans="1:8">
+    <row r="4" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -2079,7 +1750,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" ht="57.6" spans="1:8">
+    <row r="5" spans="1:8" ht="55.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -2105,7 +1776,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" ht="86.4" spans="1:8">
+    <row r="6" spans="1:8" ht="81" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -2131,7 +1802,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -2157,7 +1828,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" ht="75.95" customHeight="1" spans="1:8">
+    <row r="8" spans="1:8" ht="75.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -2183,7 +1854,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" ht="72" spans="1:8">
+    <row r="9" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -2205,7 +1876,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" ht="153.75" customHeight="1" spans="1:8">
+    <row r="10" spans="1:8" ht="153.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -2231,7 +1902,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" ht="63" customHeight="1" spans="1:8">
+    <row r="11" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -2255,7 +1926,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" ht="43.5" customHeight="1" spans="1:8">
+    <row r="12" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -2281,7 +1952,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" ht="54.75" customHeight="1" spans="1:8">
+    <row r="13" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -2303,7 +1974,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" ht="93" customHeight="1" spans="1:8">
+    <row r="14" spans="1:8" ht="93" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -2327,7 +1998,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" ht="57" customHeight="1" spans="1:8">
+    <row r="15" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -2353,7 +2024,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" ht="65.25" customHeight="1" spans="1:8">
+    <row r="16" spans="1:8" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -2379,7 +2050,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" ht="36.75" customHeight="1" spans="1:8">
+    <row r="17" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -2401,7 +2072,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" ht="40.5" customHeight="1" spans="1:8">
+    <row r="18" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -2423,7 +2094,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19" ht="45.75" customHeight="1" spans="1:8">
+    <row r="19" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -2447,7 +2118,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" ht="72" customHeight="1" spans="1:8">
+    <row r="20" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -2469,7 +2140,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" ht="43.2" spans="1:8">
+    <row r="21" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A21" s="7">
         <v>20</v>
       </c>
@@ -2495,7 +2166,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" ht="43.2" spans="1:8">
+    <row r="22" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A22" s="16">
         <v>21</v>
       </c>
@@ -2519,7 +2190,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" ht="69" customHeight="1" spans="1:8">
+    <row r="23" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -2541,7 +2212,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" ht="57.6" spans="1:8">
+    <row r="24" spans="1:8" ht="54" x14ac:dyDescent="0.15">
       <c r="A24" s="7">
         <v>23</v>
       </c>
@@ -2567,7 +2238,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" ht="43.2" spans="1:8">
+    <row r="25" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A25" s="7">
         <v>24</v>
       </c>
@@ -2584,10 +2255,14 @@
         <v>106</v>
       </c>
       <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="18"/>
-    </row>
-    <row r="26" ht="43.2" spans="1:8">
+      <c r="G25" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="H25" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A26" s="7">
         <v>25</v>
       </c>
@@ -2613,7 +2288,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" ht="28.8" spans="1:8">
+    <row r="27" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A27" s="7">
         <v>26</v>
       </c>
@@ -2639,7 +2314,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" ht="28.8" spans="1:8">
+    <row r="28" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A28" s="7">
         <v>27</v>
       </c>
@@ -2665,7 +2340,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" ht="104" customHeight="1" spans="1:8">
+    <row r="29" spans="1:8" ht="104.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="7">
         <v>28</v>
       </c>
@@ -2691,7 +2366,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="7">
         <v>29</v>
       </c>
@@ -2703,7 +2378,7 @@
       <c r="G30" s="11"/>
       <c r="H30" s="18"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="7">
         <v>30</v>
       </c>
@@ -2715,7 +2390,7 @@
       <c r="G31" s="11"/>
       <c r="H31" s="18"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="7">
         <v>31</v>
       </c>
@@ -2727,7 +2402,7 @@
       <c r="G32" s="11"/>
       <c r="H32" s="18"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" s="7">
         <v>32</v>
       </c>
@@ -2740,103 +2415,102 @@
       <c r="H33" s="18"/>
     </row>
   </sheetData>
-  <autoFilter ref="H1:H24">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="H1:H24"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="H20">
-    <cfRule type="cellIs" dxfId="0" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="29" operator="equal">
       <formula>"已解决"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="28" operator="equal">
       <formula>"未处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="27" operator="equal">
       <formula>"处理中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="26" operator="equal">
       <formula>$H$6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="0" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
       <formula>"已解决"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="24" operator="equal">
       <formula>"未处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="23" operator="equal">
       <formula>"处理中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="22" operator="equal">
       <formula>$H$6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="0" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
       <formula>"已解决"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="20" operator="equal">
       <formula>"未处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="19" operator="equal">
       <formula>"处理中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="18" operator="equal">
       <formula>$H$6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="3" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="10" operator="equal">
       <formula>$H$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="11" operator="equal">
       <formula>"处理中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="12" operator="equal">
       <formula>"未处理"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
       <formula>"未处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
       <formula>"处理中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
       <formula>$H$6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="0" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="17" operator="equal">
       <formula>"已解决"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
       <formula>"未处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="15" operator="equal">
       <formula>"处理中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="cellIs" dxfId="0" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
       <formula>"已解决"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
       <formula>"未处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>"处理中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
       <formula>"未处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
       <formula>"处理中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>$H$6</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2852,8 +2526,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H$1:H$1048576">
-    <cfRule type="cellIs" dxfId="0" priority="13" operator="equal">
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="cellIs" dxfId="4" priority="13" operator="equal">
       <formula>"已解决"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2882,15 +2556,14 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="1027" progId="包装程序外壳对象" r:id="rId3">
-          <objectPr defaultSize="0" r:id="rId4">
+        <oleObject progId="包装程序外壳对象" shapeId="1027" r:id="rId4">
+          <objectPr defaultSize="0" altText="" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
@@ -2909,13 +2582,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="1027" progId="包装程序外壳对象" r:id="rId3"/>
+        <oleObject progId="包装程序外壳对象" shapeId="1027" r:id="rId4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="1028" progId="Package" r:id="rId5">
-          <objectPr defaultSize="0" r:id="rId6">
+        <oleObject progId="Package" shapeId="1028" r:id="rId6">
+          <objectPr defaultSize="0" altText="" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
@@ -2925,22 +2598,22 @@
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>1242060</xdr:colOff>
+                <xdr:colOff>1238250</xdr:colOff>
                 <xdr:row>10</xdr:row>
-                <xdr:rowOff>681990</xdr:rowOff>
+                <xdr:rowOff>685800</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="1028" progId="Package" r:id="rId5"/>
+        <oleObject progId="Package" shapeId="1028" r:id="rId6"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="1033" progId="包装程序外壳对象" r:id="rId7">
-          <objectPr defaultSize="0" r:id="rId8">
+        <oleObject progId="包装程序外壳对象" shapeId="1033" r:id="rId8">
+          <objectPr defaultSize="0" altText="" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
@@ -2959,13 +2632,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="1033" progId="包装程序外壳对象" r:id="rId7"/>
+        <oleObject progId="包装程序外壳对象" shapeId="1033" r:id="rId8"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="1035" progId="包装程序外壳对象" r:id="rId9">
-          <objectPr defaultSize="0" r:id="rId10">
+        <oleObject progId="包装程序外壳对象" shapeId="1035" r:id="rId10">
+          <objectPr defaultSize="0" altText="" r:id="rId11">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
@@ -2984,13 +2657,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="1035" progId="包装程序外壳对象" r:id="rId9"/>
+        <oleObject progId="包装程序外壳对象" shapeId="1035" r:id="rId10"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="1037" progId="Package" r:id="rId11">
-          <objectPr defaultSize="0" r:id="rId12">
+        <oleObject progId="Package" shapeId="1037" r:id="rId12">
+          <objectPr defaultSize="0" altText="" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
@@ -3000,41 +2673,41 @@
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>1551305</xdr:colOff>
+                <xdr:colOff>1552575</xdr:colOff>
                 <xdr:row>22</xdr:row>
-                <xdr:rowOff>843280</xdr:rowOff>
+                <xdr:rowOff>847725</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="1037" progId="Package" r:id="rId11"/>
+        <oleObject progId="Package" shapeId="1037" r:id="rId12"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="1038" progId="Paint.Picture" r:id="rId13">
-          <objectPr defaultSize="0" r:id="rId14">
+        <oleObject progId="Paint.Picture" shapeId="1038" r:id="rId14">
+          <objectPr defaultSize="0" altText="" r:id="rId15">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>109855</xdr:colOff>
+                <xdr:colOff>114300</xdr:colOff>
                 <xdr:row>28</xdr:row>
-                <xdr:rowOff>83820</xdr:rowOff>
+                <xdr:rowOff>85725</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>727710</xdr:colOff>
+                <xdr:colOff>723900</xdr:colOff>
                 <xdr:row>28</xdr:row>
-                <xdr:rowOff>405130</xdr:rowOff>
+                <xdr:rowOff>409575</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="1038" progId="Paint.Picture" r:id="rId13"/>
+        <oleObject progId="Paint.Picture" shapeId="1038" r:id="rId14"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>

--- a/Source/bug处理记录/MES系统bug解决记录.xlsx
+++ b/Source/bug处理记录/MES系统bug解决记录.xlsx
@@ -712,6 +712,20 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -719,6 +733,20 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
@@ -726,6 +754,13 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -747,6 +782,41 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -754,6 +824,13 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
@@ -761,6 +838,20 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -768,6 +859,20 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -775,126 +880,21 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1385,7 +1385,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1420,7 +1420,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1629,10 +1629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2366,97 +2366,49 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="7">
-        <v>29</v>
-      </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="18"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="7">
-        <v>30</v>
-      </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="18"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="7">
-        <v>31</v>
-      </c>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="18"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="7">
-        <v>32</v>
-      </c>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="18"/>
-    </row>
   </sheetData>
   <autoFilter ref="H1:H24"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="H20">
-    <cfRule type="cellIs" dxfId="31" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="26" operator="equal">
+      <formula>$H$6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="27" operator="equal">
+      <formula>"处理中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
+      <formula>"未处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
       <formula>"已解决"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="28" operator="equal">
-      <formula>"未处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="27" operator="equal">
-      <formula>"处理中"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="26" operator="equal">
-      <formula>$H$6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="22" operator="equal">
+      <formula>$H$6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="23" operator="equal">
+      <formula>"处理中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="24" operator="equal">
+      <formula>"未处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
       <formula>"已解决"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="24" operator="equal">
-      <formula>"未处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="23" operator="equal">
-      <formula>"处理中"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="22" operator="equal">
-      <formula>$H$6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="18" operator="equal">
+      <formula>$H$6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="19" operator="equal">
+      <formula>"处理中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="20" operator="equal">
+      <formula>"未处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
       <formula>"已解决"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="20" operator="equal">
-      <formula>"未处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="19" operator="equal">
-      <formula>"处理中"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="18" operator="equal">
-      <formula>$H$6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
@@ -2471,51 +2423,72 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
-      <formula>"未处理"</formula>
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
+      <formula>$H$6</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
       <formula>"处理中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
-      <formula>$H$6</formula>
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
+      <formula>"未处理"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="13" priority="17" operator="equal">
-      <formula>"已解决"</formula>
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
+      <formula>"处理中"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
       <formula>"未处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="15" operator="equal">
-      <formula>"处理中"</formula>
+    <cfRule type="cellIs" dxfId="11" priority="17" operator="equal">
+      <formula>"已解决"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
-      <formula>"已解决"</formula>
+    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
+      <formula>"处理中"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
       <formula>"未处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
-      <formula>"处理中"</formula>
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+      <formula>"已解决"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
-      <formula>"未处理"</formula>
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+      <formula>$H$6</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
       <formula>"处理中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>"未处理"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="cellIs" dxfId="4" priority="13" operator="equal">
+      <formula>"已解决"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:H19 H30:H1048576">
+    <cfRule type="cellIs" dxfId="3" priority="34" operator="equal">
       <formula>$H$6</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="35" operator="equal">
+      <formula>"处理中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="37" operator="equal">
+      <formula>"未处理"</formula>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A33">
-    <cfRule type="colorScale" priority="36">
+  <conditionalFormatting sqref="H20:H25 H27:H28">
+    <cfRule type="cellIs" dxfId="0" priority="38" operator="equal">
+      <formula>"已解决"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A29">
+    <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2526,32 +2499,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" dxfId="4" priority="13" operator="equal">
-      <formula>"已解决"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H19 H34:H1048576">
-    <cfRule type="cellIs" dxfId="3" priority="34" operator="equal">
-      <formula>$H$6</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="35" operator="equal">
-      <formula>"处理中"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="37" operator="equal">
-      <formula>"未处理"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H20:H25 H27:H28">
-    <cfRule type="cellIs" dxfId="0" priority="38" operator="equal">
-      <formula>"已解决"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F14 F15 F16 F17 F18 F19 F20 F21 F22 F26 F27 F28 F29 F1:F13 F23:F25 F30:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576">
       <formula1>$F$5:$F$6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H16 H17 H20 H21 H22 H26 H27 H28 H29 H1:H15 H18:H19 H23:H25 H30:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576">
       <formula1>"处理中,未处理,已解决,无需处理"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Source/bug处理记录/MES系统bug解决记录.xlsx
+++ b/Source/bug处理记录/MES系统bug解决记录.xlsx
@@ -1084,15 +1084,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>409575</xdr:colOff>
+          <xdr:colOff>406213</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>171450</xdr:rowOff>
+          <xdr:rowOff>183216</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>1238250</xdr:colOff>
+          <xdr:colOff>1244413</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>685800</xdr:rowOff>
+          <xdr:rowOff>716616</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1632,7 +1632,8 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2550,9 +2551,9 @@
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>1238250</xdr:colOff>
+                <xdr:colOff>1247775</xdr:colOff>
                 <xdr:row>10</xdr:row>
-                <xdr:rowOff>685800</xdr:rowOff>
+                <xdr:rowOff>704850</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>

--- a/Source/bug处理记录/MES系统bug解决记录.xlsx
+++ b/Source/bug处理记录/MES系统bug解决记录.xlsx
@@ -1,28 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BJ_MES\bug处理记录\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18465" windowHeight="9420"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$H$1:$H$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$H$1:$H$29</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="158">
   <si>
     <t>序号</t>
   </si>
@@ -46,6 +41,12 @@
   </si>
   <si>
     <t>处理状态</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>二次处理</t>
   </si>
   <si>
     <t xml:space="preserve"> 公司地址省份出错</t>
@@ -57,7 +58,7 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -66,16 +67,16 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>12</t>
     </r>
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -146,19 +147,18 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>**</t>
     </r>
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>（选自己）→点击确认</t>
     </r>
@@ -180,28 +180,27 @@
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>**</t>
     </r>
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>管理→编辑→上级</t>
     </r>
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>**</t>
     </r>
@@ -230,6 +229,9 @@
     <t>无需处理</t>
   </si>
   <si>
+    <t>去掉“∨”</t>
+  </si>
+  <si>
     <t>账户列表部门为空</t>
   </si>
   <si>
@@ -267,6 +269,9 @@
   </si>
   <si>
     <t>那个不是搜索按钮，只是一个搜索框提示，用户在搜索框内键入内容后直接“Enter”则可以进行搜索，无需处理</t>
+  </si>
+  <si>
+    <t>下拉框搜索的时候，去掉搜索图标或者点击有反应</t>
   </si>
   <si>
     <t>ERP生产计划无法获取</t>
@@ -306,9 +311,15 @@
     <t>1. 单据制作→**单制作→新增（编辑）→添加物料</t>
   </si>
   <si>
+    <t>物料添加完，不要确认按钮</t>
+  </si>
+  <si>
     <t>已开的项无法用选项栏进行切换</t>
   </si>
   <si>
+    <t>菜单要有联动功能</t>
+  </si>
+  <si>
     <t>单据制作中的新增或编辑中的搜索按钮与清空按钮吃重合和搜索按钮使用不了</t>
   </si>
   <si>
@@ -318,6 +329,9 @@
     <t>这是个提示框，并没有清空的按钮</t>
   </si>
   <si>
+    <t>有些字会重叠，电脑分辨率问题</t>
+  </si>
+  <si>
     <t>查看领料单详情不应该能打开领料仓库</t>
   </si>
   <si>
@@ -364,6 +378,9 @@
   </si>
   <si>
     <t>未处理</t>
+  </si>
+  <si>
+    <t>上面一行位置不统一</t>
   </si>
   <si>
     <t>单据查询中查看单据详情应该怎么能查看详情不应该可以选择</t>
@@ -442,6 +459,9 @@
     <t>单据管理→单据制作→退供应商单制作</t>
   </si>
   <si>
+    <t>修改代码里对应实体字段b_status的类型为枚举类型后，功能正常</t>
+  </si>
+  <si>
     <t>强制使用记录单据查询创建时间切换时间失败</t>
   </si>
   <si>
@@ -469,6 +489,9 @@
     <t>后台判断出错，已经修改好</t>
   </si>
   <si>
+    <t>编码重复，提示详细一点：物料编码，及物流名称显示出来</t>
+  </si>
+  <si>
     <t>是否最后工序的选择栏被遮住</t>
   </si>
   <si>
@@ -496,15 +519,87 @@
     <t>将鼠标放在表格中只是为了方便用户去查看数据，放置在是上出现1是因为数据库中的本身数据就为1</t>
   </si>
   <si>
-    <t>修改代码里对应实体字段b_status的类型为枚举类型后，功能正常</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <t>原物料入库-&gt;选择供应商</t>
+  </si>
+  <si>
+    <t>同一张入库单，需要支持多个供应商</t>
+  </si>
+  <si>
+    <t>单据制作→入库单制作→新增（编辑）→选择供应商</t>
+  </si>
+  <si>
+    <t>领料单制作-&gt;选择2个批次</t>
+  </si>
+  <si>
+    <t>会提示物料不存在</t>
+  </si>
+  <si>
+    <t>单据制作→领料单制作→新增（编辑）→选择物料</t>
+  </si>
+  <si>
+    <t>领料单制作</t>
+  </si>
+  <si>
+    <t>批次移到前面一点</t>
+  </si>
+  <si>
+    <t>单据查询</t>
+  </si>
+  <si>
+    <t>操作按钮不要</t>
+  </si>
+  <si>
+    <t>所有的单据查询</t>
+  </si>
+  <si>
+    <t>基础数据-&gt;工序添加</t>
+  </si>
+  <si>
+    <t>是否是最后一道工序去掉</t>
+  </si>
+  <si>
+    <t>基础数据-&gt;工序</t>
+  </si>
+  <si>
+    <t>入库单制作-一个单的同一个物料可以有多批次</t>
+  </si>
+  <si>
+    <t>物料列表-新增物料-填写包装规格的弹出框去除</t>
+  </si>
+  <si>
+    <t xml:space="preserve">领料单蔬菜库全部都默认领完 </t>
+  </si>
+  <si>
+    <t>领料的同一个物料不同的批次联动有问题</t>
+  </si>
+  <si>
+    <t xml:space="preserve">物料转换表,转换率 后面加(%) </t>
+  </si>
+  <si>
+    <t>包装数量取整取模</t>
+  </si>
+  <si>
+    <t>需要进一步讨论</t>
+  </si>
+  <si>
+    <t>领料单打印闪屏</t>
+  </si>
+  <si>
+    <t>没有出现这个问题，个
+人感觉是连接了大屏幕-.-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -520,44 +615,192 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="18"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10.5"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.5"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79985961485641"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -567,12 +810,186 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79985961485641044"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -619,257 +1036,354 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="33" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="33" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="33" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="20% - 着色 5" xfId="1" builtinId="46"/>
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="32">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -904,15 +1418,12 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
@@ -934,7 +1445,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -972,7 +1483,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1010,14 +1521,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10310495" y="10034270"/>
+          <a:off x="10310495" y="10217150"/>
           <a:ext cx="676910" cy="631825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1042,7 +1553,7 @@
           <xdr:row>9</xdr:row>
           <xdr:rowOff>733425</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="">
+        <xdr:sp>
           <xdr:nvSpPr>
             <xdr:cNvPr id="1027" name="Object 3" hidden="1">
               <a:extLst>
@@ -1053,25 +1564,14 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
+              <a:off x="10270490" y="6167120"/>
+              <a:ext cx="1560195" cy="733425"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1094,7 +1594,7 @@
           <xdr:row>10</xdr:row>
           <xdr:rowOff>716616</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="">
+        <xdr:sp>
           <xdr:nvSpPr>
             <xdr:cNvPr id="1028" name="Object 4" hidden="1">
               <a:extLst>
@@ -1105,25 +1605,14 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
+              <a:off x="10676255" y="8302625"/>
+              <a:ext cx="838200" cy="533400"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1146,7 +1635,7 @@
           <xdr:row>12</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="">
+        <xdr:sp>
           <xdr:nvSpPr>
             <xdr:cNvPr id="1033" name="Object 9" hidden="1">
               <a:extLst>
@@ -1157,25 +1646,14 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
+              <a:off x="10794365" y="8938895"/>
+              <a:ext cx="838200" cy="533400"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1198,7 +1676,7 @@
           <xdr:row>12</xdr:row>
           <xdr:rowOff>666750</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="">
+        <xdr:sp>
           <xdr:nvSpPr>
             <xdr:cNvPr id="1035" name="Object 11" hidden="1">
               <a:extLst>
@@ -1209,25 +1687,14 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
+              <a:off x="10718165" y="9605645"/>
+              <a:ext cx="1112520" cy="533400"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1250,7 +1717,7 @@
           <xdr:row>22</xdr:row>
           <xdr:rowOff>847725</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="">
+        <xdr:sp>
           <xdr:nvSpPr>
             <xdr:cNvPr id="1037" name="Object 13" hidden="1">
               <a:extLst>
@@ -1261,25 +1728,14 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
+              <a:off x="10899140" y="17008475"/>
+              <a:ext cx="923925" cy="314325"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1302,7 +1758,7 @@
           <xdr:row>28</xdr:row>
           <xdr:rowOff>409575</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="">
+        <xdr:sp>
           <xdr:nvSpPr>
             <xdr:cNvPr id="1038" name="Object 14" hidden="1">
               <a:extLst>
@@ -1313,25 +1769,398 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
+              <a:off x="10384790" y="20911820"/>
+              <a:ext cx="609600" cy="323850"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10299065" y="2853690"/>
+          <a:ext cx="628650" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>847725</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>533400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 3" descr="3%L4MC_%1R39RX)FHV64%IA"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10327640" y="4133850"/>
+          <a:ext cx="790575" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>685800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 4" descr="1587967166(1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10308590" y="10215245"/>
+          <a:ext cx="676275" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>586740</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1039" name="Object 15" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1039"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10270490" y="6167120"/>
+              <a:ext cx="1560195" cy="586740"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>327660</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>136525</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>990600</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>548005</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1040" name="Object 16" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1040"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10598150" y="8256270"/>
+              <a:ext cx="662940" cy="411480"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>419100</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>15240</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>1085215</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>528320</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1041" name="Object 17" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1041"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10689590" y="8935085"/>
+              <a:ext cx="666115" cy="513080"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>358140</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>106680</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>1257300</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>533400</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1042" name="Object 18" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1042"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10628630" y="9578975"/>
+              <a:ext cx="899160" cy="426720"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>502920</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>426720</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>1242060</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>678180</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1043" name="Object 19" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1043"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10773410" y="16901795"/>
+              <a:ext cx="739140" cy="251460"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>91440</xdr:colOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>67945</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>578485</xdr:colOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>327660</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1044" name="Object 20" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1044"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10361930" y="20894040"/>
+              <a:ext cx="487045" cy="259715"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1385,7 +2214,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1420,7 +2249,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1623,31 +2452,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="19.5" customWidth="1"/>
     <col min="3" max="3" width="23.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="34.625" customWidth="1"/>
+    <col min="4" max="4" width="34.6296296296296" customWidth="1"/>
     <col min="5" max="5" width="37.25" customWidth="1"/>
-    <col min="6" max="6" width="26.125" customWidth="1"/>
+    <col min="6" max="6" width="26.1296296296296" customWidth="1"/>
     <col min="7" max="7" width="22.75" customWidth="1"/>
-    <col min="8" max="8" width="14.375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.3796296296296" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1" ht="35.25" customHeight="1" spans="1:10">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1672,824 +2502,935 @@
       <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="I1" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" ht="28.8" spans="1:9">
       <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+      <c r="I2" s="20"/>
+    </row>
+    <row r="3" ht="72" spans="1:9">
       <c r="A3" s="7">
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="I3" s="20"/>
+    </row>
+    <row r="4" ht="28.8" spans="1:9">
       <c r="A4" s="7">
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="55.5" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="I4" s="20"/>
+    </row>
+    <row r="5" ht="57.6" spans="1:9">
       <c r="A5" s="7">
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="81" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+      <c r="I5" s="20"/>
+    </row>
+    <row r="6" ht="86.4" spans="1:9">
       <c r="A6" s="7">
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="7">
         <v>6</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="75.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+      <c r="I7" s="20"/>
+    </row>
+    <row r="8" ht="75.95" customHeight="1" spans="1:9">
       <c r="A8" s="7">
         <v>7</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+      <c r="I8" s="20"/>
+    </row>
+    <row r="9" ht="86.4" spans="1:9">
       <c r="A9" s="7">
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="11" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="153.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" ht="153.75" customHeight="1" spans="1:9">
       <c r="A10" s="7">
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+      <c r="I10" s="20"/>
+    </row>
+    <row r="11" ht="63" customHeight="1" spans="1:9">
       <c r="A11" s="7">
         <v>10</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+      <c r="I11" s="20"/>
+    </row>
+    <row r="12" ht="43.5" customHeight="1" spans="1:9">
       <c r="A12" s="7">
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E12" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="F12" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>57</v>
-      </c>
       <c r="H12" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" ht="54.75" customHeight="1" spans="1:9">
       <c r="A13" s="7">
         <v>12</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
       <c r="F13" s="13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="93" customHeight="1" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+      <c r="I13" s="20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" ht="93" customHeight="1" spans="1:9">
       <c r="A14" s="7">
         <v>13</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="11" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+      <c r="I14" s="20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" ht="57" customHeight="1" spans="1:9">
       <c r="A15" s="7">
         <v>14</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+      <c r="I15" s="20"/>
+    </row>
+    <row r="16" ht="65.25" customHeight="1" spans="1:9">
       <c r="A16" s="7">
         <v>15</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+      <c r="I16" s="20"/>
+    </row>
+    <row r="17" ht="36.75" customHeight="1" spans="1:9">
       <c r="A17" s="7">
         <v>16</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
       <c r="E17" s="11" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+      <c r="I17" s="20"/>
+    </row>
+    <row r="18" ht="40.5" customHeight="1" spans="1:9">
       <c r="A18" s="7">
         <v>17</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
       <c r="E18" s="11" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>88</v>
+      </c>
+      <c r="I18" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" ht="45.75" customHeight="1" spans="1:9">
       <c r="A19" s="7">
         <v>18</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="11" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+      <c r="I19" s="20"/>
+    </row>
+    <row r="20" ht="72" customHeight="1" spans="1:9">
       <c r="A20" s="7">
         <v>19</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
       <c r="E20" s="15" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+      <c r="I20" s="20"/>
+    </row>
+    <row r="21" ht="43.2" spans="1:9">
       <c r="A21" s="7">
         <v>20</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+      <c r="I21" s="20"/>
+    </row>
+    <row r="22" ht="43.2" spans="1:9">
       <c r="A22" s="16">
         <v>21</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="D22" s="17"/>
       <c r="E22" s="15" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+      <c r="I22" s="20"/>
+    </row>
+    <row r="23" ht="69" customHeight="1" spans="1:9">
       <c r="A23" s="7">
         <v>22</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
       <c r="E23" s="11" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="54" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+      <c r="I23" s="20"/>
+    </row>
+    <row r="24" ht="57.6" spans="1:9">
       <c r="A24" s="7">
         <v>23</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="H24" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+      <c r="I24" s="20"/>
+    </row>
+    <row r="25" ht="43.2" spans="1:9">
       <c r="A25" s="7">
         <v>24</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="11" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="H25" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+      <c r="I25" s="20"/>
+    </row>
+    <row r="26" ht="43.2" spans="1:9">
       <c r="A26" s="7">
         <v>25</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+      <c r="I26" s="20"/>
+    </row>
+    <row r="27" ht="100.8" spans="1:9">
       <c r="A27" s="7">
         <v>26</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+      <c r="I27" s="20" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="28" ht="28.8" spans="1:9">
       <c r="A28" s="7">
         <v>27</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="104.1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+      <c r="I28" s="20"/>
+    </row>
+    <row r="29" ht="104.1" customHeight="1" spans="1:9">
       <c r="A29" s="7">
         <v>28</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="D29" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="E29" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="E29" s="11" t="s">
-        <v>114</v>
-      </c>
       <c r="F29" s="11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="H29" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I29" s="20"/>
+    </row>
+    <row r="30" ht="28.8" spans="1:9">
+      <c r="A30" s="7">
+        <v>29</v>
+      </c>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" s="20"/>
+    </row>
+    <row r="31" ht="28.8" spans="1:9">
+      <c r="A31" s="7">
+        <v>30</v>
+      </c>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="I31" s="20"/>
+    </row>
+    <row r="32" ht="28.8" spans="1:9">
+      <c r="A32" s="7">
+        <v>31</v>
+      </c>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" s="20"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="7">
+        <v>32</v>
+      </c>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="I33" s="20"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="7">
+        <v>33</v>
+      </c>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I34" s="20"/>
+    </row>
+    <row r="35" ht="28.8" spans="1:9">
+      <c r="A35" s="7">
+        <v>34</v>
+      </c>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I35" s="20"/>
+    </row>
+    <row r="36" ht="28.8" spans="1:9">
+      <c r="A36" s="7">
+        <v>35</v>
+      </c>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="I36" s="20"/>
+    </row>
+    <row r="37" ht="28.8" spans="1:9">
+      <c r="A37" s="7">
         <v>36</v>
       </c>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I37" s="20"/>
+    </row>
+    <row r="38" ht="28.8" spans="1:9">
+      <c r="A38" s="7">
+        <v>37</v>
+      </c>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I38" s="20"/>
+    </row>
+    <row r="39" ht="28.8" spans="1:9">
+      <c r="A39" s="7">
+        <v>38</v>
+      </c>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I39" s="20"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="7">
+        <v>39</v>
+      </c>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G40" t="s">
+        <v>155</v>
+      </c>
+      <c r="I40" s="20"/>
+    </row>
+    <row r="41" ht="43.2" spans="1:9">
+      <c r="A41" s="7">
+        <v>40</v>
+      </c>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="G41" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I41" s="20"/>
     </row>
   </sheetData>
-  <autoFilter ref="H1:H24"/>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <conditionalFormatting sqref="H20">
-    <cfRule type="cellIs" dxfId="31" priority="26" operator="equal">
-      <formula>$H$6</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="27" operator="equal">
-      <formula>"处理中"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
-      <formula>"未处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
-      <formula>"已解决"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="27" priority="22" operator="equal">
-      <formula>$H$6</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="23" operator="equal">
-      <formula>"处理中"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="24" operator="equal">
-      <formula>"未处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
-      <formula>"已解决"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="23" priority="18" operator="equal">
-      <formula>$H$6</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="19" operator="equal">
-      <formula>"处理中"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="20" operator="equal">
-      <formula>"未处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
-      <formula>"已解决"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="19" priority="10" operator="equal">
-      <formula>$H$6</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="11" operator="equal">
-      <formula>"处理中"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="12" operator="equal">
-      <formula>"未处理"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
-      <formula>$H$6</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
-      <formula>"处理中"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
-      <formula>"未处理"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
-      <formula>"处理中"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
-      <formula>"未处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="17" operator="equal">
-      <formula>"已解决"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H28">
-    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
-      <formula>"处理中"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
-      <formula>"未处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
-      <formula>"已解决"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
-      <formula>$H$6</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
-      <formula>"处理中"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
-      <formula>"未处理"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" dxfId="4" priority="13" operator="equal">
-      <formula>"已解决"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H19 H30:H1048576">
-    <cfRule type="cellIs" dxfId="3" priority="34" operator="equal">
-      <formula>$H$6</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="35" operator="equal">
-      <formula>"处理中"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="37" operator="equal">
-      <formula>"未处理"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H20:H25 H27:H28">
-    <cfRule type="cellIs" dxfId="0" priority="38" operator="equal">
-      <formula>"已解决"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A29">
-    <cfRule type="colorScale" priority="39">
+  <autoFilter ref="H1:H29">
+    <extLst/>
+  </autoFilter>
+  <conditionalFormatting sqref="A2:A41">
+    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2500,23 +3441,70 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H1:H41">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"已解决"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27:H28">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+      <formula>"已解决"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>"未处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"处理中"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H42:H1048576">
+    <cfRule type="cellIs" dxfId="0" priority="22" operator="equal">
+      <formula>"已解决"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H42:H1048576">
+    <cfRule type="cellIs" dxfId="3" priority="43" operator="equal">
+      <formula>$H$6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="44" operator="equal">
+      <formula>"处理中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="46" operator="equal">
+      <formula>"未处理"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H26 H29:H41 H1:H23">
+    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
+      <formula>"已解决"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
+      <formula>"未处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
+      <formula>"处理中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+      <formula>$H$6</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F41 F42:F1048576">
       <formula1>$F$5:$F$6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H41 H42:H1048576">
       <formula1>"处理中,未处理,已解决,无需处理"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="包装程序外壳对象" shapeId="1027" r:id="rId4">
-          <objectPr defaultSize="0" altText="" r:id="rId5">
+        <oleObject shapeId="1027" progId="包装程序外壳对象" r:id="rId3">
+          <objectPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
@@ -2535,38 +3523,38 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="包装程序外壳对象" shapeId="1027" r:id="rId4"/>
+        <oleObject shapeId="1027" progId="包装程序外壳对象" r:id="rId3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Package" shapeId="1028" r:id="rId6">
-          <objectPr defaultSize="0" altText="" r:id="rId7">
+        <oleObject shapeId="1028" progId="Package" r:id="rId5">
+          <objectPr defaultSize="0" r:id="rId6">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>409575</xdr:colOff>
+                <xdr:colOff>405765</xdr:colOff>
                 <xdr:row>10</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
+                <xdr:rowOff>182880</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>1247775</xdr:colOff>
+                <xdr:colOff>1243965</xdr:colOff>
                 <xdr:row>10</xdr:row>
-                <xdr:rowOff>704850</xdr:rowOff>
+                <xdr:rowOff>716280</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Package" shapeId="1028" r:id="rId6"/>
+        <oleObject shapeId="1028" progId="Package" r:id="rId5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="包装程序外壳对象" shapeId="1033" r:id="rId8">
-          <objectPr defaultSize="0" altText="" r:id="rId9">
+        <oleObject shapeId="1033" progId="包装程序外壳对象" r:id="rId7">
+          <objectPr defaultSize="0" r:id="rId8">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
@@ -2585,13 +3573,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="包装程序外壳对象" shapeId="1033" r:id="rId8"/>
+        <oleObject shapeId="1033" progId="包装程序外壳对象" r:id="rId7"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="包装程序外壳对象" shapeId="1035" r:id="rId10">
-          <objectPr defaultSize="0" altText="" r:id="rId11">
+        <oleObject shapeId="1035" progId="包装程序外壳对象" r:id="rId9">
+          <objectPr defaultSize="0" r:id="rId10">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
@@ -2610,13 +3598,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="包装程序外壳对象" shapeId="1035" r:id="rId10"/>
+        <oleObject shapeId="1035" progId="包装程序外壳对象" r:id="rId9"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Package" shapeId="1037" r:id="rId12">
-          <objectPr defaultSize="0" altText="" r:id="rId13">
+        <oleObject shapeId="1037" progId="Package" r:id="rId11">
+          <objectPr defaultSize="0" r:id="rId12">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
@@ -2635,13 +3623,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Package" shapeId="1037" r:id="rId12"/>
+        <oleObject shapeId="1037" progId="Package" r:id="rId11"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Paint.Picture" shapeId="1038" r:id="rId14">
-          <objectPr defaultSize="0" altText="" r:id="rId15">
+        <oleObject shapeId="1038" progId="Paint.Picture" r:id="rId13">
+          <objectPr defaultSize="0" r:id="rId14">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
@@ -2660,7 +3648,157 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Paint.Picture" shapeId="1038" r:id="rId14"/>
+        <oleObject shapeId="1038" progId="Paint.Picture" r:id="rId13"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject shapeId="1039" progId="包装程序外壳对象" r:id="rId15">
+          <objectPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>586740</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject shapeId="1039" progId="包装程序外壳对象" r:id="rId15"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject shapeId="1040" progId="Package" r:id="rId16">
+          <objectPr defaultSize="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>327660</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>136525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>990600</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>548005</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject shapeId="1040" progId="Package" r:id="rId16"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject shapeId="1041" progId="Package" r:id="rId18">
+          <objectPr defaultSize="0" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>419100</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>15240</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>1085215</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>528320</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject shapeId="1041" progId="Package" r:id="rId18"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject shapeId="1042" progId="包装程序外壳对象" r:id="rId20">
+          <objectPr defaultSize="0" r:id="rId21">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>358140</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>106680</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>1257300</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>533400</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject shapeId="1042" progId="包装程序外壳对象" r:id="rId20"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject shapeId="1043" progId="Package" r:id="rId22">
+          <objectPr defaultSize="0" r:id="rId12">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>502920</xdr:colOff>
+                <xdr:row>22</xdr:row>
+                <xdr:rowOff>426720</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>1242060</xdr:colOff>
+                <xdr:row>22</xdr:row>
+                <xdr:rowOff>678180</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject shapeId="1043" progId="Package" r:id="rId22"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject shapeId="1044" progId="Paint.Picture" r:id="rId23">
+          <objectPr defaultSize="0" r:id="rId24">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>91440</xdr:colOff>
+                <xdr:row>28</xdr:row>
+                <xdr:rowOff>67945</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>578485</xdr:colOff>
+                <xdr:row>28</xdr:row>
+                <xdr:rowOff>327660</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject shapeId="1044" progId="Paint.Picture" r:id="rId23"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>

--- a/Source/bug处理记录/MES系统bug解决记录.xlsx
+++ b/Source/bug处理记录/MES系统bug解决记录.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BJ_MES\bug处理记录\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="157">
   <si>
     <t>序号</t>
   </si>
@@ -69,7 +74,7 @@
         <sz val="10.5"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>12</t>
     </r>
@@ -149,7 +154,7 @@
         <sz val="10.5"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>**</t>
     </r>
@@ -182,7 +187,7 @@
         <sz val="10.5"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>**</t>
     </r>
@@ -200,7 +205,7 @@
         <sz val="10.5"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>**</t>
     </r>
@@ -229,9 +234,6 @@
     <t>无需处理</t>
   </si>
   <si>
-    <t>去掉“∨”</t>
-  </si>
-  <si>
     <t>账户列表部门为空</t>
   </si>
   <si>
@@ -374,12 +376,6 @@
     <t>单据制作→领料单制作→新增（编辑）→添加物料</t>
   </si>
   <si>
-    <t>有点看不懂再说什么</t>
-  </si>
-  <si>
-    <t>未处理</t>
-  </si>
-  <si>
     <t>上面一行位置不统一</t>
   </si>
   <si>
@@ -587,19 +583,22 @@
   <si>
     <t>没有出现这个问题，个
 人感觉是连接了大屏幕-.-</t>
+  </si>
+  <si>
+    <t>调整了位置</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>那个不是搜索按钮，只是一个搜索框提示，用户在搜索框内键入内容后直接“Enter”则可以进行搜索，无需处理
+添加了点击事件</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -634,144 +633,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -780,10 +642,24 @@
       <sz val="10.5"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -798,7 +674,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79985961485641"/>
+        <fgColor theme="8" tint="0.79982909634693444"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -808,188 +684,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1036,253 +732,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -1295,95 +752,72 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="33" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="33" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="33" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
+    <cellStyle name="20% - 着色 5" xfId="1" builtinId="46"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1412,18 +846,56 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
@@ -1445,7 +917,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1483,7 +955,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1521,7 +993,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1553,7 +1025,7 @@
           <xdr:row>9</xdr:row>
           <xdr:rowOff>733425</xdr:rowOff>
         </xdr:to>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1027" name="Object 3" hidden="1">
               <a:extLst>
@@ -1564,14 +1036,25 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="10270490" y="6167120"/>
-              <a:ext cx="1560195" cy="733425"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1584,17 +1067,17 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>406213</xdr:colOff>
+          <xdr:colOff>409575</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>183216</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>1244413</xdr:colOff>
+          <xdr:colOff>1247775</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>716616</xdr:rowOff>
+          <xdr:rowOff>714375</xdr:rowOff>
         </xdr:to>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1028" name="Object 4" hidden="1">
               <a:extLst>
@@ -1605,14 +1088,25 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="10676255" y="8302625"/>
-              <a:ext cx="838200" cy="533400"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1633,9 +1127,9 @@
           <xdr:col>6</xdr:col>
           <xdr:colOff>1362075</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>-1</xdr:rowOff>
         </xdr:to>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1033" name="Object 9" hidden="1">
               <a:extLst>
@@ -1646,14 +1140,25 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="10794365" y="8938895"/>
-              <a:ext cx="838200" cy="533400"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1676,7 +1181,7 @@
           <xdr:row>12</xdr:row>
           <xdr:rowOff>666750</xdr:rowOff>
         </xdr:to>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1035" name="Object 11" hidden="1">
               <a:extLst>
@@ -1687,14 +1192,25 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="10718165" y="9605645"/>
-              <a:ext cx="1112520" cy="533400"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1717,7 +1233,7 @@
           <xdr:row>22</xdr:row>
           <xdr:rowOff>847725</xdr:rowOff>
         </xdr:to>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1037" name="Object 13" hidden="1">
               <a:extLst>
@@ -1728,14 +1244,25 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="10899140" y="17008475"/>
-              <a:ext cx="923925" cy="314325"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1758,7 +1285,7 @@
           <xdr:row>28</xdr:row>
           <xdr:rowOff>409575</xdr:rowOff>
         </xdr:to>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1038" name="Object 14" hidden="1">
               <a:extLst>
@@ -1769,14 +1296,25 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="10384790" y="20911820"/>
-              <a:ext cx="609600" cy="323850"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1805,7 +1343,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -1851,7 +1389,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -1897,7 +1435,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId5" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -1935,9 +1473,9 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>586740</xdr:rowOff>
+          <xdr:rowOff>590550</xdr:rowOff>
         </xdr:to>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1039" name="Object 15" hidden="1">
               <a:extLst>
@@ -1948,14 +1486,25 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="10270490" y="6167120"/>
-              <a:ext cx="1560195" cy="586740"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1968,17 +1517,17 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>327660</xdr:colOff>
+          <xdr:colOff>323850</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>136525</xdr:rowOff>
+          <xdr:rowOff>133350</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>990600</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>548005</xdr:rowOff>
+          <xdr:rowOff>552450</xdr:rowOff>
         </xdr:to>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1040" name="Object 16" hidden="1">
               <a:extLst>
@@ -1989,14 +1538,25 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="10598150" y="8256270"/>
-              <a:ext cx="662940" cy="411480"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2011,15 +1571,15 @@
           <xdr:col>6</xdr:col>
           <xdr:colOff>419100</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>15240</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>1085215</xdr:colOff>
+          <xdr:colOff>1085850</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>528320</xdr:rowOff>
+          <xdr:rowOff>523875</xdr:rowOff>
         </xdr:to>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1041" name="Object 17" hidden="1">
               <a:extLst>
@@ -2030,14 +1590,25 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="10689590" y="8935085"/>
-              <a:ext cx="666115" cy="513080"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2050,9 +1621,9 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>358140</xdr:colOff>
+          <xdr:colOff>361950</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>106680</xdr:rowOff>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
@@ -2060,7 +1631,7 @@
           <xdr:row>12</xdr:row>
           <xdr:rowOff>533400</xdr:rowOff>
         </xdr:to>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1042" name="Object 18" hidden="1">
               <a:extLst>
@@ -2071,14 +1642,25 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="10628630" y="9578975"/>
-              <a:ext cx="899160" cy="426720"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2091,17 +1673,17 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>502920</xdr:colOff>
+          <xdr:colOff>504825</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>426720</xdr:rowOff>
+          <xdr:rowOff>428625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>1242060</xdr:colOff>
+          <xdr:colOff>1238250</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>678180</xdr:rowOff>
+          <xdr:rowOff>676275</xdr:rowOff>
         </xdr:to>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1043" name="Object 19" hidden="1">
               <a:extLst>
@@ -2112,14 +1694,25 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="10773410" y="16901795"/>
-              <a:ext cx="739140" cy="251460"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2132,17 +1725,17 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>91440</xdr:colOff>
+          <xdr:colOff>95250</xdr:colOff>
           <xdr:row>28</xdr:row>
-          <xdr:rowOff>67945</xdr:rowOff>
+          <xdr:rowOff>66675</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>578485</xdr:colOff>
+          <xdr:colOff>581025</xdr:colOff>
           <xdr:row>28</xdr:row>
-          <xdr:rowOff>327660</xdr:rowOff>
+          <xdr:rowOff>323850</xdr:rowOff>
         </xdr:to>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1044" name="Object 20" hidden="1">
               <a:extLst>
@@ -2153,14 +1746,25 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="10361930" y="20894040"/>
-              <a:ext cx="487045" cy="259715"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2452,32 +2056,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="19.5" customWidth="1"/>
     <col min="3" max="3" width="23.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="34.6296296296296" customWidth="1"/>
+    <col min="4" max="4" width="34.625" customWidth="1"/>
     <col min="5" max="5" width="37.25" customWidth="1"/>
-    <col min="6" max="6" width="26.1296296296296" customWidth="1"/>
+    <col min="6" max="6" width="26.125" customWidth="1"/>
     <col min="7" max="7" width="22.75" customWidth="1"/>
-    <col min="8" max="8" width="14.3796296296296" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="35.25" customHeight="1" spans="1:10">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2509,7 +2113,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" ht="28.8" spans="1:9">
+    <row r="2" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -2536,7 +2140,7 @@
       </c>
       <c r="I2" s="20"/>
     </row>
-    <row r="3" ht="72" spans="1:9">
+    <row r="3" spans="1:10" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -2563,7 +2167,7 @@
       </c>
       <c r="I3" s="20"/>
     </row>
-    <row r="4" ht="28.8" spans="1:9">
+    <row r="4" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -2590,7 +2194,7 @@
       </c>
       <c r="I4" s="20"/>
     </row>
-    <row r="5" ht="57.6" spans="1:9">
+    <row r="5" spans="1:10" ht="55.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -2617,7 +2221,7 @@
       </c>
       <c r="I5" s="20"/>
     </row>
-    <row r="6" ht="86.4" spans="1:9">
+    <row r="6" spans="1:10" ht="81" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -2640,181 +2244,179 @@
         <v>37</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="I6" s="20"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
         <v>6</v>
       </c>
       <c r="B7" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="D7" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="E7" s="13" t="s">
         <v>42</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>43</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>21</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H7" s="12" t="s">
         <v>16</v>
       </c>
       <c r="I7" s="20"/>
     </row>
-    <row r="8" ht="75.95" customHeight="1" spans="1:9">
+    <row r="8" spans="1:10" ht="75.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="7">
         <v>7</v>
       </c>
       <c r="B8" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="D8" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="E8" s="13" t="s">
         <v>47</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>48</v>
       </c>
       <c r="F8" s="13" t="s">
         <v>21</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H8" s="12" t="s">
         <v>16</v>
       </c>
       <c r="I8" s="20"/>
     </row>
-    <row r="9" ht="86.4" spans="1:9">
+    <row r="9" spans="1:10" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="H9" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" ht="153.75" customHeight="1" spans="1:9">
+    </row>
+    <row r="10" spans="1:10" ht="153.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="D10" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="E10" s="11" t="s">
         <v>56</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>57</v>
       </c>
       <c r="F10" s="13" t="s">
         <v>14</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H10" s="12" t="s">
         <v>38</v>
       </c>
       <c r="I10" s="20"/>
     </row>
-    <row r="11" ht="63" customHeight="1" spans="1:9">
+    <row r="11" spans="1:10" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
         <v>10</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F11" s="13" t="s">
         <v>14</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H11" s="12" t="s">
         <v>38</v>
       </c>
       <c r="I11" s="20"/>
     </row>
-    <row r="12" ht="43.5" customHeight="1" spans="1:9">
+    <row r="12" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7">
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="D12" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="E12" s="11" t="s">
         <v>64</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>65</v>
       </c>
       <c r="F12" s="13" t="s">
         <v>14</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I12" s="20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" ht="54.75" customHeight="1" spans="1:9">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
         <v>12</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
@@ -2822,603 +2424,603 @@
         <v>14</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I13" s="20" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" ht="93" customHeight="1" spans="1:9">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="93" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="7">
         <v>13</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F14" s="13" t="s">
         <v>21</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H14" s="12" t="s">
         <v>38</v>
       </c>
       <c r="I14" s="20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" ht="57" customHeight="1" spans="1:9">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="7">
         <v>14</v>
       </c>
       <c r="B15" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="D15" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="E15" s="11" t="s">
         <v>75</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>76</v>
       </c>
       <c r="F15" s="13" t="s">
         <v>21</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H15" s="12" t="s">
         <v>16</v>
       </c>
       <c r="I15" s="20"/>
     </row>
-    <row r="16" ht="65.25" customHeight="1" spans="1:9">
+    <row r="16" spans="1:10" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="7">
         <v>15</v>
       </c>
       <c r="B16" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="D16" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="E16" s="11" t="s">
         <v>80</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>81</v>
       </c>
       <c r="F16" s="13" t="s">
         <v>21</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H16" s="12" t="s">
         <v>16</v>
       </c>
       <c r="I16" s="20"/>
     </row>
-    <row r="17" ht="36.75" customHeight="1" spans="1:9">
+    <row r="17" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="7">
         <v>16</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
       <c r="E17" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F17" s="13" t="s">
         <v>21</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H17" s="12" t="s">
         <v>16</v>
       </c>
       <c r="I17" s="20"/>
     </row>
-    <row r="18" ht="40.5" customHeight="1" spans="1:9">
+    <row r="18" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="7">
         <v>17</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
       <c r="E18" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F18" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="13" t="s">
-        <v>87</v>
+      <c r="G18" s="22" t="s">
+        <v>155</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="I18" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" ht="45.75" customHeight="1" spans="1:9">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="7">
         <v>18</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F19" s="13" t="s">
         <v>21</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H19" s="12" t="s">
         <v>16</v>
       </c>
       <c r="I19" s="20"/>
     </row>
-    <row r="20" ht="72" customHeight="1" spans="1:9">
+    <row r="20" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="7">
         <v>19</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
       <c r="E20" s="15" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F20" s="11" t="s">
         <v>14</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H20" s="12" t="s">
         <v>16</v>
       </c>
       <c r="I20" s="20"/>
     </row>
-    <row r="21" ht="43.2" spans="1:9">
+    <row r="21" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A21" s="7">
         <v>20</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>14</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H21" s="12" t="s">
         <v>16</v>
       </c>
       <c r="I21" s="20"/>
     </row>
-    <row r="22" ht="43.2" spans="1:9">
+    <row r="22" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A22" s="16">
         <v>21</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D22" s="17"/>
       <c r="E22" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F22" s="13" t="s">
         <v>21</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H22" s="12" t="s">
         <v>16</v>
       </c>
       <c r="I22" s="20"/>
     </row>
-    <row r="23" ht="69" customHeight="1" spans="1:9">
+    <row r="23" spans="1:9" ht="69" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="7">
         <v>22</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
       <c r="E23" s="11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F23" s="11" t="s">
         <v>14</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H23" s="12" t="s">
         <v>16</v>
       </c>
       <c r="I23" s="20"/>
     </row>
-    <row r="24" ht="57.6" spans="1:9">
+    <row r="24" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A24" s="7">
         <v>23</v>
       </c>
       <c r="B24" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="E24" s="11" t="s">
         <v>106</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>109</v>
       </c>
       <c r="F24" s="11" t="s">
         <v>14</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H24" s="18" t="s">
         <v>16</v>
       </c>
       <c r="I24" s="20"/>
     </row>
-    <row r="25" ht="43.2" spans="1:9">
+    <row r="25" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A25" s="7">
         <v>24</v>
       </c>
       <c r="B25" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="E25" s="11" t="s">
         <v>111</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>114</v>
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="11" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H25" s="18" t="s">
         <v>16</v>
       </c>
       <c r="I25" s="20"/>
     </row>
-    <row r="26" ht="43.2" spans="1:9">
+    <row r="26" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A26" s="7">
         <v>25</v>
       </c>
       <c r="B26" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="E26" s="11" t="s">
         <v>116</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>119</v>
       </c>
       <c r="F26" s="11" t="s">
         <v>21</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H26" s="12" t="s">
         <v>38</v>
       </c>
       <c r="I26" s="20"/>
     </row>
-    <row r="27" ht="100.8" spans="1:9">
+    <row r="27" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A27" s="7">
         <v>26</v>
       </c>
       <c r="B27" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E27" s="11" t="s">
         <v>120</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>123</v>
       </c>
       <c r="F27" s="11" t="s">
         <v>21</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H27" s="12" t="s">
         <v>16</v>
       </c>
       <c r="I27" s="20" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="28" ht="28.8" spans="1:9">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A28" s="7">
         <v>27</v>
       </c>
       <c r="B28" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="E28" s="11" t="s">
         <v>126</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>129</v>
       </c>
       <c r="F28" s="11" t="s">
         <v>21</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H28" s="12" t="s">
         <v>16</v>
       </c>
       <c r="I28" s="20"/>
     </row>
-    <row r="29" ht="104.1" customHeight="1" spans="1:9">
+    <row r="29" spans="1:9" ht="104.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="7">
         <v>28</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F29" s="11" t="s">
         <v>21</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H29" s="12" t="s">
         <v>38</v>
       </c>
       <c r="I29" s="20"/>
     </row>
-    <row r="30" ht="28.8" spans="1:9">
+    <row r="30" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A30" s="7">
         <v>29</v>
       </c>
       <c r="B30" s="11"/>
       <c r="C30" s="11" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I30" s="20"/>
     </row>
-    <row r="31" ht="28.8" spans="1:9">
+    <row r="31" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A31" s="7">
         <v>30</v>
       </c>
       <c r="B31" s="11"/>
       <c r="C31" s="11" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I31" s="20"/>
     </row>
-    <row r="32" ht="28.8" spans="1:9">
+    <row r="32" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A32" s="7">
         <v>31</v>
       </c>
       <c r="B32" s="11"/>
       <c r="C32" s="11" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I32" s="20"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" s="7">
         <v>32</v>
       </c>
       <c r="B33" s="11"/>
       <c r="C33" s="11" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I33" s="20"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" s="7">
         <v>33</v>
       </c>
       <c r="B34" s="11"/>
       <c r="C34" s="11" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I34" s="20"/>
     </row>
-    <row r="35" ht="28.8" spans="1:9">
+    <row r="35" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A35" s="7">
         <v>34</v>
       </c>
       <c r="B35" s="11"/>
       <c r="C35" s="11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I35" s="20"/>
     </row>
-    <row r="36" ht="28.8" spans="1:9">
+    <row r="36" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A36" s="7">
         <v>35</v>
       </c>
       <c r="B36" s="11"/>
       <c r="C36" s="11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I36" s="20"/>
     </row>
-    <row r="37" ht="28.8" spans="1:9">
+    <row r="37" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A37" s="7">
         <v>36</v>
       </c>
       <c r="B37" s="11"/>
       <c r="C37" s="11" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I37" s="20"/>
     </row>
-    <row r="38" ht="28.8" spans="1:9">
+    <row r="38" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A38" s="7">
         <v>37</v>
       </c>
       <c r="B38" s="11"/>
       <c r="C38" s="11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I38" s="20"/>
     </row>
-    <row r="39" ht="28.8" spans="1:9">
+    <row r="39" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A39" s="7">
         <v>38</v>
       </c>
       <c r="B39" s="11"/>
       <c r="C39" s="11" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I39" s="20"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A40" s="7">
         <v>39</v>
       </c>
       <c r="B40" s="11"/>
       <c r="C40" s="11" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G40" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I40" s="20"/>
     </row>
-    <row r="41" ht="43.2" spans="1:9">
+    <row r="41" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A41" s="7">
         <v>40</v>
       </c>
       <c r="B41" s="11"/>
       <c r="C41" s="11" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G41" s="19" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>38</v>
@@ -3426,9 +3028,8 @@
       <c r="I41" s="20"/>
     </row>
   </sheetData>
-  <autoFilter ref="H1:H29">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="H1:H29"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="A2:A41">
     <cfRule type="colorScale" priority="9">
       <colorScale>
@@ -3442,48 +3043,48 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H41">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>"已解决"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27:H28">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
       <formula>"已解决"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>"未处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
       <formula>"处理中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42:H1048576">
-    <cfRule type="cellIs" dxfId="0" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="22" operator="equal">
       <formula>"已解决"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42:H1048576">
-    <cfRule type="cellIs" dxfId="3" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="43" operator="equal">
       <formula>$H$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="44" operator="equal">
       <formula>"处理中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="46" operator="equal">
       <formula>"未处理"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26 H29:H41 H1:H23">
-    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
       <formula>"已解决"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
       <formula>"未处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
       <formula>"处理中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
       <formula>$H$6</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3496,15 +3097,14 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="1027" progId="包装程序外壳对象" r:id="rId3">
-          <objectPr defaultSize="0" r:id="rId4">
+        <oleObject progId="包装程序外壳对象" shapeId="1027" r:id="rId4">
+          <objectPr defaultSize="0" altText="" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
@@ -3523,38 +3123,38 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="1027" progId="包装程序外壳对象" r:id="rId3"/>
+        <oleObject progId="包装程序外壳对象" shapeId="1027" r:id="rId4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="1028" progId="Package" r:id="rId5">
-          <objectPr defaultSize="0" r:id="rId6">
+        <oleObject progId="Package" shapeId="1028" r:id="rId6">
+          <objectPr defaultSize="0" altText="" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>405765</xdr:colOff>
+                <xdr:colOff>409575</xdr:colOff>
                 <xdr:row>10</xdr:row>
-                <xdr:rowOff>182880</xdr:rowOff>
+                <xdr:rowOff>180975</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>1243965</xdr:colOff>
+                <xdr:colOff>1247775</xdr:colOff>
                 <xdr:row>10</xdr:row>
-                <xdr:rowOff>716280</xdr:rowOff>
+                <xdr:rowOff>714375</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="1028" progId="Package" r:id="rId5"/>
+        <oleObject progId="Package" shapeId="1028" r:id="rId6"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="1033" progId="包装程序外壳对象" r:id="rId7">
-          <objectPr defaultSize="0" r:id="rId8">
+        <oleObject progId="包装程序外壳对象" shapeId="1033" r:id="rId8">
+          <objectPr defaultSize="0" altText="" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
@@ -3573,13 +3173,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="1033" progId="包装程序外壳对象" r:id="rId7"/>
+        <oleObject progId="包装程序外壳对象" shapeId="1033" r:id="rId8"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="1035" progId="包装程序外壳对象" r:id="rId9">
-          <objectPr defaultSize="0" r:id="rId10">
+        <oleObject progId="包装程序外壳对象" shapeId="1035" r:id="rId10">
+          <objectPr defaultSize="0" altText="" r:id="rId11">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
@@ -3598,13 +3198,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="1035" progId="包装程序外壳对象" r:id="rId9"/>
+        <oleObject progId="包装程序外壳对象" shapeId="1035" r:id="rId10"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="1037" progId="Package" r:id="rId11">
-          <objectPr defaultSize="0" r:id="rId12">
+        <oleObject progId="Package" shapeId="1037" r:id="rId12">
+          <objectPr defaultSize="0" altText="" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
@@ -3623,13 +3223,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="1037" progId="Package" r:id="rId11"/>
+        <oleObject progId="Package" shapeId="1037" r:id="rId12"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="1038" progId="Paint.Picture" r:id="rId13">
-          <objectPr defaultSize="0" r:id="rId14">
+        <oleObject progId="Paint.Picture" shapeId="1038" r:id="rId14">
+          <objectPr defaultSize="0" altText="" r:id="rId15">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
@@ -3648,13 +3248,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="1038" progId="Paint.Picture" r:id="rId13"/>
+        <oleObject progId="Paint.Picture" shapeId="1038" r:id="rId14"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="1039" progId="包装程序外壳对象" r:id="rId15">
-          <objectPr defaultSize="0" r:id="rId4">
+        <oleObject progId="包装程序外壳对象" shapeId="1039" r:id="rId16">
+          <objectPr defaultSize="0" altText="" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
@@ -3666,76 +3266,76 @@
                 <xdr:col>7</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>9</xdr:row>
-                <xdr:rowOff>586740</xdr:rowOff>
+                <xdr:rowOff>590550</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="1039" progId="包装程序外壳对象" r:id="rId15"/>
+        <oleObject progId="包装程序外壳对象" shapeId="1039" r:id="rId16"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="1040" progId="Package" r:id="rId16">
-          <objectPr defaultSize="0" r:id="rId17">
+        <oleObject progId="Package" shapeId="1040" r:id="rId17">
+          <objectPr defaultSize="0" altText="" r:id="rId18">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>327660</xdr:colOff>
+                <xdr:colOff>323850</xdr:colOff>
                 <xdr:row>10</xdr:row>
-                <xdr:rowOff>136525</xdr:rowOff>
+                <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
                 <xdr:colOff>990600</xdr:colOff>
                 <xdr:row>10</xdr:row>
-                <xdr:rowOff>548005</xdr:rowOff>
+                <xdr:rowOff>552450</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="1040" progId="Package" r:id="rId16"/>
+        <oleObject progId="Package" shapeId="1040" r:id="rId17"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="1041" progId="Package" r:id="rId18">
-          <objectPr defaultSize="0" r:id="rId19">
+        <oleObject progId="Package" shapeId="1041" r:id="rId19">
+          <objectPr defaultSize="0" altText="" r:id="rId20">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
                 <xdr:colOff>419100</xdr:colOff>
                 <xdr:row>11</xdr:row>
-                <xdr:rowOff>15240</xdr:rowOff>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>1085215</xdr:colOff>
+                <xdr:colOff>1085850</xdr:colOff>
                 <xdr:row>11</xdr:row>
-                <xdr:rowOff>528320</xdr:rowOff>
+                <xdr:rowOff>523875</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="1041" progId="Package" r:id="rId18"/>
+        <oleObject progId="Package" shapeId="1041" r:id="rId19"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="1042" progId="包装程序外壳对象" r:id="rId20">
-          <objectPr defaultSize="0" r:id="rId21">
+        <oleObject progId="包装程序外壳对象" shapeId="1042" r:id="rId21">
+          <objectPr defaultSize="0" altText="" r:id="rId22">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>358140</xdr:colOff>
+                <xdr:colOff>361950</xdr:colOff>
                 <xdr:row>12</xdr:row>
-                <xdr:rowOff>106680</xdr:rowOff>
+                <xdr:rowOff>104775</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
@@ -3748,57 +3348,57 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="1042" progId="包装程序外壳对象" r:id="rId20"/>
+        <oleObject progId="包装程序外壳对象" shapeId="1042" r:id="rId21"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="1043" progId="Package" r:id="rId22">
-          <objectPr defaultSize="0" r:id="rId12">
+        <oleObject progId="Package" shapeId="1043" r:id="rId23">
+          <objectPr defaultSize="0" altText="" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>502920</xdr:colOff>
+                <xdr:colOff>504825</xdr:colOff>
                 <xdr:row>22</xdr:row>
-                <xdr:rowOff>426720</xdr:rowOff>
+                <xdr:rowOff>428625</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>1242060</xdr:colOff>
+                <xdr:colOff>1238250</xdr:colOff>
                 <xdr:row>22</xdr:row>
-                <xdr:rowOff>678180</xdr:rowOff>
+                <xdr:rowOff>676275</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="1043" progId="Package" r:id="rId22"/>
+        <oleObject progId="Package" shapeId="1043" r:id="rId23"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="1044" progId="Paint.Picture" r:id="rId23">
-          <objectPr defaultSize="0" r:id="rId24">
+        <oleObject progId="Paint.Picture" shapeId="1044" r:id="rId24">
+          <objectPr defaultSize="0" altText="" r:id="rId25">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>91440</xdr:colOff>
+                <xdr:colOff>95250</xdr:colOff>
                 <xdr:row>28</xdr:row>
-                <xdr:rowOff>67945</xdr:rowOff>
+                <xdr:rowOff>66675</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>578485</xdr:colOff>
+                <xdr:colOff>581025</xdr:colOff>
                 <xdr:row>28</xdr:row>
-                <xdr:rowOff>327660</xdr:rowOff>
+                <xdr:rowOff>323850</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="1044" progId="Paint.Picture" r:id="rId23"/>
+        <oleObject progId="Paint.Picture" shapeId="1044" r:id="rId24"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>

--- a/Source/bug处理记录/MES系统bug解决记录.xlsx
+++ b/Source/bug处理记录/MES系统bug解决记录.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BJ_MES\bug处理记录\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$H$1:$H$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$H$1:$H$30</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -74,7 +69,7 @@
         <sz val="10.5"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>12</t>
     </r>
@@ -154,7 +149,7 @@
         <sz val="10.5"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>**</t>
     </r>
@@ -187,7 +182,7 @@
         <sz val="10.5"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>**</t>
     </r>
@@ -205,7 +200,7 @@
         <sz val="10.5"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>**</t>
     </r>
@@ -231,9 +226,6 @@
 图片里“∨”意思为上传成功，并没有确认功能，测试人员不理解图标的含义，无需处理</t>
   </si>
   <si>
-    <t>无需处理</t>
-  </si>
-  <si>
     <t>账户列表部门为空</t>
   </si>
   <si>
@@ -270,7 +262,8 @@
     <t>单位组织中的模块基本上拥有这个功能的都用不了</t>
   </si>
   <si>
-    <t>那个不是搜索按钮，只是一个搜索框提示，用户在搜索框内键入内容后直接“Enter”则可以进行搜索，无需处理</t>
+    <t>那个不是搜索按钮，只是一个搜索框提示，用户在搜索框内键入内容后直接“Enter”则可以进行搜索，无需处理
+添加了点击事件</t>
   </si>
   <si>
     <t>下拉框搜索的时候，去掉搜索图标或者点击有反应</t>
@@ -292,6 +285,9 @@
 </t>
   </si>
   <si>
+    <t>无需处理</t>
+  </si>
+  <si>
     <t>新增单据列表多了个项</t>
   </si>
   <si>
@@ -376,6 +372,9 @@
     <t>单据制作→领料单制作→新增（编辑）→添加物料</t>
   </si>
   <si>
+    <t>调整了位置</t>
+  </si>
+  <si>
     <t>上面一行位置不统一</t>
   </si>
   <si>
@@ -395,6 +394,9 @@
   </si>
   <si>
     <t>单据管理→库存查询</t>
+  </si>
+  <si>
+    <t>那个不是搜索按钮，只是一个搜索框提示，用户在搜索框内键入内容后直接“Enter”则可以进行搜索，无需处理</t>
   </si>
   <si>
     <t>查看领料单详情，弹出的应该是查看详情框，而不是编辑框</t>
@@ -583,22 +585,19 @@
   <si>
     <t>没有出现这个问题，个
 人感觉是连接了大屏幕-.-</t>
-  </si>
-  <si>
-    <t>调整了位置</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>那个不是搜索按钮，只是一个搜索框提示，用户在搜索框内键入内容后直接“Enter”则可以进行搜索，无需处理
-添加了点击事件</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -627,39 +626,169 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="10"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color indexed="8"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -674,7 +803,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79982909634693444"/>
+        <fgColor theme="8" tint="0.799829096346934"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -684,8 +813,188 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -732,10 +1041,249 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -752,72 +1300,98 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="33" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="33" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="33" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="20% - 着色 5" xfId="1" builtinId="46"/>
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -846,56 +1420,18 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
@@ -917,7 +1453,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -955,7 +1491,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -993,14 +1529,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10310495" y="10217150"/>
+          <a:off x="10310495" y="10400030"/>
           <a:ext cx="676910" cy="631825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1025,7 +1561,7 @@
           <xdr:row>9</xdr:row>
           <xdr:rowOff>733425</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="">
+        <xdr:sp>
           <xdr:nvSpPr>
             <xdr:cNvPr id="1027" name="Object 3" hidden="1">
               <a:extLst>
@@ -1036,25 +1572,14 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
+              <a:off x="10270490" y="6350000"/>
+              <a:ext cx="1560195" cy="733425"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1077,7 +1602,7 @@
           <xdr:row>10</xdr:row>
           <xdr:rowOff>714375</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="">
+        <xdr:sp>
           <xdr:nvSpPr>
             <xdr:cNvPr id="1028" name="Object 4" hidden="1">
               <a:extLst>
@@ -1088,25 +1613,14 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
+              <a:off x="10680065" y="8483600"/>
+              <a:ext cx="838200" cy="533400"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1126,10 +1640,10 @@
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>1362075</xdr:colOff>
-          <xdr:row>12</xdr:row>
-          <xdr:rowOff>-1</xdr:rowOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>552449</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="">
+        <xdr:sp>
           <xdr:nvSpPr>
             <xdr:cNvPr id="1033" name="Object 9" hidden="1">
               <a:extLst>
@@ -1140,25 +1654,14 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
+              <a:off x="10794365" y="9121775"/>
+              <a:ext cx="838200" cy="532765"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1177,11 +1680,11 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>1571625</xdr:colOff>
+          <xdr:colOff>1547495</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>666750</xdr:rowOff>
+          <xdr:rowOff>643890</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="">
+        <xdr:sp>
           <xdr:nvSpPr>
             <xdr:cNvPr id="1035" name="Object 11" hidden="1">
               <a:extLst>
@@ -1192,25 +1695,14 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
+              <a:off x="10718165" y="9788525"/>
+              <a:ext cx="1099820" cy="510540"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1233,7 +1725,7 @@
           <xdr:row>22</xdr:row>
           <xdr:rowOff>847725</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="">
+        <xdr:sp>
           <xdr:nvSpPr>
             <xdr:cNvPr id="1037" name="Object 13" hidden="1">
               <a:extLst>
@@ -1244,25 +1736,14 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
+              <a:off x="10899140" y="17191355"/>
+              <a:ext cx="923925" cy="314325"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1285,7 +1766,7 @@
           <xdr:row>28</xdr:row>
           <xdr:rowOff>409575</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="">
+        <xdr:sp>
           <xdr:nvSpPr>
             <xdr:cNvPr id="1038" name="Object 14" hidden="1">
               <a:extLst>
@@ -1296,25 +1777,14 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
+              <a:off x="10384790" y="21094700"/>
+              <a:ext cx="609600" cy="323850"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1343,7 +1813,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -1389,7 +1859,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:blip r:embed="rId4" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -1435,7 +1905,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:blip r:embed="rId5" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -1443,7 +1913,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10308590" y="10215245"/>
+          <a:off x="10308590" y="10398125"/>
           <a:ext cx="676275" cy="638175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1460,318 +1930,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>9</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>9</xdr:row>
-          <xdr:rowOff>590550</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1039" name="Object 15" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1039"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>323850</xdr:colOff>
-          <xdr:row>10</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>990600</xdr:colOff>
-          <xdr:row>10</xdr:row>
-          <xdr:rowOff>552450</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1040" name="Object 16" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1040"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>419100</xdr:colOff>
-          <xdr:row>11</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>1085850</xdr:colOff>
-          <xdr:row>11</xdr:row>
-          <xdr:rowOff>523875</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1041" name="Object 17" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1041"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>361950</xdr:colOff>
-          <xdr:row>12</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>1257300</xdr:colOff>
-          <xdr:row>12</xdr:row>
-          <xdr:rowOff>533400</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1042" name="Object 18" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1042"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>504825</xdr:colOff>
-          <xdr:row>22</xdr:row>
-          <xdr:rowOff>428625</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>1238250</xdr:colOff>
-          <xdr:row>22</xdr:row>
-          <xdr:rowOff>676275</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1043" name="Object 19" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1043"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>95250</xdr:colOff>
-          <xdr:row>28</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>581025</xdr:colOff>
-          <xdr:row>28</xdr:row>
-          <xdr:rowOff>323850</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1044" name="Object 20" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1044"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -2056,32 +2214,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="C36" sqref="C36:H36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="19.5" customWidth="1"/>
     <col min="3" max="3" width="23.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="34.625" customWidth="1"/>
+    <col min="4" max="4" width="34.6296296296296" customWidth="1"/>
     <col min="5" max="5" width="37.25" customWidth="1"/>
-    <col min="6" max="6" width="26.125" customWidth="1"/>
+    <col min="6" max="6" width="26.1296296296296" customWidth="1"/>
     <col min="7" max="7" width="22.75" customWidth="1"/>
-    <col min="8" max="8" width="14.375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.3796296296296" style="3" customWidth="1"/>
     <col min="10" max="10" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1" ht="35.25" customHeight="1" spans="1:10">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2106,14 +2265,14 @@
       <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="22" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="2" ht="28.8" spans="1:9">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -2138,9 +2297,9 @@
       <c r="H2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="20"/>
-    </row>
-    <row r="3" spans="1:10" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="I2" s="21"/>
+    </row>
+    <row r="3" ht="72" spans="1:9">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -2165,9 +2324,9 @@
       <c r="H3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="20"/>
-    </row>
-    <row r="4" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="I3" s="21"/>
+    </row>
+    <row r="4" ht="28.8" spans="1:9">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -2192,9 +2351,9 @@
       <c r="H4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="20"/>
-    </row>
-    <row r="5" spans="1:10" ht="55.5" x14ac:dyDescent="0.25">
+      <c r="I4" s="21"/>
+    </row>
+    <row r="5" ht="57.6" spans="1:9">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -2219,9 +2378,9 @@
       <c r="H5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="20"/>
-    </row>
-    <row r="6" spans="1:10" ht="81" x14ac:dyDescent="0.15">
+      <c r="I5" s="21"/>
+    </row>
+    <row r="6" ht="86.4" spans="1:9">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -2246,115 +2405,115 @@
       <c r="H6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="20"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I6" s="21"/>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="7">
         <v>6</v>
       </c>
       <c r="B7" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="D7" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="E7" s="13" t="s">
         <v>41</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>42</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>21</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="20"/>
-    </row>
-    <row r="8" spans="1:10" ht="75.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I7" s="21"/>
+    </row>
+    <row r="8" ht="75.95" customHeight="1" spans="1:9">
       <c r="A8" s="7">
         <v>7</v>
       </c>
       <c r="B8" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="D8" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="E8" s="13" t="s">
         <v>46</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>47</v>
       </c>
       <c r="F8" s="13" t="s">
         <v>21</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="20"/>
-    </row>
-    <row r="9" spans="1:10" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="I8" s="21"/>
+    </row>
+    <row r="9" ht="100.8" spans="1:9">
       <c r="A9" s="7">
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="22" t="s">
-        <v>156</v>
+      <c r="G9" s="15" t="s">
+        <v>50</v>
       </c>
       <c r="H9" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="153.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I9" s="21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" ht="153.75" customHeight="1" spans="1:9">
       <c r="A10" s="7">
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="D10" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="E10" s="11" t="s">
         <v>55</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>56</v>
       </c>
       <c r="F10" s="13" t="s">
         <v>14</v>
       </c>
       <c r="G10" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="H10" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="20"/>
-    </row>
-    <row r="11" spans="1:10" ht="63" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I10" s="21"/>
+    </row>
+    <row r="11" ht="63" customHeight="1" spans="1:9">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -2375,11 +2534,11 @@
         <v>60</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="20"/>
-    </row>
-    <row r="12" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>57</v>
+      </c>
+      <c r="I11" s="21"/>
+    </row>
+    <row r="12" ht="43.5" customHeight="1" spans="1:9">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -2404,11 +2563,11 @@
       <c r="H12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="20" t="s">
+      <c r="I12" s="21" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" ht="54.75" customHeight="1" spans="1:9">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -2429,11 +2588,11 @@
       <c r="H13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="20" t="s">
+      <c r="I13" s="21" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="93" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" ht="93" customHeight="1" spans="1:9">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -2454,13 +2613,13 @@
         <v>70</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="I14" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="I14" s="21" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" ht="57" customHeight="1" spans="1:9">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -2485,9 +2644,9 @@
       <c r="H15" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I15" s="20"/>
-    </row>
-    <row r="16" spans="1:10" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I15" s="21"/>
+    </row>
+    <row r="16" ht="65.25" customHeight="1" spans="1:9">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -2512,9 +2671,9 @@
       <c r="H16" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I16" s="20"/>
-    </row>
-    <row r="17" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I16" s="21"/>
+    </row>
+    <row r="17" ht="36.75" customHeight="1" spans="1:9">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -2535,9 +2694,9 @@
       <c r="H17" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I17" s="20"/>
-    </row>
-    <row r="18" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I17" s="21"/>
+    </row>
+    <row r="18" ht="40.5" customHeight="1" spans="1:9">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -2552,76 +2711,76 @@
       <c r="F18" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="22" t="s">
-        <v>155</v>
+      <c r="G18" s="15" t="s">
+        <v>86</v>
       </c>
       <c r="H18" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I18" s="20" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I18" s="21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" ht="45.75" customHeight="1" spans="1:9">
       <c r="A19" s="7">
         <v>18</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F19" s="13" t="s">
         <v>21</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H19" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I19" s="20"/>
-    </row>
-    <row r="20" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I19" s="21"/>
+    </row>
+    <row r="20" ht="72" customHeight="1" spans="1:9">
       <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20" s="15" t="s">
-        <v>91</v>
+      <c r="B20" s="16" t="s">
+        <v>92</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
-      <c r="E20" s="15" t="s">
-        <v>92</v>
+      <c r="E20" s="16" t="s">
+        <v>93</v>
       </c>
       <c r="F20" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="15" t="s">
-        <v>51</v>
+      <c r="G20" s="16" t="s">
+        <v>94</v>
       </c>
       <c r="H20" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I20" s="20"/>
-    </row>
-    <row r="21" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="I20" s="21"/>
+    </row>
+    <row r="21" ht="43.2" spans="1:9">
       <c r="A21" s="7">
         <v>20</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>97</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>75</v>
@@ -2630,406 +2789,407 @@
         <v>14</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H21" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I21" s="20"/>
-    </row>
-    <row r="22" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="16">
+      <c r="I21" s="21"/>
+    </row>
+    <row r="22" ht="43.2" spans="1:9">
+      <c r="A22" s="17">
         <v>21</v>
       </c>
-      <c r="B22" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="D22" s="17"/>
-      <c r="E22" s="15" t="s">
+      <c r="B22" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22" s="18"/>
+      <c r="E22" s="16" t="s">
         <v>75</v>
       </c>
       <c r="F22" s="13" t="s">
         <v>21</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H22" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I22" s="20"/>
-    </row>
-    <row r="23" spans="1:9" ht="69" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I22" s="21"/>
+    </row>
+    <row r="23" ht="69" customHeight="1" spans="1:9">
       <c r="A23" s="7">
         <v>22</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
       <c r="E23" s="11" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F23" s="11" t="s">
         <v>14</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H23" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I23" s="20"/>
-    </row>
-    <row r="24" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+      <c r="I23" s="21"/>
+    </row>
+    <row r="24" ht="57.6" spans="1:9">
       <c r="A24" s="7">
         <v>23</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F24" s="11" t="s">
         <v>14</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="H24" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="H24" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="I24" s="20"/>
-    </row>
-    <row r="25" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="I24" s="21"/>
+    </row>
+    <row r="25" ht="43.2" spans="1:9">
       <c r="A25" s="7">
         <v>24</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="H25" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="H25" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="I25" s="20"/>
-    </row>
-    <row r="26" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="I25" s="21"/>
+    </row>
+    <row r="26" ht="43.2" spans="1:9">
       <c r="A26" s="7">
         <v>25</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F26" s="11" t="s">
         <v>21</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="I26" s="20"/>
-    </row>
-    <row r="27" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
+        <v>57</v>
+      </c>
+      <c r="I26" s="21"/>
+    </row>
+    <row r="27" ht="100.8" spans="1:9">
       <c r="A27" s="7">
         <v>26</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F27" s="11" t="s">
         <v>21</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H27" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I27" s="20" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="I27" s="21" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="28" ht="28.8" spans="1:9">
       <c r="A28" s="7">
         <v>27</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F28" s="11" t="s">
         <v>21</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H28" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I28" s="20"/>
-    </row>
-    <row r="29" spans="1:9" ht="104.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I28" s="21"/>
+    </row>
+    <row r="29" ht="104.1" customHeight="1" spans="1:9">
       <c r="A29" s="7">
         <v>28</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F29" s="11" t="s">
         <v>21</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="I29" s="20"/>
-    </row>
-    <row r="30" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+        <v>57</v>
+      </c>
+      <c r="I29" s="21"/>
+    </row>
+    <row r="30" ht="28.8" spans="1:9">
       <c r="A30" s="7">
         <v>29</v>
       </c>
       <c r="B30" s="11"/>
       <c r="C30" s="11" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I30" s="20"/>
-    </row>
-    <row r="31" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="I30" s="21"/>
+    </row>
+    <row r="31" ht="28.8" spans="1:9">
       <c r="A31" s="7">
         <v>30</v>
       </c>
       <c r="B31" s="11"/>
       <c r="C31" s="11" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="I31" s="20"/>
-    </row>
-    <row r="32" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+      <c r="I31" s="21"/>
+    </row>
+    <row r="32" ht="28.8" spans="1:9">
       <c r="A32" s="7">
         <v>31</v>
       </c>
       <c r="B32" s="11"/>
       <c r="C32" s="11" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D32" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="E32" s="11" t="s">
         <v>139</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>137</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I32" s="20"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I32" s="21"/>
+    </row>
+    <row r="33" ht="43" customHeight="1" spans="1:9">
       <c r="A33" s="7">
         <v>32</v>
       </c>
       <c r="B33" s="11"/>
       <c r="C33" s="11" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="I33" s="20"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+        <v>144</v>
+      </c>
+      <c r="I33" s="21"/>
+    </row>
+    <row r="34" ht="32" customHeight="1" spans="1:9">
       <c r="A34" s="7">
         <v>33</v>
       </c>
       <c r="B34" s="11"/>
       <c r="C34" s="11" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I34" s="20"/>
-    </row>
-    <row r="35" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="I34" s="21"/>
+    </row>
+    <row r="35" ht="28.8" spans="1:9">
       <c r="A35" s="7">
         <v>34</v>
       </c>
       <c r="B35" s="11"/>
       <c r="C35" s="11" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I35" s="20"/>
-    </row>
-    <row r="36" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="I35" s="21"/>
+    </row>
+    <row r="36" ht="28.8" spans="1:9">
       <c r="A36" s="7">
         <v>35</v>
       </c>
       <c r="B36" s="11"/>
       <c r="C36" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="I36" s="20"/>
-    </row>
-    <row r="37" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+        <v>149</v>
+      </c>
+      <c r="I36" s="21"/>
+    </row>
+    <row r="37" ht="28.8" spans="1:9">
       <c r="A37" s="7">
         <v>36</v>
       </c>
       <c r="B37" s="11"/>
       <c r="C37" s="11" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I37" s="20"/>
-    </row>
-    <row r="38" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="I37" s="21"/>
+    </row>
+    <row r="38" ht="28.8" spans="1:9">
       <c r="A38" s="7">
         <v>37</v>
       </c>
       <c r="B38" s="11"/>
       <c r="C38" s="11" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I38" s="20"/>
-    </row>
-    <row r="39" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="I38" s="21"/>
+    </row>
+    <row r="39" ht="28.8" spans="1:9">
       <c r="A39" s="7">
         <v>38</v>
       </c>
       <c r="B39" s="11"/>
       <c r="C39" s="11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I39" s="20"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I39" s="21"/>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="7">
         <v>39</v>
       </c>
       <c r="B40" s="11"/>
       <c r="C40" s="11" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G40" t="s">
-        <v>152</v>
-      </c>
-      <c r="I40" s="20"/>
-    </row>
-    <row r="41" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+        <v>154</v>
+      </c>
+      <c r="I40" s="21"/>
+    </row>
+    <row r="41" ht="43.2" spans="1:9">
       <c r="A41" s="7">
         <v>40</v>
       </c>
       <c r="B41" s="11"/>
       <c r="C41" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="G41" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I41" s="20"/>
+        <v>155</v>
+      </c>
+      <c r="G41" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="H41" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="I41" s="21"/>
     </row>
   </sheetData>
-  <autoFilter ref="H1:H29"/>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <autoFilter ref="H1:H30">
+    <extLst/>
+  </autoFilter>
   <conditionalFormatting sqref="A2:A41">
     <cfRule type="colorScale" priority="9">
       <colorScale>
@@ -3043,68 +3203,67 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H41">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"已解决"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27:H28">
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"已解决"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"未处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"处理中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42:H1048576">
-    <cfRule type="cellIs" dxfId="7" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="22" operator="equal">
       <formula>"已解决"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H42:H1048576">
-    <cfRule type="cellIs" dxfId="6" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="43" operator="equal">
       <formula>$H$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="44" operator="equal">
       <formula>"处理中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="46" operator="equal">
       <formula>"未处理"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26 H29:H41 H1:H23">
-    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
       <formula>"已解决"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
       <formula>"未处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
       <formula>"处理中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>$H$6</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H41 H1:H40 H42:H1048576">
+      <formula1>"处理中,未处理,已解决,无需处理"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F41 F42:F1048576">
       <formula1>$F$5:$F$6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H41 H42:H1048576">
-      <formula1>"处理中,未处理,已解决,无需处理"</formula1>
-    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="包装程序外壳对象" shapeId="1027" r:id="rId4">
-          <objectPr defaultSize="0" altText="" r:id="rId5">
+        <oleObject shapeId="1027" progId="包装程序外壳对象" r:id="rId3">
+          <objectPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
@@ -3123,13 +3282,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="包装程序外壳对象" shapeId="1027" r:id="rId4"/>
+        <oleObject shapeId="1027" progId="包装程序外壳对象" r:id="rId3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Package" shapeId="1028" r:id="rId6">
-          <objectPr defaultSize="0" altText="" r:id="rId7">
+        <oleObject shapeId="1028" progId="Package" r:id="rId5">
+          <objectPr defaultSize="0" r:id="rId6">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
@@ -3148,13 +3307,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Package" shapeId="1028" r:id="rId6"/>
+        <oleObject shapeId="1028" progId="Package" r:id="rId5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="包装程序外壳对象" shapeId="1033" r:id="rId8">
-          <objectPr defaultSize="0" altText="" r:id="rId9">
+        <oleObject shapeId="1033" progId="包装程序外壳对象" r:id="rId7">
+          <objectPr defaultSize="0" r:id="rId8">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
@@ -3165,21 +3324,21 @@
               <to>
                 <xdr:col>6</xdr:col>
                 <xdr:colOff>1362075</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>551815</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="包装程序外壳对象" shapeId="1033" r:id="rId8"/>
+        <oleObject shapeId="1033" progId="包装程序外壳对象" r:id="rId7"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="包装程序外壳对象" shapeId="1035" r:id="rId10">
-          <objectPr defaultSize="0" altText="" r:id="rId11">
+        <oleObject shapeId="1035" progId="Package" r:id="rId9">
+          <objectPr defaultSize="0" r:id="rId10">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
@@ -3189,22 +3348,22 @@
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>1571625</xdr:colOff>
+                <xdr:colOff>1547495</xdr:colOff>
                 <xdr:row>12</xdr:row>
-                <xdr:rowOff>666750</xdr:rowOff>
+                <xdr:rowOff>643890</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="包装程序外壳对象" shapeId="1035" r:id="rId10"/>
+        <oleObject shapeId="1035" progId="Package" r:id="rId9"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Package" shapeId="1037" r:id="rId12">
-          <objectPr defaultSize="0" altText="" r:id="rId13">
+        <oleObject shapeId="1037" progId="Package" r:id="rId11">
+          <objectPr defaultSize="0" r:id="rId12">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
@@ -3223,13 +3382,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Package" shapeId="1037" r:id="rId12"/>
+        <oleObject shapeId="1037" progId="Package" r:id="rId11"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Paint.Picture" shapeId="1038" r:id="rId14">
-          <objectPr defaultSize="0" altText="" r:id="rId15">
+        <oleObject shapeId="1038" progId="Paint.Picture" r:id="rId13">
+          <objectPr defaultSize="0" r:id="rId14">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
@@ -3248,157 +3407,7 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Paint.Picture" shapeId="1038" r:id="rId14"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="包装程序外壳对象" shapeId="1039" r:id="rId16">
-          <objectPr defaultSize="0" altText="" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>590550</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="包装程序外壳对象" shapeId="1039" r:id="rId16"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Package" shapeId="1040" r:id="rId17">
-          <objectPr defaultSize="0" altText="" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>323850</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>990600</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>552450</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Package" shapeId="1040" r:id="rId17"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Package" shapeId="1041" r:id="rId19">
-          <objectPr defaultSize="0" altText="" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>419100</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>1085850</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>523875</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Package" shapeId="1041" r:id="rId19"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="包装程序外壳对象" shapeId="1042" r:id="rId21">
-          <objectPr defaultSize="0" altText="" r:id="rId22">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>361950</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>1257300</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>533400</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="包装程序外壳对象" shapeId="1042" r:id="rId21"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Package" shapeId="1043" r:id="rId23">
-          <objectPr defaultSize="0" altText="" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>504825</xdr:colOff>
-                <xdr:row>22</xdr:row>
-                <xdr:rowOff>428625</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>1238250</xdr:colOff>
-                <xdr:row>22</xdr:row>
-                <xdr:rowOff>676275</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Package" shapeId="1043" r:id="rId23"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Paint.Picture" shapeId="1044" r:id="rId24">
-          <objectPr defaultSize="0" altText="" r:id="rId25">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>95250</xdr:colOff>
-                <xdr:row>28</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>581025</xdr:colOff>
-                <xdr:row>28</xdr:row>
-                <xdr:rowOff>323850</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Paint.Picture" shapeId="1044" r:id="rId24"/>
+        <oleObject shapeId="1038" progId="Paint.Picture" r:id="rId13"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>

--- a/Source/bug处理记录/MES系统bug解决记录.xlsx
+++ b/Source/bug处理记录/MES系统bug解决记录.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BJ_MES\bug处理记录\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="157">
   <si>
     <t>序号</t>
   </si>
@@ -69,7 +74,7 @@
         <sz val="10.5"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>12</t>
     </r>
@@ -149,7 +154,7 @@
         <sz val="10.5"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>**</t>
     </r>
@@ -182,7 +187,7 @@
         <sz val="10.5"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>**</t>
     </r>
@@ -200,7 +205,7 @@
         <sz val="10.5"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>**</t>
     </r>
@@ -590,14 +595,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -638,157 +637,19 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10.5"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -803,7 +664,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799829096346934"/>
+        <fgColor theme="8" tint="0.79979857783745845"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -813,188 +674,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1041,249 +722,10 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1300,98 +742,72 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="33" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="33" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="33" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
+    <cellStyle name="20% - 着色 5" xfId="1" builtinId="46"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1420,18 +836,56 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
@@ -1453,7 +907,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1491,7 +945,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1529,7 +983,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1561,7 +1015,7 @@
           <xdr:row>9</xdr:row>
           <xdr:rowOff>733425</xdr:rowOff>
         </xdr:to>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1027" name="Object 3" hidden="1">
               <a:extLst>
@@ -1572,14 +1026,25 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="10270490" y="6350000"/>
-              <a:ext cx="1560195" cy="733425"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1602,7 +1067,7 @@
           <xdr:row>10</xdr:row>
           <xdr:rowOff>714375</xdr:rowOff>
         </xdr:to>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1028" name="Object 4" hidden="1">
               <a:extLst>
@@ -1613,14 +1078,25 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="10680065" y="8483600"/>
-              <a:ext cx="838200" cy="533400"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1641,9 +1117,9 @@
           <xdr:col>6</xdr:col>
           <xdr:colOff>1362075</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>552449</xdr:rowOff>
+          <xdr:rowOff>552450</xdr:rowOff>
         </xdr:to>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1033" name="Object 9" hidden="1">
               <a:extLst>
@@ -1654,14 +1130,25 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="10794365" y="9121775"/>
-              <a:ext cx="838200" cy="532765"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1680,11 +1167,11 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>1547495</xdr:colOff>
+          <xdr:colOff>1543050</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>643890</xdr:rowOff>
+          <xdr:rowOff>647700</xdr:rowOff>
         </xdr:to>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1035" name="Object 11" hidden="1">
               <a:extLst>
@@ -1695,14 +1182,25 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="10718165" y="9788525"/>
-              <a:ext cx="1099820" cy="510540"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1725,7 +1223,7 @@
           <xdr:row>22</xdr:row>
           <xdr:rowOff>847725</xdr:rowOff>
         </xdr:to>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1037" name="Object 13" hidden="1">
               <a:extLst>
@@ -1736,14 +1234,25 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="10899140" y="17191355"/>
-              <a:ext cx="923925" cy="314325"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1766,7 +1275,7 @@
           <xdr:row>28</xdr:row>
           <xdr:rowOff>409575</xdr:rowOff>
         </xdr:to>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1038" name="Object 14" hidden="1">
               <a:extLst>
@@ -1777,14 +1286,25 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="10384790" y="21094700"/>
-              <a:ext cx="609600" cy="323850"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1813,7 +1333,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -1859,7 +1379,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -1905,7 +1425,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId5" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -2214,33 +1734,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="C36" sqref="C36:H36"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="19.5" customWidth="1"/>
     <col min="3" max="3" width="23.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="34.6296296296296" customWidth="1"/>
+    <col min="4" max="4" width="34.625" customWidth="1"/>
     <col min="5" max="5" width="37.25" customWidth="1"/>
-    <col min="6" max="6" width="26.1296296296296" customWidth="1"/>
+    <col min="6" max="6" width="26.125" customWidth="1"/>
     <col min="7" max="7" width="22.75" customWidth="1"/>
-    <col min="8" max="8" width="14.3796296296296" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.375" style="3" customWidth="1"/>
     <col min="10" max="10" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="35.25" customHeight="1" spans="1:10">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2272,7 +1791,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" ht="28.8" spans="1:9">
+    <row r="2" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -2299,7 +1818,7 @@
       </c>
       <c r="I2" s="21"/>
     </row>
-    <row r="3" ht="72" spans="1:9">
+    <row r="3" spans="1:10" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -2326,7 +1845,7 @@
       </c>
       <c r="I3" s="21"/>
     </row>
-    <row r="4" ht="28.8" spans="1:9">
+    <row r="4" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -2353,7 +1872,7 @@
       </c>
       <c r="I4" s="21"/>
     </row>
-    <row r="5" ht="57.6" spans="1:9">
+    <row r="5" spans="1:10" ht="55.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -2380,7 +1899,7 @@
       </c>
       <c r="I5" s="21"/>
     </row>
-    <row r="6" ht="86.4" spans="1:9">
+    <row r="6" spans="1:10" ht="81" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -2407,7 +1926,7 @@
       </c>
       <c r="I6" s="21"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -2434,7 +1953,7 @@
       </c>
       <c r="I7" s="21"/>
     </row>
-    <row r="8" ht="75.95" customHeight="1" spans="1:9">
+    <row r="8" spans="1:10" ht="75.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -2461,7 +1980,7 @@
       </c>
       <c r="I8" s="21"/>
     </row>
-    <row r="9" ht="100.8" spans="1:9">
+    <row r="9" spans="1:10" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -2486,7 +2005,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" ht="153.75" customHeight="1" spans="1:9">
+    <row r="10" spans="1:10" ht="153.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -2513,7 +2032,7 @@
       </c>
       <c r="I10" s="21"/>
     </row>
-    <row r="11" ht="63" customHeight="1" spans="1:9">
+    <row r="11" spans="1:10" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -2538,7 +2057,7 @@
       </c>
       <c r="I11" s="21"/>
     </row>
-    <row r="12" ht="43.5" customHeight="1" spans="1:9">
+    <row r="12" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -2567,7 +2086,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" ht="54.75" customHeight="1" spans="1:9">
+    <row r="13" spans="1:10" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -2592,7 +2111,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" ht="93" customHeight="1" spans="1:9">
+    <row r="14" spans="1:10" ht="93" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -2619,7 +2138,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" ht="57" customHeight="1" spans="1:9">
+    <row r="15" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -2646,7 +2165,7 @@
       </c>
       <c r="I15" s="21"/>
     </row>
-    <row r="16" ht="65.25" customHeight="1" spans="1:9">
+    <row r="16" spans="1:10" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -2673,7 +2192,7 @@
       </c>
       <c r="I16" s="21"/>
     </row>
-    <row r="17" ht="36.75" customHeight="1" spans="1:9">
+    <row r="17" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -2696,7 +2215,7 @@
       </c>
       <c r="I17" s="21"/>
     </row>
-    <row r="18" ht="40.5" customHeight="1" spans="1:9">
+    <row r="18" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -2721,7 +2240,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="19" ht="45.75" customHeight="1" spans="1:9">
+    <row r="19" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -2746,7 +2265,7 @@
       </c>
       <c r="I19" s="21"/>
     </row>
-    <row r="20" ht="72" customHeight="1" spans="1:9">
+    <row r="20" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -2769,7 +2288,7 @@
       </c>
       <c r="I20" s="21"/>
     </row>
-    <row r="21" ht="43.2" spans="1:9">
+    <row r="21" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A21" s="7">
         <v>20</v>
       </c>
@@ -2796,7 +2315,7 @@
       </c>
       <c r="I21" s="21"/>
     </row>
-    <row r="22" ht="43.2" spans="1:9">
+    <row r="22" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A22" s="17">
         <v>21</v>
       </c>
@@ -2821,7 +2340,7 @@
       </c>
       <c r="I22" s="21"/>
     </row>
-    <row r="23" ht="69" customHeight="1" spans="1:9">
+    <row r="23" spans="1:9" ht="69" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -2844,7 +2363,7 @@
       </c>
       <c r="I23" s="21"/>
     </row>
-    <row r="24" ht="57.6" spans="1:9">
+    <row r="24" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A24" s="7">
         <v>23</v>
       </c>
@@ -2871,7 +2390,7 @@
       </c>
       <c r="I24" s="21"/>
     </row>
-    <row r="25" ht="43.2" spans="1:9">
+    <row r="25" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A25" s="7">
         <v>24</v>
       </c>
@@ -2896,7 +2415,7 @@
       </c>
       <c r="I25" s="21"/>
     </row>
-    <row r="26" ht="43.2" spans="1:9">
+    <row r="26" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A26" s="7">
         <v>25</v>
       </c>
@@ -2923,7 +2442,7 @@
       </c>
       <c r="I26" s="21"/>
     </row>
-    <row r="27" ht="100.8" spans="1:9">
+    <row r="27" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A27" s="7">
         <v>26</v>
       </c>
@@ -2952,7 +2471,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="28" ht="28.8" spans="1:9">
+    <row r="28" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A28" s="7">
         <v>27</v>
       </c>
@@ -2979,7 +2498,7 @@
       </c>
       <c r="I28" s="21"/>
     </row>
-    <row r="29" ht="104.1" customHeight="1" spans="1:9">
+    <row r="29" spans="1:9" ht="104.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="7">
         <v>28</v>
       </c>
@@ -3006,7 +2525,7 @@
       </c>
       <c r="I29" s="21"/>
     </row>
-    <row r="30" ht="28.8" spans="1:9">
+    <row r="30" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A30" s="7">
         <v>29</v>
       </c>
@@ -3025,7 +2544,7 @@
       </c>
       <c r="I30" s="21"/>
     </row>
-    <row r="31" ht="28.8" spans="1:9">
+    <row r="31" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A31" s="7">
         <v>30</v>
       </c>
@@ -3039,9 +2558,12 @@
       <c r="E31" s="11" t="s">
         <v>139</v>
       </c>
+      <c r="H31" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="I31" s="21"/>
     </row>
-    <row r="32" ht="28.8" spans="1:9">
+    <row r="32" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A32" s="7">
         <v>31</v>
       </c>
@@ -3060,7 +2582,7 @@
       </c>
       <c r="I32" s="21"/>
     </row>
-    <row r="33" ht="43" customHeight="1" spans="1:9">
+    <row r="33" spans="1:9" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="7">
         <v>32</v>
       </c>
@@ -3076,7 +2598,7 @@
       </c>
       <c r="I33" s="21"/>
     </row>
-    <row r="34" ht="32" customHeight="1" spans="1:9">
+    <row r="34" spans="1:9" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="7">
         <v>33</v>
       </c>
@@ -3095,7 +2617,7 @@
       </c>
       <c r="I34" s="21"/>
     </row>
-    <row r="35" ht="28.8" spans="1:9">
+    <row r="35" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A35" s="7">
         <v>34</v>
       </c>
@@ -3108,7 +2630,7 @@
       </c>
       <c r="I35" s="21"/>
     </row>
-    <row r="36" ht="28.8" spans="1:9">
+    <row r="36" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A36" s="7">
         <v>35</v>
       </c>
@@ -3118,7 +2640,7 @@
       </c>
       <c r="I36" s="21"/>
     </row>
-    <row r="37" ht="28.8" spans="1:9">
+    <row r="37" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A37" s="7">
         <v>36</v>
       </c>
@@ -3131,7 +2653,7 @@
       </c>
       <c r="I37" s="21"/>
     </row>
-    <row r="38" ht="28.8" spans="1:9">
+    <row r="38" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A38" s="7">
         <v>37</v>
       </c>
@@ -3144,7 +2666,7 @@
       </c>
       <c r="I38" s="21"/>
     </row>
-    <row r="39" ht="28.8" spans="1:9">
+    <row r="39" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A39" s="7">
         <v>38</v>
       </c>
@@ -3157,7 +2679,7 @@
       </c>
       <c r="I39" s="21"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A40" s="7">
         <v>39</v>
       </c>
@@ -3170,7 +2692,7 @@
       </c>
       <c r="I40" s="21"/>
     </row>
-    <row r="41" ht="43.2" spans="1:9">
+    <row r="41" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A41" s="7">
         <v>40</v>
       </c>
@@ -3187,9 +2709,8 @@
       <c r="I41" s="21"/>
     </row>
   </sheetData>
-  <autoFilter ref="H1:H30">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="H1:H30"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="A2:A41">
     <cfRule type="colorScale" priority="9">
       <colorScale>
@@ -3203,46 +2724,46 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H41">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>"已解决"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27:H28">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
       <formula>"已解决"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>"未处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
       <formula>"处理中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42:H1048576">
-    <cfRule type="cellIs" dxfId="0" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="22" operator="equal">
       <formula>"已解决"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="43" operator="equal">
       <formula>$H$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="44" operator="equal">
       <formula>"处理中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="46" operator="equal">
       <formula>"未处理"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26 H29:H41 H1:H23">
-    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
       <formula>"已解决"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
       <formula>"未处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
       <formula>"处理中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
       <formula>$H$6</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3256,14 +2777,13 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="1027" progId="包装程序外壳对象" r:id="rId3">
-          <objectPr defaultSize="0" r:id="rId4">
+        <oleObject progId="包装程序外壳对象" shapeId="1027" r:id="rId3">
+          <objectPr defaultSize="0" altText="" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
@@ -3282,13 +2802,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="1027" progId="包装程序外壳对象" r:id="rId3"/>
+        <oleObject progId="包装程序外壳对象" shapeId="1027" r:id="rId3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="1028" progId="Package" r:id="rId5">
-          <objectPr defaultSize="0" r:id="rId6">
+        <oleObject progId="Package" shapeId="1028" r:id="rId5">
+          <objectPr defaultSize="0" altText="" r:id="rId6">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
@@ -3307,13 +2827,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="1028" progId="Package" r:id="rId5"/>
+        <oleObject progId="Package" shapeId="1028" r:id="rId5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="1033" progId="包装程序外壳对象" r:id="rId7">
-          <objectPr defaultSize="0" r:id="rId8">
+        <oleObject progId="包装程序外壳对象" shapeId="1033" r:id="rId7">
+          <objectPr defaultSize="0" altText="" r:id="rId8">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
@@ -3325,20 +2845,20 @@
                 <xdr:col>6</xdr:col>
                 <xdr:colOff>1362075</xdr:colOff>
                 <xdr:row>11</xdr:row>
-                <xdr:rowOff>551815</xdr:rowOff>
+                <xdr:rowOff>552450</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="1033" progId="包装程序外壳对象" r:id="rId7"/>
+        <oleObject progId="包装程序外壳对象" shapeId="1033" r:id="rId7"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="1035" progId="Package" r:id="rId9">
-          <objectPr defaultSize="0" r:id="rId10">
+        <oleObject progId="Package" shapeId="1035" r:id="rId9">
+          <objectPr defaultSize="0" altText="" r:id="rId10">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
@@ -3348,22 +2868,22 @@
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>1547495</xdr:colOff>
+                <xdr:colOff>1543050</xdr:colOff>
                 <xdr:row>12</xdr:row>
-                <xdr:rowOff>643890</xdr:rowOff>
+                <xdr:rowOff>647700</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="1035" progId="Package" r:id="rId9"/>
+        <oleObject progId="Package" shapeId="1035" r:id="rId9"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="1037" progId="Package" r:id="rId11">
-          <objectPr defaultSize="0" r:id="rId12">
+        <oleObject progId="Package" shapeId="1037" r:id="rId11">
+          <objectPr defaultSize="0" altText="" r:id="rId12">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
@@ -3382,13 +2902,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="1037" progId="Package" r:id="rId11"/>
+        <oleObject progId="Package" shapeId="1037" r:id="rId11"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="1038" progId="Paint.Picture" r:id="rId13">
-          <objectPr defaultSize="0" r:id="rId14">
+        <oleObject progId="Paint.Picture" shapeId="1038" r:id="rId13">
+          <objectPr defaultSize="0" altText="" r:id="rId14">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
@@ -3407,7 +2927,7 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="1038" progId="Paint.Picture" r:id="rId13"/>
+        <oleObject progId="Paint.Picture" shapeId="1038" r:id="rId13"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>

--- a/Source/bug处理记录/MES系统bug解决记录.xlsx
+++ b/Source/bug处理记录/MES系统bug解决记录.xlsx
@@ -1,28 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BJ_MES\bug处理记录\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="18468" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$H$1:$H$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$H$1:$H$32</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="157">
   <si>
     <t>序号</t>
   </si>
@@ -74,7 +69,7 @@
         <sz val="10.5"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>12</t>
     </r>
@@ -154,7 +149,7 @@
         <sz val="10.5"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>**</t>
     </r>
@@ -187,7 +182,7 @@
         <sz val="10.5"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>**</t>
     </r>
@@ -205,7 +200,7 @@
         <sz val="10.5"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>**</t>
     </r>
@@ -589,14 +584,20 @@
   </si>
   <si>
     <t>没有出现这个问题，个
-人感觉是连接了大屏幕-.-</t>
+人感觉是连接了大屏幕</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -625,31 +626,162 @@
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="10"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color indexed="8"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -664,7 +796,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79979857783745845"/>
+        <fgColor theme="8" tint="0.799798577837458"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -674,8 +806,188 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -722,14 +1034,253 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -742,72 +1293,95 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="33" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="33" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="33" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="20% - 着色 5" xfId="1" builtinId="46"/>
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -836,56 +1410,18 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
@@ -907,7 +1443,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -945,7 +1481,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -983,7 +1519,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1015,7 +1551,7 @@
           <xdr:row>9</xdr:row>
           <xdr:rowOff>733425</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="">
+        <xdr:sp>
           <xdr:nvSpPr>
             <xdr:cNvPr id="1027" name="Object 3" hidden="1">
               <a:extLst>
@@ -1026,25 +1562,14 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
+              <a:off x="10270490" y="6350000"/>
+              <a:ext cx="1560195" cy="733425"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1067,7 +1592,7 @@
           <xdr:row>10</xdr:row>
           <xdr:rowOff>714375</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="">
+        <xdr:sp>
           <xdr:nvSpPr>
             <xdr:cNvPr id="1028" name="Object 4" hidden="1">
               <a:extLst>
@@ -1078,25 +1603,14 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
+              <a:off x="10680065" y="8483600"/>
+              <a:ext cx="838200" cy="533400"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1116,10 +1630,10 @@
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>1362075</xdr:colOff>
-          <xdr:row>11</xdr:row>
-          <xdr:rowOff>552450</xdr:rowOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="">
+        <xdr:sp>
           <xdr:nvSpPr>
             <xdr:cNvPr id="1033" name="Object 9" hidden="1">
               <a:extLst>
@@ -1130,25 +1644,14 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
+              <a:off x="10794365" y="9121775"/>
+              <a:ext cx="838200" cy="533400"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1171,7 +1674,7 @@
           <xdr:row>12</xdr:row>
           <xdr:rowOff>647700</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="">
+        <xdr:sp>
           <xdr:nvSpPr>
             <xdr:cNvPr id="1035" name="Object 11" hidden="1">
               <a:extLst>
@@ -1182,25 +1685,14 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
+              <a:off x="10718165" y="9788525"/>
+              <a:ext cx="1095375" cy="514350"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1223,7 +1715,7 @@
           <xdr:row>22</xdr:row>
           <xdr:rowOff>847725</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="">
+        <xdr:sp>
           <xdr:nvSpPr>
             <xdr:cNvPr id="1037" name="Object 13" hidden="1">
               <a:extLst>
@@ -1234,25 +1726,14 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
+              <a:off x="10899140" y="17191355"/>
+              <a:ext cx="923925" cy="314325"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1275,7 +1756,7 @@
           <xdr:row>28</xdr:row>
           <xdr:rowOff>409575</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="">
+        <xdr:sp>
           <xdr:nvSpPr>
             <xdr:cNvPr id="1038" name="Object 14" hidden="1">
               <a:extLst>
@@ -1286,25 +1767,14 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
+              <a:off x="10384790" y="21094700"/>
+              <a:ext cx="609600" cy="323850"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1333,7 +1803,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -1379,7 +1849,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:blip r:embed="rId4" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -1425,7 +1895,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:blip r:embed="rId5" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -1734,32 +2204,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H31" sqref="H31"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="19.5" customWidth="1"/>
     <col min="3" max="3" width="23.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="34.625" customWidth="1"/>
+    <col min="4" max="4" width="34.6296296296296" customWidth="1"/>
     <col min="5" max="5" width="37.25" customWidth="1"/>
-    <col min="6" max="6" width="26.125" customWidth="1"/>
+    <col min="6" max="6" width="26.1296296296296" customWidth="1"/>
     <col min="7" max="7" width="22.75" customWidth="1"/>
-    <col min="8" max="8" width="14.375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.3796296296296" style="3" customWidth="1"/>
     <col min="10" max="10" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1" ht="35.25" customHeight="1" spans="1:10">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1784,14 +2255,14 @@
       <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="21" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="2" ht="28.8" spans="1:9">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -1816,9 +2287,9 @@
       <c r="H2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="21"/>
-    </row>
-    <row r="3" spans="1:10" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="I2" s="20"/>
+    </row>
+    <row r="3" ht="72" spans="1:9">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -1843,9 +2314,9 @@
       <c r="H3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="21"/>
-    </row>
-    <row r="4" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="I3" s="20"/>
+    </row>
+    <row r="4" ht="28.8" spans="1:9">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -1870,9 +2341,9 @@
       <c r="H4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="21"/>
-    </row>
-    <row r="5" spans="1:10" ht="55.5" x14ac:dyDescent="0.25">
+      <c r="I4" s="20"/>
+    </row>
+    <row r="5" ht="57.6" spans="1:9">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -1897,9 +2368,9 @@
       <c r="H5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="21"/>
-    </row>
-    <row r="6" spans="1:10" ht="81" x14ac:dyDescent="0.15">
+      <c r="I5" s="20"/>
+    </row>
+    <row r="6" ht="86.4" spans="1:9">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -1924,9 +2395,9 @@
       <c r="H6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="21"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I6" s="20"/>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -1951,9 +2422,9 @@
       <c r="H7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="21"/>
-    </row>
-    <row r="8" spans="1:10" ht="75.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I7" s="20"/>
+    </row>
+    <row r="8" ht="75.95" customHeight="1" spans="1:9">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -1978,9 +2449,9 @@
       <c r="H8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="21"/>
-    </row>
-    <row r="9" spans="1:10" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="I8" s="20"/>
+    </row>
+    <row r="9" ht="100.8" spans="1:9">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -1995,17 +2466,17 @@
       <c r="F9" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="11" t="s">
         <v>50</v>
       </c>
       <c r="H9" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="21" t="s">
+      <c r="I9" s="20" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="153.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" ht="153.75" customHeight="1" spans="1:9">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -2030,9 +2501,9 @@
       <c r="H10" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="I10" s="21"/>
-    </row>
-    <row r="11" spans="1:10" ht="63" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I10" s="20"/>
+    </row>
+    <row r="11" ht="63" customHeight="1" spans="1:9">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -2055,9 +2526,9 @@
       <c r="H11" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="I11" s="21"/>
-    </row>
-    <row r="12" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I11" s="20"/>
+    </row>
+    <row r="12" ht="43.5" customHeight="1" spans="1:9">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -2082,11 +2553,11 @@
       <c r="H12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="21" t="s">
+      <c r="I12" s="20" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" ht="54.75" customHeight="1" spans="1:9">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -2107,11 +2578,11 @@
       <c r="H13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="21" t="s">
+      <c r="I13" s="20" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="93" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" ht="93" customHeight="1" spans="1:9">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -2134,11 +2605,11 @@
       <c r="H14" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="I14" s="21" t="s">
+      <c r="I14" s="20" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" ht="57" customHeight="1" spans="1:9">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -2163,9 +2634,9 @@
       <c r="H15" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I15" s="21"/>
-    </row>
-    <row r="16" spans="1:10" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I15" s="20"/>
+    </row>
+    <row r="16" ht="65.25" customHeight="1" spans="1:9">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -2190,9 +2661,9 @@
       <c r="H16" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I16" s="21"/>
-    </row>
-    <row r="17" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I16" s="20"/>
+    </row>
+    <row r="17" ht="36.75" customHeight="1" spans="1:9">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -2213,9 +2684,9 @@
       <c r="H17" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I17" s="21"/>
-    </row>
-    <row r="18" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I17" s="20"/>
+    </row>
+    <row r="18" ht="40.5" customHeight="1" spans="1:9">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -2230,17 +2701,17 @@
       <c r="F18" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="15" t="s">
+      <c r="G18" s="11" t="s">
         <v>86</v>
       </c>
       <c r="H18" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I18" s="21" t="s">
+      <c r="I18" s="20" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" ht="45.75" customHeight="1" spans="1:9">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -2263,32 +2734,32 @@
       <c r="H19" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I19" s="21"/>
-    </row>
-    <row r="20" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I19" s="20"/>
+    </row>
+    <row r="20" ht="72" customHeight="1" spans="1:9">
       <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="15" t="s">
         <v>92</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="15" t="s">
         <v>93</v>
       </c>
       <c r="F20" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="16" t="s">
+      <c r="G20" s="15" t="s">
         <v>94</v>
       </c>
       <c r="H20" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I20" s="21"/>
-    </row>
-    <row r="21" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="I20" s="20"/>
+    </row>
+    <row r="21" ht="43.2" spans="1:9">
       <c r="A21" s="7">
         <v>20</v>
       </c>
@@ -2298,7 +2769,7 @@
       <c r="C21" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="15" t="s">
         <v>97</v>
       </c>
       <c r="E21" s="11" t="s">
@@ -2313,20 +2784,20 @@
       <c r="H21" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I21" s="21"/>
-    </row>
-    <row r="22" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="17">
+      <c r="I21" s="20"/>
+    </row>
+    <row r="22" ht="43.2" spans="1:9">
+      <c r="A22" s="16">
         <v>21</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="D22" s="18"/>
-      <c r="E22" s="16" t="s">
+      <c r="D22" s="17"/>
+      <c r="E22" s="15" t="s">
         <v>75</v>
       </c>
       <c r="F22" s="13" t="s">
@@ -2338,9 +2809,9 @@
       <c r="H22" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I22" s="21"/>
-    </row>
-    <row r="23" spans="1:9" ht="69" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I22" s="20"/>
+    </row>
+    <row r="23" ht="69" customHeight="1" spans="1:9">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -2361,9 +2832,9 @@
       <c r="H23" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I23" s="21"/>
-    </row>
-    <row r="24" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+      <c r="I23" s="20"/>
+    </row>
+    <row r="24" ht="57.6" spans="1:9">
       <c r="A24" s="7">
         <v>23</v>
       </c>
@@ -2385,12 +2856,12 @@
       <c r="G24" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="H24" s="19" t="s">
+      <c r="H24" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="I24" s="21"/>
-    </row>
-    <row r="25" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="I24" s="20"/>
+    </row>
+    <row r="25" ht="43.2" spans="1:9">
       <c r="A25" s="7">
         <v>24</v>
       </c>
@@ -2410,12 +2881,12 @@
       <c r="G25" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="H25" s="19" t="s">
+      <c r="H25" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="I25" s="21"/>
-    </row>
-    <row r="26" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="I25" s="20"/>
+    </row>
+    <row r="26" ht="43.2" spans="1:9">
       <c r="A26" s="7">
         <v>25</v>
       </c>
@@ -2440,9 +2911,9 @@
       <c r="H26" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="I26" s="21"/>
-    </row>
-    <row r="27" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="I26" s="20"/>
+    </row>
+    <row r="27" ht="100.8" spans="1:9">
       <c r="A27" s="7">
         <v>26</v>
       </c>
@@ -2467,11 +2938,11 @@
       <c r="H27" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I27" s="21" t="s">
+      <c r="I27" s="20" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="28" ht="28.8" spans="1:9">
       <c r="A28" s="7">
         <v>27</v>
       </c>
@@ -2496,9 +2967,9 @@
       <c r="H28" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I28" s="21"/>
-    </row>
-    <row r="29" spans="1:9" ht="104.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I28" s="20"/>
+    </row>
+    <row r="29" ht="104.1" customHeight="1" spans="1:9">
       <c r="A29" s="7">
         <v>28</v>
       </c>
@@ -2523,9 +2994,9 @@
       <c r="H29" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="I29" s="21"/>
-    </row>
-    <row r="30" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="I29" s="20"/>
+    </row>
+    <row r="30" ht="28.8" spans="1:9">
       <c r="A30" s="7">
         <v>29</v>
       </c>
@@ -2542,9 +3013,9 @@
       <c r="H30" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I30" s="21"/>
-    </row>
-    <row r="31" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="I30" s="20"/>
+    </row>
+    <row r="31" ht="28.8" spans="1:9">
       <c r="A31" s="7">
         <v>30</v>
       </c>
@@ -2561,9 +3032,9 @@
       <c r="H31" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I31" s="21"/>
-    </row>
-    <row r="32" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="I31" s="20"/>
+    </row>
+    <row r="32" ht="28.8" spans="1:9">
       <c r="A32" s="7">
         <v>31</v>
       </c>
@@ -2580,9 +3051,9 @@
       <c r="H32" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I32" s="21"/>
-    </row>
-    <row r="33" spans="1:9" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I32" s="20"/>
+    </row>
+    <row r="33" ht="42.95" customHeight="1" spans="1:9">
       <c r="A33" s="7">
         <v>32</v>
       </c>
@@ -2596,9 +3067,12 @@
       <c r="E33" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="I33" s="21"/>
-    </row>
-    <row r="34" spans="1:9" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I33" s="20"/>
+    </row>
+    <row r="34" ht="32.1" customHeight="1" spans="1:9">
       <c r="A34" s="7">
         <v>33</v>
       </c>
@@ -2615,9 +3089,9 @@
       <c r="H34" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I34" s="21"/>
-    </row>
-    <row r="35" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="I34" s="20"/>
+    </row>
+    <row r="35" ht="28.8" spans="1:9">
       <c r="A35" s="7">
         <v>34</v>
       </c>
@@ -2628,9 +3102,9 @@
       <c r="H35" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I35" s="21"/>
-    </row>
-    <row r="36" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="I35" s="20"/>
+    </row>
+    <row r="36" ht="28.8" spans="1:9">
       <c r="A36" s="7">
         <v>35</v>
       </c>
@@ -2638,9 +3112,12 @@
       <c r="C36" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="I36" s="21"/>
-    </row>
-    <row r="37" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="H36" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I36" s="20"/>
+    </row>
+    <row r="37" ht="28.8" spans="1:9">
       <c r="A37" s="7">
         <v>36</v>
       </c>
@@ -2651,9 +3128,9 @@
       <c r="H37" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I37" s="21"/>
-    </row>
-    <row r="38" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="I37" s="20"/>
+    </row>
+    <row r="38" ht="28.8" spans="1:9">
       <c r="A38" s="7">
         <v>37</v>
       </c>
@@ -2664,9 +3141,9 @@
       <c r="H38" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I38" s="21"/>
-    </row>
-    <row r="39" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="I38" s="20"/>
+    </row>
+    <row r="39" ht="28.8" spans="1:9">
       <c r="A39" s="7">
         <v>38</v>
       </c>
@@ -2677,9 +3154,9 @@
       <c r="H39" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I39" s="21"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I39" s="20"/>
+    </row>
+    <row r="40" ht="57" customHeight="1" spans="1:9">
       <c r="A40" s="7">
         <v>39</v>
       </c>
@@ -2690,9 +3167,9 @@
       <c r="G40" t="s">
         <v>154</v>
       </c>
-      <c r="I40" s="21"/>
-    </row>
-    <row r="41" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="I40" s="20"/>
+    </row>
+    <row r="41" ht="28.8" spans="1:9">
       <c r="A41" s="7">
         <v>40</v>
       </c>
@@ -2700,17 +3177,18 @@
       <c r="C41" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="G41" s="20" t="s">
+      <c r="G41" s="19" t="s">
         <v>156</v>
       </c>
       <c r="H41" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="I41" s="21"/>
+      <c r="I41" s="20"/>
     </row>
   </sheetData>
-  <autoFilter ref="H1:H30"/>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <autoFilter ref="H1:H32">
+    <extLst/>
+  </autoFilter>
   <conditionalFormatting sqref="A2:A41">
     <cfRule type="colorScale" priority="9">
       <colorScale>
@@ -2724,46 +3202,46 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H41">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"已解决"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27:H28">
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"已解决"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"未处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"处理中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42:H1048576">
-    <cfRule type="cellIs" dxfId="7" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="22" operator="equal">
       <formula>"已解决"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="43" operator="equal">
       <formula>$H$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="44" operator="equal">
       <formula>"处理中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="46" operator="equal">
       <formula>"未处理"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26 H29:H41 H1:H23">
-    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
       <formula>"已解决"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
       <formula>"未处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
       <formula>"处理中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>$H$6</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2777,13 +3255,14 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="包装程序外壳对象" shapeId="1027" r:id="rId3">
-          <objectPr defaultSize="0" altText="" r:id="rId4">
+        <oleObject shapeId="1027" progId="包装程序外壳对象" r:id="rId3">
+          <objectPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
@@ -2802,13 +3281,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="包装程序外壳对象" shapeId="1027" r:id="rId3"/>
+        <oleObject shapeId="1027" progId="包装程序外壳对象" r:id="rId3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Package" shapeId="1028" r:id="rId5">
-          <objectPr defaultSize="0" altText="" r:id="rId6">
+        <oleObject shapeId="1028" progId="Package" r:id="rId5">
+          <objectPr defaultSize="0" r:id="rId6">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
@@ -2827,13 +3306,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Package" shapeId="1028" r:id="rId5"/>
+        <oleObject shapeId="1028" progId="Package" r:id="rId5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="包装程序外壳对象" shapeId="1033" r:id="rId7">
-          <objectPr defaultSize="0" altText="" r:id="rId8">
+        <oleObject shapeId="1033" progId="包装程序外壳对象" r:id="rId7">
+          <objectPr defaultSize="0" r:id="rId8">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
@@ -2844,21 +3323,21 @@
               <to>
                 <xdr:col>6</xdr:col>
                 <xdr:colOff>1362075</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>552450</xdr:rowOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="包装程序外壳对象" shapeId="1033" r:id="rId7"/>
+        <oleObject shapeId="1033" progId="包装程序外壳对象" r:id="rId7"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Package" shapeId="1035" r:id="rId9">
-          <objectPr defaultSize="0" altText="" r:id="rId10">
+        <oleObject shapeId="1035" progId="Package" r:id="rId9">
+          <objectPr defaultSize="0" r:id="rId10">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
@@ -2877,13 +3356,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Package" shapeId="1035" r:id="rId9"/>
+        <oleObject shapeId="1035" progId="Package" r:id="rId9"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Package" shapeId="1037" r:id="rId11">
-          <objectPr defaultSize="0" altText="" r:id="rId12">
+        <oleObject shapeId="1037" progId="Package" r:id="rId11">
+          <objectPr defaultSize="0" r:id="rId12">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
@@ -2902,13 +3381,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Package" shapeId="1037" r:id="rId11"/>
+        <oleObject shapeId="1037" progId="Package" r:id="rId11"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Paint.Picture" shapeId="1038" r:id="rId13">
-          <objectPr defaultSize="0" altText="" r:id="rId14">
+        <oleObject shapeId="1038" progId="Paint.Picture" r:id="rId13">
+          <objectPr defaultSize="0" r:id="rId14">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
@@ -2927,7 +3406,7 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Paint.Picture" shapeId="1038" r:id="rId13"/>
+        <oleObject shapeId="1038" progId="Paint.Picture" r:id="rId13"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>

--- a/Source/bug处理记录/MES系统bug解决记录.xlsx
+++ b/Source/bug处理记录/MES系统bug解决记录.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BJ_MES\bug处理记录\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="18468" windowHeight="9420"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18465" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,6 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$H$1:$H$32</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -69,7 +75,7 @@
         <sz val="10.5"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>12</t>
     </r>
@@ -149,7 +155,7 @@
         <sz val="10.5"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>**</t>
     </r>
@@ -182,7 +188,7 @@
         <sz val="10.5"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>**</t>
     </r>
@@ -200,7 +206,7 @@
         <sz val="10.5"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>**</t>
     </r>
@@ -590,14 +596,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -632,156 +632,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -796,7 +665,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799798577837458"/>
+        <fgColor theme="8" tint="0.79976805932798245"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -806,188 +675,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1034,249 +723,10 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1293,95 +743,69 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="33" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="33" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="33" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
+    <cellStyle name="20% - 着色 5" xfId="1" builtinId="46"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1410,18 +834,56 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
@@ -1443,7 +905,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1481,7 +943,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1519,7 +981,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1551,7 +1013,7 @@
           <xdr:row>9</xdr:row>
           <xdr:rowOff>733425</xdr:rowOff>
         </xdr:to>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1027" name="Object 3" hidden="1">
               <a:extLst>
@@ -1562,14 +1024,25 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="10270490" y="6350000"/>
-              <a:ext cx="1560195" cy="733425"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1592,7 +1065,7 @@
           <xdr:row>10</xdr:row>
           <xdr:rowOff>714375</xdr:rowOff>
         </xdr:to>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1028" name="Object 4" hidden="1">
               <a:extLst>
@@ -1603,14 +1076,25 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="10680065" y="8483600"/>
-              <a:ext cx="838200" cy="533400"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1633,7 +1117,7 @@
           <xdr:row>12</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1033" name="Object 9" hidden="1">
               <a:extLst>
@@ -1644,14 +1128,25 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="10794365" y="9121775"/>
-              <a:ext cx="838200" cy="533400"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1674,7 +1169,7 @@
           <xdr:row>12</xdr:row>
           <xdr:rowOff>647700</xdr:rowOff>
         </xdr:to>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1035" name="Object 11" hidden="1">
               <a:extLst>
@@ -1685,14 +1180,25 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="10718165" y="9788525"/>
-              <a:ext cx="1095375" cy="514350"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1715,7 +1221,7 @@
           <xdr:row>22</xdr:row>
           <xdr:rowOff>847725</xdr:rowOff>
         </xdr:to>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1037" name="Object 13" hidden="1">
               <a:extLst>
@@ -1726,14 +1232,25 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="10899140" y="17191355"/>
-              <a:ext cx="923925" cy="314325"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1756,7 +1273,7 @@
           <xdr:row>28</xdr:row>
           <xdr:rowOff>409575</xdr:rowOff>
         </xdr:to>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1038" name="Object 14" hidden="1">
               <a:extLst>
@@ -1767,14 +1284,25 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="10384790" y="21094700"/>
-              <a:ext cx="609600" cy="323850"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1803,7 +1331,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -1849,7 +1377,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -1895,7 +1423,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId5" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -1966,7 +1494,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2001,7 +1529,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2204,33 +1732,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection/>
       <selection pane="bottomLeft" activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="19.5" customWidth="1"/>
     <col min="3" max="3" width="23.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="34.6296296296296" customWidth="1"/>
+    <col min="4" max="4" width="34.625" customWidth="1"/>
     <col min="5" max="5" width="37.25" customWidth="1"/>
-    <col min="6" max="6" width="26.1296296296296" customWidth="1"/>
+    <col min="6" max="6" width="26.125" customWidth="1"/>
     <col min="7" max="7" width="22.75" customWidth="1"/>
-    <col min="8" max="8" width="14.3796296296296" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.375" style="3" customWidth="1"/>
     <col min="10" max="10" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="35.25" customHeight="1" spans="1:10">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2262,7 +1789,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" ht="28.8" spans="1:9">
+    <row r="2" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -2289,7 +1816,7 @@
       </c>
       <c r="I2" s="20"/>
     </row>
-    <row r="3" ht="72" spans="1:9">
+    <row r="3" spans="1:10" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -2316,7 +1843,7 @@
       </c>
       <c r="I3" s="20"/>
     </row>
-    <row r="4" ht="28.8" spans="1:9">
+    <row r="4" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -2343,7 +1870,7 @@
       </c>
       <c r="I4" s="20"/>
     </row>
-    <row r="5" ht="57.6" spans="1:9">
+    <row r="5" spans="1:10" ht="55.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -2370,7 +1897,7 @@
       </c>
       <c r="I5" s="20"/>
     </row>
-    <row r="6" ht="86.4" spans="1:9">
+    <row r="6" spans="1:10" ht="81" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -2397,7 +1924,7 @@
       </c>
       <c r="I6" s="20"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -2424,7 +1951,7 @@
       </c>
       <c r="I7" s="20"/>
     </row>
-    <row r="8" ht="75.95" customHeight="1" spans="1:9">
+    <row r="8" spans="1:10" ht="75.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -2451,7 +1978,7 @@
       </c>
       <c r="I8" s="20"/>
     </row>
-    <row r="9" ht="100.8" spans="1:9">
+    <row r="9" spans="1:10" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -2476,7 +2003,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" ht="153.75" customHeight="1" spans="1:9">
+    <row r="10" spans="1:10" ht="153.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -2503,7 +2030,7 @@
       </c>
       <c r="I10" s="20"/>
     </row>
-    <row r="11" ht="63" customHeight="1" spans="1:9">
+    <row r="11" spans="1:10" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -2528,7 +2055,7 @@
       </c>
       <c r="I11" s="20"/>
     </row>
-    <row r="12" ht="43.5" customHeight="1" spans="1:9">
+    <row r="12" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -2557,7 +2084,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" ht="54.75" customHeight="1" spans="1:9">
+    <row r="13" spans="1:10" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -2582,7 +2109,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" ht="93" customHeight="1" spans="1:9">
+    <row r="14" spans="1:10" ht="93" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -2609,7 +2136,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" ht="57" customHeight="1" spans="1:9">
+    <row r="15" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -2636,7 +2163,7 @@
       </c>
       <c r="I15" s="20"/>
     </row>
-    <row r="16" ht="65.25" customHeight="1" spans="1:9">
+    <row r="16" spans="1:10" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -2663,7 +2190,7 @@
       </c>
       <c r="I16" s="20"/>
     </row>
-    <row r="17" ht="36.75" customHeight="1" spans="1:9">
+    <row r="17" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -2686,7 +2213,7 @@
       </c>
       <c r="I17" s="20"/>
     </row>
-    <row r="18" ht="40.5" customHeight="1" spans="1:9">
+    <row r="18" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -2711,7 +2238,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="19" ht="45.75" customHeight="1" spans="1:9">
+    <row r="19" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -2736,7 +2263,7 @@
       </c>
       <c r="I19" s="20"/>
     </row>
-    <row r="20" ht="72" customHeight="1" spans="1:9">
+    <row r="20" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -2759,7 +2286,7 @@
       </c>
       <c r="I20" s="20"/>
     </row>
-    <row r="21" ht="43.2" spans="1:9">
+    <row r="21" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A21" s="7">
         <v>20</v>
       </c>
@@ -2786,7 +2313,7 @@
       </c>
       <c r="I21" s="20"/>
     </row>
-    <row r="22" ht="43.2" spans="1:9">
+    <row r="22" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A22" s="16">
         <v>21</v>
       </c>
@@ -2811,7 +2338,7 @@
       </c>
       <c r="I22" s="20"/>
     </row>
-    <row r="23" ht="69" customHeight="1" spans="1:9">
+    <row r="23" spans="1:9" ht="69" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -2834,7 +2361,7 @@
       </c>
       <c r="I23" s="20"/>
     </row>
-    <row r="24" ht="57.6" spans="1:9">
+    <row r="24" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A24" s="7">
         <v>23</v>
       </c>
@@ -2861,7 +2388,7 @@
       </c>
       <c r="I24" s="20"/>
     </row>
-    <row r="25" ht="43.2" spans="1:9">
+    <row r="25" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A25" s="7">
         <v>24</v>
       </c>
@@ -2886,7 +2413,7 @@
       </c>
       <c r="I25" s="20"/>
     </row>
-    <row r="26" ht="43.2" spans="1:9">
+    <row r="26" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A26" s="7">
         <v>25</v>
       </c>
@@ -2913,7 +2440,7 @@
       </c>
       <c r="I26" s="20"/>
     </row>
-    <row r="27" ht="100.8" spans="1:9">
+    <row r="27" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A27" s="7">
         <v>26</v>
       </c>
@@ -2942,7 +2469,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="28" ht="28.8" spans="1:9">
+    <row r="28" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A28" s="7">
         <v>27</v>
       </c>
@@ -2969,7 +2496,7 @@
       </c>
       <c r="I28" s="20"/>
     </row>
-    <row r="29" ht="104.1" customHeight="1" spans="1:9">
+    <row r="29" spans="1:9" ht="104.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="7">
         <v>28</v>
       </c>
@@ -2996,7 +2523,7 @@
       </c>
       <c r="I29" s="20"/>
     </row>
-    <row r="30" ht="28.8" spans="1:9">
+    <row r="30" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A30" s="7">
         <v>29</v>
       </c>
@@ -3015,7 +2542,7 @@
       </c>
       <c r="I30" s="20"/>
     </row>
-    <row r="31" ht="28.8" spans="1:9">
+    <row r="31" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A31" s="7">
         <v>30</v>
       </c>
@@ -3034,7 +2561,7 @@
       </c>
       <c r="I31" s="20"/>
     </row>
-    <row r="32" ht="28.8" spans="1:9">
+    <row r="32" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A32" s="7">
         <v>31</v>
       </c>
@@ -3053,7 +2580,7 @@
       </c>
       <c r="I32" s="20"/>
     </row>
-    <row r="33" ht="42.95" customHeight="1" spans="1:9">
+    <row r="33" spans="1:9" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="7">
         <v>32</v>
       </c>
@@ -3072,7 +2599,7 @@
       </c>
       <c r="I33" s="20"/>
     </row>
-    <row r="34" ht="32.1" customHeight="1" spans="1:9">
+    <row r="34" spans="1:9" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="7">
         <v>33</v>
       </c>
@@ -3091,7 +2618,7 @@
       </c>
       <c r="I34" s="20"/>
     </row>
-    <row r="35" ht="28.8" spans="1:9">
+    <row r="35" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A35" s="7">
         <v>34</v>
       </c>
@@ -3104,7 +2631,7 @@
       </c>
       <c r="I35" s="20"/>
     </row>
-    <row r="36" ht="28.8" spans="1:9">
+    <row r="36" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A36" s="7">
         <v>35</v>
       </c>
@@ -3117,7 +2644,7 @@
       </c>
       <c r="I36" s="20"/>
     </row>
-    <row r="37" ht="28.8" spans="1:9">
+    <row r="37" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A37" s="7">
         <v>36</v>
       </c>
@@ -3130,7 +2657,7 @@
       </c>
       <c r="I37" s="20"/>
     </row>
-    <row r="38" ht="28.8" spans="1:9">
+    <row r="38" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A38" s="7">
         <v>37</v>
       </c>
@@ -3143,7 +2670,7 @@
       </c>
       <c r="I38" s="20"/>
     </row>
-    <row r="39" ht="28.8" spans="1:9">
+    <row r="39" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A39" s="7">
         <v>38</v>
       </c>
@@ -3156,7 +2683,7 @@
       </c>
       <c r="I39" s="20"/>
     </row>
-    <row r="40" ht="57" customHeight="1" spans="1:9">
+    <row r="40" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="7">
         <v>39</v>
       </c>
@@ -3169,7 +2696,7 @@
       </c>
       <c r="I40" s="20"/>
     </row>
-    <row r="41" ht="28.8" spans="1:9">
+    <row r="41" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A41" s="7">
         <v>40</v>
       </c>
@@ -3186,9 +2713,8 @@
       <c r="I41" s="20"/>
     </row>
   </sheetData>
-  <autoFilter ref="H1:H32">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="H1:H32"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="A2:A41">
     <cfRule type="colorScale" priority="9">
       <colorScale>
@@ -3202,46 +2728,46 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H41">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>"已解决"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27:H28">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
       <formula>"已解决"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>"未处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
       <formula>"处理中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42:H1048576">
-    <cfRule type="cellIs" dxfId="0" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="22" operator="equal">
       <formula>"已解决"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="43" operator="equal">
       <formula>$H$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="44" operator="equal">
       <formula>"处理中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="46" operator="equal">
       <formula>"未处理"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26 H29:H41 H1:H23">
-    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
       <formula>"已解决"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
       <formula>"未处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
       <formula>"处理中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
       <formula>$H$6</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3255,14 +2781,13 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="1027" progId="包装程序外壳对象" r:id="rId3">
-          <objectPr defaultSize="0" r:id="rId4">
+        <oleObject progId="包装程序外壳对象" shapeId="1027" r:id="rId3">
+          <objectPr defaultSize="0" altText="" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
@@ -3281,13 +2806,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="1027" progId="包装程序外壳对象" r:id="rId3"/>
+        <oleObject progId="包装程序外壳对象" shapeId="1027" r:id="rId3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="1028" progId="Package" r:id="rId5">
-          <objectPr defaultSize="0" r:id="rId6">
+        <oleObject progId="Package" shapeId="1028" r:id="rId5">
+          <objectPr defaultSize="0" altText="" r:id="rId6">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
@@ -3306,13 +2831,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="1028" progId="Package" r:id="rId5"/>
+        <oleObject progId="Package" shapeId="1028" r:id="rId5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="1033" progId="包装程序外壳对象" r:id="rId7">
-          <objectPr defaultSize="0" r:id="rId8">
+        <oleObject progId="包装程序外壳对象" shapeId="1033" r:id="rId7">
+          <objectPr defaultSize="0" altText="" r:id="rId8">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
@@ -3331,13 +2856,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="1033" progId="包装程序外壳对象" r:id="rId7"/>
+        <oleObject progId="包装程序外壳对象" shapeId="1033" r:id="rId7"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="1035" progId="Package" r:id="rId9">
-          <objectPr defaultSize="0" r:id="rId10">
+        <oleObject progId="Package" shapeId="1035" r:id="rId9">
+          <objectPr defaultSize="0" altText="" r:id="rId10">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
@@ -3356,13 +2881,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="1035" progId="Package" r:id="rId9"/>
+        <oleObject progId="Package" shapeId="1035" r:id="rId9"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="1037" progId="Package" r:id="rId11">
-          <objectPr defaultSize="0" r:id="rId12">
+        <oleObject progId="Package" shapeId="1037" r:id="rId11">
+          <objectPr defaultSize="0" altText="" r:id="rId12">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
@@ -3381,13 +2906,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="1037" progId="Package" r:id="rId11"/>
+        <oleObject progId="Package" shapeId="1037" r:id="rId11"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="1038" progId="Paint.Picture" r:id="rId13">
-          <objectPr defaultSize="0" r:id="rId14">
+        <oleObject progId="Paint.Picture" shapeId="1038" r:id="rId13">
+          <objectPr defaultSize="0" altText="" r:id="rId14">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
@@ -3406,7 +2931,7 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="1038" progId="Paint.Picture" r:id="rId13"/>
+        <oleObject progId="Paint.Picture" shapeId="1038" r:id="rId13"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
